--- a/output/fit_clients/fit_round_43.xlsx
+++ b/output/fit_clients/fit_round_43.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N101"/>
+  <dimension ref="A1:H101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,24 +441,24 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
+          <t>splitLayer</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
           <t>dataSize</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>frequency</t>
-        </is>
-      </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
+          <t>computation</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
           <t>transPower</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>updateTime</t>
-        </is>
-      </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
           <t>isSelected</t>
@@ -466,37 +466,7 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>C</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
           <t>involvement_history</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>sigma</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>UCB_mu</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>UCB_U</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>g</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
-        <is>
-          <t>UCB_omega</t>
         </is>
       </c>
     </row>
@@ -510,40 +480,22 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>537</v>
+        <v>2</v>
       </c>
       <c r="D2" t="n">
-        <v>3774986777.133273</v>
+        <v>502</v>
       </c>
       <c r="E2" t="n">
-        <v>0.002328856375017683</v>
+        <v>9813312959.715469</v>
       </c>
       <c r="F2" t="n">
-        <v>0.3726138694102082</v>
+        <v>0.003195884941196252</v>
       </c>
       <c r="G2" t="b">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0.5059254371431372</v>
-      </c>
-      <c r="I2" t="n">
-        <v>9</v>
-      </c>
-      <c r="J2" t="n">
-        <v>0.590066592231333</v>
-      </c>
-      <c r="K2" t="n">
-        <v>0.5059254371431372</v>
-      </c>
-      <c r="L2" t="n">
-        <v>3.468379420462537</v>
-      </c>
-      <c r="M2" t="n">
-        <v>0.9489076779446765</v>
-      </c>
-      <c r="N2" t="n">
-        <v>-3.468379420462537</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3">
@@ -556,40 +508,22 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>506</v>
+        <v>4</v>
       </c>
       <c r="D3" t="n">
-        <v>6614434859.423958</v>
+        <v>542</v>
       </c>
       <c r="E3" t="n">
-        <v>0.001601023866104471</v>
+        <v>5443619012.664607</v>
       </c>
       <c r="F3" t="n">
-        <v>0.2003816453210076</v>
+        <v>0.006093517083292989</v>
       </c>
       <c r="G3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0.1576475125433262</v>
-      </c>
-      <c r="I3" t="n">
-        <v>9</v>
-      </c>
-      <c r="J3" t="n">
-        <v>0.590066592231333</v>
-      </c>
-      <c r="K3" t="n">
-        <v>0.1576475125433262</v>
-      </c>
-      <c r="L3" t="n">
-        <v>3.120101495862726</v>
-      </c>
-      <c r="M3" t="n">
-        <v>0.9145289852445265</v>
-      </c>
-      <c r="N3" t="n">
-        <v>-3.120101495862726</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4">
@@ -602,40 +536,22 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>517</v>
+        <v>5</v>
       </c>
       <c r="D4" t="n">
-        <v>7057299520.002787</v>
+        <v>534</v>
       </c>
       <c r="E4" t="n">
-        <v>0.00475458632877329</v>
+        <v>4603832581.698705</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1918899185391901</v>
+        <v>0.004040089180919991</v>
       </c>
       <c r="G4" t="b">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0.1404760395772202</v>
-      </c>
-      <c r="I4" t="n">
-        <v>6</v>
-      </c>
-      <c r="J4" t="n">
-        <v>0.590066592231333</v>
-      </c>
-      <c r="K4" t="n">
-        <v>0.1404760395772202</v>
-      </c>
-      <c r="L4" t="n">
-        <v>3.768726362381239</v>
-      </c>
-      <c r="M4" t="n">
-        <v>0.9637751643274755</v>
-      </c>
-      <c r="N4" t="n">
-        <v>-3.768726362381239</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5">
@@ -648,40 +564,22 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>457</v>
+        <v>2</v>
       </c>
       <c r="D5" t="n">
-        <v>4388248950.685743</v>
+        <v>494</v>
       </c>
       <c r="E5" t="n">
-        <v>0.004468194274220615</v>
+        <v>4277340487.822975</v>
       </c>
       <c r="F5" t="n">
-        <v>0.2727879032052039</v>
+        <v>0.004675752732005502</v>
       </c>
       <c r="G5" t="b">
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0.304063210054648</v>
-      </c>
-      <c r="I5" t="n">
-        <v>11</v>
-      </c>
-      <c r="J5" t="n">
-        <v>0.590066592231333</v>
-      </c>
-      <c r="K5" t="n">
-        <v>0.304063210054648</v>
-      </c>
-      <c r="L5" t="n">
-        <v>2.9837036613358</v>
-      </c>
-      <c r="M5" t="n">
-        <v>0.8298141541103637</v>
-      </c>
-      <c r="N5" t="n">
-        <v>-2.9837036613358</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -694,40 +592,22 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>503</v>
+        <v>6</v>
       </c>
       <c r="D6" t="n">
-        <v>5158759218.929073</v>
+        <v>469</v>
       </c>
       <c r="E6" t="n">
-        <v>0.002674626227876958</v>
+        <v>7411329212.839115</v>
       </c>
       <c r="F6" t="n">
-        <v>0.2554011757644149</v>
+        <v>0.002209694751522676</v>
       </c>
       <c r="G6" t="b">
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>0.2689047872874635</v>
-      </c>
-      <c r="I6" t="n">
-        <v>14</v>
-      </c>
-      <c r="J6" t="n">
-        <v>0.590066592231333</v>
-      </c>
-      <c r="K6" t="n">
-        <v>0.2689047872874636</v>
-      </c>
-      <c r="L6" t="n">
-        <v>2.644152179358518</v>
-      </c>
-      <c r="M6" t="n">
-        <v>0.8449169170532012</v>
-      </c>
-      <c r="N6" t="n">
-        <v>-2.644152179358518</v>
+        <v>9</v>
       </c>
     </row>
     <row r="7">
@@ -740,40 +620,22 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>512</v>
+        <v>2</v>
       </c>
       <c r="D7" t="n">
-        <v>6782530685.600801</v>
+        <v>539</v>
       </c>
       <c r="E7" t="n">
-        <v>0.004046256931989904</v>
+        <v>6691040198.866175</v>
       </c>
       <c r="F7" t="n">
-        <v>0.1977326372952785</v>
+        <v>0.001210120000868509</v>
       </c>
       <c r="G7" t="b">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0.1522908435324719</v>
-      </c>
-      <c r="I7" t="n">
-        <v>7</v>
-      </c>
-      <c r="J7" t="n">
-        <v>0.590066592231333</v>
-      </c>
-      <c r="K7" t="n">
-        <v>0.1522908435324719</v>
-      </c>
-      <c r="L7" t="n">
-        <v>3.511397919390681</v>
-      </c>
-      <c r="M7" t="n">
-        <v>0.946189246125674</v>
-      </c>
-      <c r="N7" t="n">
-        <v>-3.511397919390681</v>
+        <v>13</v>
       </c>
     </row>
     <row r="8">
@@ -786,40 +648,22 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>507</v>
+        <v>3</v>
       </c>
       <c r="D8" t="n">
-        <v>7911290988.484811</v>
+        <v>513</v>
       </c>
       <c r="E8" t="n">
-        <v>0.001124098464773324</v>
+        <v>5764990110.146276</v>
       </c>
       <c r="F8" t="n">
-        <v>0.167865236145782</v>
+        <v>0.00213945144499489</v>
       </c>
       <c r="G8" t="b">
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0.09189473275502938</v>
-      </c>
-      <c r="I8" t="n">
-        <v>6</v>
-      </c>
-      <c r="J8" t="n">
-        <v>0.590066592231333</v>
-      </c>
-      <c r="K8" t="n">
-        <v>0.09189473275502937</v>
-      </c>
-      <c r="L8" t="n">
-        <v>3.720145055559049</v>
-      </c>
-      <c r="M8" t="n">
-        <v>0.9529938297283289</v>
-      </c>
-      <c r="N8" t="n">
-        <v>-3.720145055559049</v>
+        <v>11</v>
       </c>
     </row>
     <row r="9">
@@ -832,40 +676,22 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>467</v>
+        <v>3</v>
       </c>
       <c r="D9" t="n">
-        <v>8275485145.129385</v>
+        <v>569</v>
       </c>
       <c r="E9" t="n">
-        <v>0.001160298933765199</v>
+        <v>5253367842.610567</v>
       </c>
       <c r="F9" t="n">
-        <v>0.147816727182449</v>
+        <v>0.004778952901504505</v>
       </c>
       <c r="G9" t="b">
         <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>0.05135381115923064</v>
-      </c>
-      <c r="I9" t="n">
-        <v>5</v>
-      </c>
-      <c r="J9" t="n">
-        <v>0.9707575434406583</v>
-      </c>
-      <c r="K9" t="n">
-        <v>0.05135381115923064</v>
-      </c>
-      <c r="L9" t="n">
-        <v>4.025902903309554</v>
-      </c>
-      <c r="M9" t="n">
-        <v>1.213022133372095</v>
-      </c>
-      <c r="N9" t="n">
-        <v>-4.025902903309554</v>
+        <v>14</v>
       </c>
     </row>
     <row r="10">
@@ -878,40 +704,22 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>532</v>
+        <v>2</v>
       </c>
       <c r="D10" t="n">
-        <v>7013801834.255452</v>
+        <v>529</v>
       </c>
       <c r="E10" t="n">
-        <v>0.002857293985944274</v>
+        <v>3382994419.172236</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1986819007623029</v>
+        <v>0.004395580510579448</v>
       </c>
       <c r="G10" t="b">
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0.1542103885650115</v>
-      </c>
-      <c r="I10" t="n">
-        <v>9</v>
-      </c>
-      <c r="J10" t="n">
-        <v>0.590066592231333</v>
-      </c>
-      <c r="K10" t="n">
-        <v>0.1542103885650115</v>
-      </c>
-      <c r="L10" t="n">
-        <v>3.116664371884411</v>
-      </c>
-      <c r="M10" t="n">
-        <v>0.9434474639985341</v>
-      </c>
-      <c r="N10" t="n">
-        <v>-3.116664371884411</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -924,40 +732,22 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>413</v>
+        <v>1</v>
       </c>
       <c r="D11" t="n">
-        <v>5818186551.41062</v>
+        <v>582</v>
       </c>
       <c r="E11" t="n">
-        <v>0.002615823055307827</v>
+        <v>3236949413.440906</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1859356107682239</v>
+        <v>0.001036220380360657</v>
       </c>
       <c r="G11" t="b">
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0.1284355868462225</v>
-      </c>
-      <c r="I11" t="n">
-        <v>11</v>
-      </c>
-      <c r="J11" t="n">
-        <v>0.590066592231333</v>
-      </c>
-      <c r="K11" t="n">
-        <v>0.1284355868462226</v>
-      </c>
-      <c r="L11" t="n">
-        <v>2.808076038127374</v>
-      </c>
-      <c r="M11" t="n">
-        <v>0.7730873739206215</v>
-      </c>
-      <c r="N11" t="n">
-        <v>-2.808076038127374</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -970,40 +760,22 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>555</v>
+        <v>5</v>
       </c>
       <c r="D12" t="n">
-        <v>5619512611.38813</v>
+        <v>537</v>
       </c>
       <c r="E12" t="n">
-        <v>0.00268072866557397</v>
+        <v>6127491607.135519</v>
       </c>
       <c r="F12" t="n">
-        <v>0.2586988499774703</v>
+        <v>0.00183829895813278</v>
       </c>
       <c r="G12" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H12" t="n">
-        <v>0.2755731511026717</v>
-      </c>
-      <c r="I12" t="n">
-        <v>5</v>
-      </c>
-      <c r="J12" t="n">
-        <v>0.590066592231333</v>
-      </c>
-      <c r="K12" t="n">
-        <v>0.2755731511026717</v>
-      </c>
-      <c r="L12" t="n">
-        <v>4.250122243252995</v>
-      </c>
-      <c r="M12" t="n">
-        <v>1.015207676906477</v>
-      </c>
-      <c r="N12" t="n">
-        <v>-4.250122243252995</v>
+        <v>12</v>
       </c>
     </row>
     <row r="13">
@@ -1016,40 +788,22 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>623</v>
+        <v>2</v>
       </c>
       <c r="D13" t="n">
-        <v>8265963767.339729</v>
+        <v>480</v>
       </c>
       <c r="E13" t="n">
-        <v>0.002623951272544145</v>
+        <v>6095255462.515558</v>
       </c>
       <c r="F13" t="n">
-        <v>0.1974216214747812</v>
+        <v>0.004168778012223168</v>
       </c>
       <c r="G13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H13" t="n">
-        <v>0.1516619255407699</v>
-      </c>
-      <c r="I13" t="n">
-        <v>11</v>
-      </c>
-      <c r="J13" t="n">
-        <v>0.5023056864477317</v>
-      </c>
-      <c r="K13" t="n">
-        <v>0.1516619255407699</v>
-      </c>
-      <c r="L13" t="n">
-        <v>2.831302376821922</v>
-      </c>
-      <c r="M13" t="n">
-        <v>0.9165985422285297</v>
-      </c>
-      <c r="N13" t="n">
-        <v>-2.831302376821922</v>
+        <v>7</v>
       </c>
     </row>
     <row r="14">
@@ -1062,40 +816,22 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>472</v>
+        <v>6</v>
       </c>
       <c r="D14" t="n">
-        <v>5928203131.174623</v>
+        <v>486</v>
       </c>
       <c r="E14" t="n">
-        <v>0.001542642043342661</v>
+        <v>7879454037.84855</v>
       </c>
       <c r="F14" t="n">
-        <v>0.2085542706015587</v>
+        <v>0.002369033241475378</v>
       </c>
       <c r="G14" t="b">
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0.1741737171272498</v>
-      </c>
-      <c r="I14" t="n">
-        <v>8</v>
-      </c>
-      <c r="J14" t="n">
-        <v>0.590066592231333</v>
-      </c>
-      <c r="K14" t="n">
-        <v>0.1741737171272498</v>
-      </c>
-      <c r="L14" t="n">
-        <v>3.31633066796462</v>
-      </c>
-      <c r="M14" t="n">
-        <v>0.8884576320982569</v>
-      </c>
-      <c r="N14" t="n">
-        <v>-3.31633066796462</v>
+        <v>11</v>
       </c>
     </row>
     <row r="15">
@@ -1108,40 +844,22 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>554</v>
+        <v>6</v>
       </c>
       <c r="D15" t="n">
-        <v>4243790845.786891</v>
+        <v>538</v>
       </c>
       <c r="E15" t="n">
-        <v>0.004965350667070036</v>
+        <v>7875900269.720513</v>
       </c>
       <c r="F15" t="n">
-        <v>0.3419447641819225</v>
+        <v>0.003816166464139721</v>
       </c>
       <c r="G15" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H15" t="n">
-        <v>0.4439081672929345</v>
-      </c>
-      <c r="I15" t="n">
-        <v>10</v>
-      </c>
-      <c r="J15" t="n">
-        <v>0.590066592231333</v>
-      </c>
-      <c r="K15" t="n">
-        <v>0.4439081672929345</v>
-      </c>
-      <c r="L15" t="n">
-        <v>3.254338782511265</v>
-      </c>
-      <c r="M15" t="n">
-        <v>0.9551445046143462</v>
-      </c>
-      <c r="N15" t="n">
-        <v>-3.254338782511265</v>
+        <v>12</v>
       </c>
     </row>
     <row r="16">
@@ -1154,40 +872,22 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>488</v>
+        <v>4</v>
       </c>
       <c r="D16" t="n">
-        <v>5171080259.722651</v>
+        <v>569</v>
       </c>
       <c r="E16" t="n">
-        <v>0.00167100299863924</v>
+        <v>6813244858.143101</v>
       </c>
       <c r="F16" t="n">
-        <v>0.2471944459954213</v>
+        <v>0.003836585838706493</v>
       </c>
       <c r="G16" t="b">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0.2523096186027912</v>
-      </c>
-      <c r="I16" t="n">
-        <v>9</v>
-      </c>
-      <c r="J16" t="n">
-        <v>0.590066592231333</v>
-      </c>
-      <c r="K16" t="n">
-        <v>0.2523096186027912</v>
-      </c>
-      <c r="L16" t="n">
-        <v>3.214763601922191</v>
-      </c>
-      <c r="M16" t="n">
-        <v>0.893960667299658</v>
-      </c>
-      <c r="N16" t="n">
-        <v>-3.214763601922191</v>
+        <v>14</v>
       </c>
     </row>
     <row r="17">
@@ -1200,40 +900,22 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>508</v>
+        <v>1</v>
       </c>
       <c r="D17" t="n">
-        <v>7685931331.203353</v>
+        <v>462</v>
       </c>
       <c r="E17" t="n">
-        <v>0.004381541380359111</v>
+        <v>4583691142.337432</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1731280260855083</v>
+        <v>0.002665918762253109</v>
       </c>
       <c r="G17" t="b">
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>0.1025368385950107</v>
-      </c>
-      <c r="I17" t="n">
-        <v>6</v>
-      </c>
-      <c r="J17" t="n">
-        <v>0.590066592231333</v>
-      </c>
-      <c r="K17" t="n">
-        <v>0.1025368385950107</v>
-      </c>
-      <c r="L17" t="n">
-        <v>3.73078716139903</v>
-      </c>
-      <c r="M17" t="n">
-        <v>0.9540774456445795</v>
-      </c>
-      <c r="N17" t="n">
-        <v>-3.73078716139903</v>
+        <v>9</v>
       </c>
     </row>
     <row r="18">
@@ -1246,40 +928,22 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>497</v>
+        <v>1</v>
       </c>
       <c r="D18" t="n">
-        <v>6872541171.616985</v>
+        <v>536</v>
       </c>
       <c r="E18" t="n">
-        <v>0.00116419486842914</v>
+        <v>5749986341.107999</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1894258320890788</v>
+        <v>0.001259438107345426</v>
       </c>
       <c r="G18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>0.1354933081550515</v>
-      </c>
-      <c r="I18" t="n">
-        <v>2</v>
-      </c>
-      <c r="J18" t="n">
-        <v>0.590066592231333</v>
-      </c>
-      <c r="K18" t="n">
-        <v>0.1354933081550515</v>
-      </c>
-      <c r="L18" t="n">
-        <v>6.419807209829792</v>
-      </c>
-      <c r="M18" t="n">
-        <v>0.9902298558617768</v>
-      </c>
-      <c r="N18" t="n">
-        <v>-6.419807209829792</v>
+        <v>12</v>
       </c>
     </row>
     <row r="19">
@@ -1292,40 +956,22 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>502</v>
+        <v>6</v>
       </c>
       <c r="D19" t="n">
-        <v>6085072935.90115</v>
+        <v>512</v>
       </c>
       <c r="E19" t="n">
-        <v>0.001217401097988846</v>
+        <v>3037510871.290442</v>
       </c>
       <c r="F19" t="n">
-        <v>0.216091704052068</v>
+        <v>0.002019667272244661</v>
       </c>
       <c r="G19" t="b">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0.189415473963607</v>
-      </c>
-      <c r="I19" t="n">
-        <v>11</v>
-      </c>
-      <c r="J19" t="n">
-        <v>0.9412104954527599</v>
-      </c>
-      <c r="K19" t="n">
-        <v>0.189415473963607</v>
-      </c>
-      <c r="L19" t="n">
-        <v>2.869055925244759</v>
-      </c>
-      <c r="M19" t="n">
-        <v>1.182765241090759</v>
-      </c>
-      <c r="N19" t="n">
-        <v>-2.869055925244759</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -1338,40 +984,22 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>406</v>
+        <v>4</v>
       </c>
       <c r="D20" t="n">
-        <v>5842947484.476484</v>
+        <v>508</v>
       </c>
       <c r="E20" t="n">
-        <v>0.002702245428946161</v>
+        <v>4996957096.538465</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1820095667170428</v>
+        <v>0.0009498656287868598</v>
       </c>
       <c r="G20" t="b">
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>0.1204965703162807</v>
-      </c>
-      <c r="I20" t="n">
-        <v>6</v>
-      </c>
-      <c r="J20" t="n">
-        <v>0.590066592231333</v>
-      </c>
-      <c r="K20" t="n">
-        <v>0.1204965703162808</v>
-      </c>
-      <c r="L20" t="n">
-        <v>3.7487468931203</v>
-      </c>
-      <c r="M20" t="n">
-        <v>0.8363476717077623</v>
-      </c>
-      <c r="N20" t="n">
-        <v>-3.7487468931203</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21">
@@ -1384,40 +1012,22 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>464</v>
+        <v>2</v>
       </c>
       <c r="D21" t="n">
-        <v>4118902707.420316</v>
+        <v>440</v>
       </c>
       <c r="E21" t="n">
-        <v>0.003495120266565044</v>
+        <v>5471902383.37735</v>
       </c>
       <c r="F21" t="n">
-        <v>0.2950778511496349</v>
+        <v>0.005669921820490505</v>
       </c>
       <c r="G21" t="b">
         <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>0.349136638390008</v>
-      </c>
-      <c r="I21" t="n">
-        <v>11</v>
-      </c>
-      <c r="J21" t="n">
-        <v>0.590066592231333</v>
-      </c>
-      <c r="K21" t="n">
-        <v>0.349136638390008</v>
-      </c>
-      <c r="L21" t="n">
-        <v>3.02877708967116</v>
-      </c>
-      <c r="M21" t="n">
-        <v>0.838485098182328</v>
-      </c>
-      <c r="N21" t="n">
-        <v>-3.02877708967116</v>
+        <v>8</v>
       </c>
     </row>
     <row r="22">
@@ -1430,40 +1040,22 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>421</v>
+        <v>3</v>
       </c>
       <c r="D22" t="n">
-        <v>4170796226.284842</v>
+        <v>441</v>
       </c>
       <c r="E22" t="n">
-        <v>0.001920615895399191</v>
+        <v>6022890060.272672</v>
       </c>
       <c r="F22" t="n">
-        <v>0.2644011191556803</v>
+        <v>0.003782521515071914</v>
       </c>
       <c r="G22" t="b">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0.2871039461405845</v>
-      </c>
-      <c r="I22" t="n">
-        <v>6</v>
-      </c>
-      <c r="J22" t="n">
-        <v>0.6100791380869672</v>
-      </c>
-      <c r="K22" t="n">
-        <v>0.2871039461405845</v>
-      </c>
-      <c r="L22" t="n">
-        <v>3.915354268944604</v>
-      </c>
-      <c r="M22" t="n">
-        <v>0.8717697311278736</v>
-      </c>
-      <c r="N22" t="n">
-        <v>-3.915354268944604</v>
+        <v>4</v>
       </c>
     </row>
     <row r="23">
@@ -1476,40 +1068,22 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>489</v>
+        <v>3</v>
       </c>
       <c r="D23" t="n">
-        <v>7073710656.462761</v>
+        <v>439</v>
       </c>
       <c r="E23" t="n">
-        <v>0.002005186979892943</v>
+        <v>7660520011.91455</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1810763504766408</v>
+        <v>0.001815835555792701</v>
       </c>
       <c r="G23" t="b">
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>0.1186094750463404</v>
-      </c>
-      <c r="I23" t="n">
-        <v>13</v>
-      </c>
-      <c r="J23" t="n">
-        <v>0.9842491172767801</v>
-      </c>
-      <c r="K23" t="n">
-        <v>0.1186094750463404</v>
-      </c>
-      <c r="L23" t="n">
-        <v>2.583520183829564</v>
-      </c>
-      <c r="M23" t="n">
-        <v>1.176127933975057</v>
-      </c>
-      <c r="N23" t="n">
-        <v>-2.583520183829564</v>
+        <v>8</v>
       </c>
     </row>
     <row r="24">
@@ -1522,40 +1096,22 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>561</v>
+        <v>2</v>
       </c>
       <c r="D24" t="n">
-        <v>5525064420.028789</v>
+        <v>513</v>
       </c>
       <c r="E24" t="n">
-        <v>0.004629431951755945</v>
+        <v>8593210066.659906</v>
       </c>
       <c r="F24" t="n">
-        <v>0.2659657296796448</v>
+        <v>0.003442670180091471</v>
       </c>
       <c r="G24" t="b">
         <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>0.2902678099818315</v>
-      </c>
-      <c r="I24" t="n">
-        <v>8</v>
-      </c>
-      <c r="J24" t="n">
-        <v>0.590066592231333</v>
-      </c>
-      <c r="K24" t="n">
-        <v>0.2902678099818315</v>
-      </c>
-      <c r="L24" t="n">
-        <v>3.432424760819202</v>
-      </c>
-      <c r="M24" t="n">
-        <v>0.9865487226254419</v>
-      </c>
-      <c r="N24" t="n">
-        <v>-3.432424760819202</v>
+        <v>11</v>
       </c>
     </row>
     <row r="25">
@@ -1568,40 +1124,22 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>502</v>
+        <v>3</v>
       </c>
       <c r="D25" t="n">
-        <v>5413259802.605798</v>
+        <v>473</v>
       </c>
       <c r="E25" t="n">
-        <v>0.001173784140480929</v>
+        <v>5095069478.172801</v>
       </c>
       <c r="F25" t="n">
-        <v>0.2429097859605826</v>
+        <v>0.00326906832343948</v>
       </c>
       <c r="G25" t="b">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0.2436454298167454</v>
-      </c>
-      <c r="I25" t="n">
-        <v>7</v>
-      </c>
-      <c r="J25" t="n">
-        <v>0.590066592231333</v>
-      </c>
-      <c r="K25" t="n">
-        <v>0.2436454298167454</v>
-      </c>
-      <c r="L25" t="n">
-        <v>3.602752505674954</v>
-      </c>
-      <c r="M25" t="n">
-        <v>0.9352051975955256</v>
-      </c>
-      <c r="N25" t="n">
-        <v>-3.602752505674954</v>
+        <v>9</v>
       </c>
     </row>
     <row r="26">
@@ -1614,40 +1152,22 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>440</v>
+        <v>5</v>
       </c>
       <c r="D26" t="n">
-        <v>8878378545.372093</v>
+        <v>462</v>
       </c>
       <c r="E26" t="n">
-        <v>0.003343816849561506</v>
+        <v>5536432874.13962</v>
       </c>
       <c r="F26" t="n">
-        <v>0.1298132980149584</v>
+        <v>0.001336794321775137</v>
       </c>
       <c r="G26" t="b">
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>0.01494833024942155</v>
-      </c>
-      <c r="I26" t="n">
-        <v>12</v>
-      </c>
-      <c r="J26" t="n">
-        <v>0.590066592231333</v>
-      </c>
-      <c r="K26" t="n">
-        <v>0.01494833024942155</v>
-      </c>
-      <c r="L26" t="n">
-        <v>2.580508737346423</v>
-      </c>
-      <c r="M26" t="n">
-        <v>0.79385430591658</v>
-      </c>
-      <c r="N26" t="n">
-        <v>-2.580508737346423</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -1660,40 +1180,22 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>520</v>
+        <v>3</v>
       </c>
       <c r="D27" t="n">
-        <v>6054631295.600825</v>
+        <v>517</v>
       </c>
       <c r="E27" t="n">
-        <v>0.004693124232801393</v>
+        <v>6077094334.546985</v>
       </c>
       <c r="F27" t="n">
-        <v>0.2249654410813855</v>
+        <v>0.003459790214617063</v>
       </c>
       <c r="G27" t="b">
         <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>0.2073594256971372</v>
-      </c>
-      <c r="I27" t="n">
-        <v>10</v>
-      </c>
-      <c r="J27" t="n">
-        <v>0.3338634119332461</v>
-      </c>
-      <c r="K27" t="n">
-        <v>0.2073594256971372</v>
-      </c>
-      <c r="L27" t="n">
-        <v>3.017790040915467</v>
-      </c>
-      <c r="M27" t="n">
-        <v>0.6127443767950053</v>
-      </c>
-      <c r="N27" t="n">
-        <v>-3.017790040915467</v>
+        <v>12</v>
       </c>
     </row>
     <row r="28">
@@ -1706,40 +1208,22 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>488</v>
+        <v>3</v>
       </c>
       <c r="D28" t="n">
-        <v>5647876142.162022</v>
+        <v>507</v>
       </c>
       <c r="E28" t="n">
-        <v>0.003842736873459637</v>
+        <v>7580135890.539037</v>
       </c>
       <c r="F28" t="n">
-        <v>0.2263261955158029</v>
+        <v>0.004251800562082315</v>
       </c>
       <c r="G28" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0.21011106368367</v>
-      </c>
-      <c r="I28" t="n">
-        <v>8</v>
-      </c>
-      <c r="J28" t="n">
-        <v>0.590066592231333</v>
-      </c>
-      <c r="K28" t="n">
-        <v>0.21011106368367</v>
-      </c>
-      <c r="L28" t="n">
-        <v>3.35226801452104</v>
-      </c>
-      <c r="M28" t="n">
-        <v>0.9068745716097337</v>
-      </c>
-      <c r="N28" t="n">
-        <v>-3.35226801452104</v>
+        <v>11</v>
       </c>
     </row>
     <row r="29">
@@ -1752,40 +1236,22 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>550</v>
+        <v>4</v>
       </c>
       <c r="D29" t="n">
-        <v>5434252017.002002</v>
+        <v>504</v>
       </c>
       <c r="E29" t="n">
-        <v>0.003512169427094836</v>
+        <v>5934514515.149849</v>
       </c>
       <c r="F29" t="n">
-        <v>0.2651081502095653</v>
+        <v>0.001563694678115086</v>
       </c>
       <c r="G29" t="b">
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>0.2885336629626071</v>
-      </c>
-      <c r="I29" t="n">
-        <v>8</v>
-      </c>
-      <c r="J29" t="n">
-        <v>0.3273391251715452</v>
-      </c>
-      <c r="K29" t="n">
-        <v>0.2885336629626071</v>
-      </c>
-      <c r="L29" t="n">
-        <v>3.430690613799978</v>
-      </c>
-      <c r="M29" t="n">
-        <v>0.6666917301999793</v>
-      </c>
-      <c r="N29" t="n">
-        <v>-3.430690613799978</v>
+        <v>13</v>
       </c>
     </row>
     <row r="30">
@@ -1798,40 +1264,22 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>483</v>
+        <v>2</v>
       </c>
       <c r="D30" t="n">
-        <v>8499320839.705422</v>
+        <v>564</v>
       </c>
       <c r="E30" t="n">
-        <v>0.003553472151139161</v>
+        <v>7906951546.351132</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1488548783909479</v>
+        <v>0.003523242918341343</v>
       </c>
       <c r="G30" t="b">
         <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>0.05345309978090874</v>
-      </c>
-      <c r="I30" t="n">
-        <v>9</v>
-      </c>
-      <c r="J30" t="n">
-        <v>0.590066592231333</v>
-      </c>
-      <c r="K30" t="n">
-        <v>0.05345309978090874</v>
-      </c>
-      <c r="L30" t="n">
-        <v>3.015907083100308</v>
-      </c>
-      <c r="M30" t="n">
-        <v>0.8881627163655076</v>
-      </c>
-      <c r="N30" t="n">
-        <v>-3.015907083100308</v>
+        <v>15</v>
       </c>
     </row>
     <row r="31">
@@ -1844,40 +1292,22 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>555</v>
+        <v>2</v>
       </c>
       <c r="D31" t="n">
-        <v>5830989036.590513</v>
+        <v>457</v>
       </c>
       <c r="E31" t="n">
-        <v>0.003502687500036464</v>
+        <v>5663790955.649938</v>
       </c>
       <c r="F31" t="n">
-        <v>0.2493164437246209</v>
+        <v>0.002703154239353602</v>
       </c>
       <c r="G31" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0.2566005982324126</v>
-      </c>
-      <c r="I31" t="n">
         <v>9</v>
-      </c>
-      <c r="J31" t="n">
-        <v>0.2630261900615691</v>
-      </c>
-      <c r="K31" t="n">
-        <v>0.2566005982324126</v>
-      </c>
-      <c r="L31" t="n">
-        <v>3.219054581551812</v>
-      </c>
-      <c r="M31" t="n">
-        <v>0.549497581007297</v>
-      </c>
-      <c r="N31" t="n">
-        <v>-3.219054581551812</v>
       </c>
     </row>
     <row r="32">
@@ -1890,40 +1320,22 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>516</v>
+        <v>2</v>
       </c>
       <c r="D32" t="n">
-        <v>3806884341.105919</v>
+        <v>574</v>
       </c>
       <c r="E32" t="n">
-        <v>0.002488747404637244</v>
+        <v>5221498036.735463</v>
       </c>
       <c r="F32" t="n">
-        <v>0.3550423703199115</v>
+        <v>0.001313172041037109</v>
       </c>
       <c r="G32" t="b">
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>0.4703933799590733</v>
-      </c>
-      <c r="I32" t="n">
-        <v>8</v>
-      </c>
-      <c r="J32" t="n">
-        <v>0.4634815716430791</v>
-      </c>
-      <c r="K32" t="n">
-        <v>0.4703933799590732</v>
-      </c>
-      <c r="L32" t="n">
-        <v>3.612550330796444</v>
-      </c>
-      <c r="M32" t="n">
-        <v>0.8071728356427859</v>
-      </c>
-      <c r="N32" t="n">
-        <v>-3.612550330796444</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -1936,40 +1348,22 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>426</v>
+        <v>4</v>
       </c>
       <c r="D33" t="n">
-        <v>4298435356.710087</v>
+        <v>470</v>
       </c>
       <c r="E33" t="n">
-        <v>0.004380269177921706</v>
+        <v>7204279576.620718</v>
       </c>
       <c r="F33" t="n">
-        <v>0.2595968177718627</v>
+        <v>0.002767919454139106</v>
       </c>
       <c r="G33" t="b">
         <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>0.2773889690278148</v>
-      </c>
-      <c r="I33" t="n">
-        <v>8</v>
-      </c>
-      <c r="J33" t="n">
-        <v>0.7681315424687987</v>
-      </c>
-      <c r="K33" t="n">
-        <v>0.2773889690278148</v>
-      </c>
-      <c r="L33" t="n">
-        <v>3.419545919865185</v>
-      </c>
-      <c r="M33" t="n">
-        <v>0.9797746581101013</v>
-      </c>
-      <c r="N33" t="n">
-        <v>-3.419545919865185</v>
+        <v>9</v>
       </c>
     </row>
     <row r="34">
@@ -1982,40 +1376,22 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>368</v>
+        <v>6</v>
       </c>
       <c r="D34" t="n">
-        <v>3372579813.752537</v>
+        <v>560</v>
       </c>
       <c r="E34" t="n">
-        <v>0.002693531213190146</v>
+        <v>6833093656.503198</v>
       </c>
       <c r="F34" t="n">
-        <v>0.2858154805022885</v>
+        <v>0.004462236871275995</v>
       </c>
       <c r="G34" t="b">
         <v>1</v>
       </c>
       <c r="H34" t="n">
-        <v>0.3304068144967667</v>
-      </c>
-      <c r="I34" t="n">
-        <v>3</v>
-      </c>
-      <c r="J34" t="n">
-        <v>0.590066592231333</v>
-      </c>
-      <c r="K34" t="n">
-        <v>0.3304068144967667</v>
-      </c>
-      <c r="L34" t="n">
-        <v>5.461527628690771</v>
-      </c>
-      <c r="M34" t="n">
-        <v>0.8310936312531554</v>
-      </c>
-      <c r="N34" t="n">
-        <v>-5.461527628690771</v>
+        <v>13</v>
       </c>
     </row>
     <row r="35">
@@ -2028,40 +1404,22 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>509</v>
+        <v>1</v>
       </c>
       <c r="D35" t="n">
-        <v>6346940715.691374</v>
+        <v>514</v>
       </c>
       <c r="E35" t="n">
-        <v>0.002968528451979102</v>
+        <v>5345802108.443287</v>
       </c>
       <c r="F35" t="n">
-        <v>0.2100649068146789</v>
+        <v>0.002567683305340644</v>
       </c>
       <c r="G35" t="b">
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>0.1772284372756603</v>
-      </c>
-      <c r="I35" t="n">
-        <v>7</v>
-      </c>
-      <c r="J35" t="n">
-        <v>0.590066592231333</v>
-      </c>
-      <c r="K35" t="n">
-        <v>0.1772284372756603</v>
-      </c>
-      <c r="L35" t="n">
-        <v>3.536335513133869</v>
-      </c>
-      <c r="M35" t="n">
-        <v>0.9429074668924919</v>
-      </c>
-      <c r="N35" t="n">
-        <v>-3.536335513133869</v>
+        <v>11</v>
       </c>
     </row>
     <row r="36">
@@ -2074,40 +1432,22 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>589</v>
+        <v>1</v>
       </c>
       <c r="D36" t="n">
-        <v>7298371993.110824</v>
+        <v>538</v>
       </c>
       <c r="E36" t="n">
-        <v>0.001780031013941675</v>
+        <v>7827174834.857094</v>
       </c>
       <c r="F36" t="n">
-        <v>0.211392446350545</v>
+        <v>0.002572357268074239</v>
       </c>
       <c r="G36" t="b">
         <v>1</v>
       </c>
       <c r="H36" t="n">
-        <v>0.1799129100380637</v>
-      </c>
-      <c r="I36" t="n">
-        <v>8</v>
-      </c>
-      <c r="J36" t="n">
-        <v>0.590066592231333</v>
-      </c>
-      <c r="K36" t="n">
-        <v>0.1799129100380637</v>
-      </c>
-      <c r="L36" t="n">
-        <v>3.322069860875434</v>
-      </c>
-      <c r="M36" t="n">
-        <v>1.015451279068381</v>
-      </c>
-      <c r="N36" t="n">
-        <v>-3.322069860875434</v>
+        <v>12</v>
       </c>
     </row>
     <row r="37">
@@ -2120,40 +1460,22 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>600</v>
+        <v>5</v>
       </c>
       <c r="D37" t="n">
-        <v>5259872171.049418</v>
+        <v>573</v>
       </c>
       <c r="E37" t="n">
-        <v>0.002908427406405509</v>
+        <v>5520088697.886893</v>
       </c>
       <c r="F37" t="n">
-        <v>0.2987969952293417</v>
+        <v>0.004684048532412765</v>
       </c>
       <c r="G37" t="b">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0.356657273905329</v>
-      </c>
-      <c r="I37" t="n">
-        <v>10</v>
-      </c>
-      <c r="J37" t="n">
-        <v>0.590066592231333</v>
-      </c>
-      <c r="K37" t="n">
-        <v>0.3566572739053289</v>
-      </c>
-      <c r="L37" t="n">
-        <v>3.167087889123659</v>
-      </c>
-      <c r="M37" t="n">
-        <v>1.003674017256717</v>
-      </c>
-      <c r="N37" t="n">
-        <v>-3.167087889123659</v>
+        <v>12</v>
       </c>
     </row>
     <row r="38">
@@ -2166,40 +1488,22 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>494</v>
+        <v>2</v>
       </c>
       <c r="D38" t="n">
-        <v>7496605945.036965</v>
+        <v>461</v>
       </c>
       <c r="E38" t="n">
-        <v>0.00143927720525069</v>
+        <v>4806973588.373824</v>
       </c>
       <c r="F38" t="n">
-        <v>0.1726086004102513</v>
+        <v>0.003177481373728678</v>
       </c>
       <c r="G38" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>0.101486486391066</v>
-      </c>
-      <c r="I38" t="n">
-        <v>10</v>
-      </c>
-      <c r="J38" t="n">
-        <v>0.8495834249351507</v>
-      </c>
-      <c r="K38" t="n">
-        <v>0.101486486391066</v>
-      </c>
-      <c r="L38" t="n">
-        <v>2.911917101609396</v>
-      </c>
-      <c r="M38" t="n">
-        <v>1.112338098234714</v>
-      </c>
-      <c r="N38" t="n">
-        <v>-2.911917101609396</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -2212,40 +1516,22 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>444</v>
+        <v>5</v>
       </c>
       <c r="D39" t="n">
-        <v>3760683806.714372</v>
+        <v>470</v>
       </c>
       <c r="E39" t="n">
-        <v>0.001576353555582976</v>
+        <v>4844453469.825539</v>
       </c>
       <c r="F39" t="n">
-        <v>0.3092547046692808</v>
+        <v>0.002700264399316256</v>
       </c>
       <c r="G39" t="b">
         <v>0</v>
       </c>
       <c r="H39" t="n">
-        <v>0.3778042419542554</v>
-      </c>
-      <c r="I39" t="n">
-        <v>8</v>
-      </c>
-      <c r="J39" t="n">
-        <v>0.590066592231333</v>
-      </c>
-      <c r="K39" t="n">
-        <v>0.3778042419542555</v>
-      </c>
-      <c r="L39" t="n">
-        <v>3.519961192791626</v>
-      </c>
-      <c r="M39" t="n">
-        <v>0.8552742519133395</v>
-      </c>
-      <c r="N39" t="n">
-        <v>-3.519961192791626</v>
+        <v>4</v>
       </c>
     </row>
     <row r="40">
@@ -2258,40 +1544,22 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>563</v>
+        <v>2</v>
       </c>
       <c r="D40" t="n">
-        <v>4800759015.486515</v>
+        <v>523</v>
       </c>
       <c r="E40" t="n">
-        <v>0.003643763940889476</v>
+        <v>5411572065.622097</v>
       </c>
       <c r="F40" t="n">
-        <v>0.3071840442819124</v>
+        <v>0.003210399459555771</v>
       </c>
       <c r="G40" t="b">
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0.3736170736930465</v>
-      </c>
-      <c r="I40" t="n">
-        <v>8</v>
-      </c>
-      <c r="J40" t="n">
-        <v>0.590066592231333</v>
-      </c>
-      <c r="K40" t="n">
-        <v>0.3736170736930466</v>
-      </c>
-      <c r="L40" t="n">
-        <v>3.515774024530417</v>
-      </c>
-      <c r="M40" t="n">
-        <v>0.9886412128212784</v>
-      </c>
-      <c r="N40" t="n">
-        <v>-3.515774024530417</v>
+        <v>10</v>
       </c>
     </row>
     <row r="41">
@@ -2304,40 +1572,22 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>496</v>
+        <v>6</v>
       </c>
       <c r="D41" t="n">
-        <v>5814360010.920331</v>
+        <v>540</v>
       </c>
       <c r="E41" t="n">
-        <v>0.003441932960349784</v>
+        <v>5399380154.859483</v>
       </c>
       <c r="F41" t="n">
-        <v>0.2234497756519814</v>
+        <v>0.001140102916917127</v>
       </c>
       <c r="G41" t="b">
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>0.204294535761865</v>
-      </c>
-      <c r="I41" t="n">
-        <v>7</v>
-      </c>
-      <c r="J41" t="n">
-        <v>0.590066592231333</v>
-      </c>
-      <c r="K41" t="n">
-        <v>0.204294535761865</v>
-      </c>
-      <c r="L41" t="n">
-        <v>3.563401611620074</v>
-      </c>
-      <c r="M41" t="n">
-        <v>0.9285524028751284</v>
-      </c>
-      <c r="N41" t="n">
-        <v>-3.563401611620074</v>
+        <v>12</v>
       </c>
     </row>
     <row r="42">
@@ -2350,40 +1600,22 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>559</v>
+        <v>1</v>
       </c>
       <c r="D42" t="n">
-        <v>9009455758.474722</v>
+        <v>514</v>
       </c>
       <c r="E42" t="n">
-        <v>0.004120430989197746</v>
+        <v>4406118065.889472</v>
       </c>
       <c r="F42" t="n">
-        <v>0.1625224707522058</v>
+        <v>0.004184163444147528</v>
       </c>
       <c r="G42" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H42" t="n">
-        <v>0.08109090523240091</v>
-      </c>
-      <c r="I42" t="n">
-        <v>7</v>
-      </c>
-      <c r="J42" t="n">
-        <v>0.590066592231333</v>
-      </c>
-      <c r="K42" t="n">
-        <v>0.08109090523240091</v>
-      </c>
-      <c r="L42" t="n">
-        <v>3.44019798109061</v>
-      </c>
-      <c r="M42" t="n">
-        <v>0.9961933198393484</v>
-      </c>
-      <c r="N42" t="n">
-        <v>-3.44019798109061</v>
+        <v>11</v>
       </c>
     </row>
     <row r="43">
@@ -2396,40 +1628,22 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>503</v>
+        <v>3</v>
       </c>
       <c r="D43" t="n">
-        <v>4839685259.079359</v>
+        <v>493</v>
       </c>
       <c r="E43" t="n">
-        <v>0.001751323143399764</v>
+        <v>6459237654.201124</v>
       </c>
       <c r="F43" t="n">
-        <v>0.2722394328284552</v>
+        <v>0.004423401427994102</v>
       </c>
       <c r="G43" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0.30295412535503</v>
-      </c>
-      <c r="I43" t="n">
-        <v>7</v>
-      </c>
-      <c r="J43" t="n">
-        <v>0.590066592231333</v>
-      </c>
-      <c r="K43" t="n">
-        <v>0.30295412535503</v>
-      </c>
-      <c r="L43" t="n">
-        <v>3.662061201213239</v>
-      </c>
-      <c r="M43" t="n">
-        <v>0.9363094009979311</v>
-      </c>
-      <c r="N43" t="n">
-        <v>-3.662061201213239</v>
+        <v>11</v>
       </c>
     </row>
     <row r="44">
@@ -2442,40 +1656,22 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>535</v>
+        <v>1</v>
       </c>
       <c r="D44" t="n">
-        <v>5142818208.229213</v>
+        <v>523</v>
       </c>
       <c r="E44" t="n">
-        <v>0.002977863165484078</v>
+        <v>6346097769.392366</v>
       </c>
       <c r="F44" t="n">
-        <v>0.2724913837626246</v>
+        <v>0.001791479690686544</v>
       </c>
       <c r="G44" t="b">
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>0.3034636057900505</v>
-      </c>
-      <c r="I44" t="n">
-        <v>11</v>
-      </c>
-      <c r="J44" t="n">
-        <v>0.590066592231333</v>
-      </c>
-      <c r="K44" t="n">
-        <v>0.3034636057900504</v>
-      </c>
-      <c r="L44" t="n">
-        <v>2.983104057071202</v>
-      </c>
-      <c r="M44" t="n">
-        <v>0.9218357162643157</v>
-      </c>
-      <c r="N44" t="n">
-        <v>-2.983104057071202</v>
+        <v>12</v>
       </c>
     </row>
     <row r="45">
@@ -2488,40 +1684,22 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>534</v>
+        <v>6</v>
       </c>
       <c r="D45" t="n">
-        <v>3963283408.268007</v>
+        <v>520</v>
       </c>
       <c r="E45" t="n">
-        <v>0.001192640398095167</v>
+        <v>4677075237.099364</v>
       </c>
       <c r="F45" t="n">
-        <v>0.3529281446494559</v>
+        <v>0.001607944730824203</v>
       </c>
       <c r="G45" t="b">
         <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>0.4661181165318266</v>
-      </c>
-      <c r="I45" t="n">
-        <v>8</v>
-      </c>
-      <c r="J45" t="n">
-        <v>0.590066592231333</v>
-      </c>
-      <c r="K45" t="n">
-        <v>0.4661181165318266</v>
-      </c>
-      <c r="L45" t="n">
-        <v>3.608275067369197</v>
-      </c>
-      <c r="M45" t="n">
-        <v>0.957852805421371</v>
-      </c>
-      <c r="N45" t="n">
-        <v>-3.608275067369197</v>
+        <v>3</v>
       </c>
     </row>
     <row r="46">
@@ -2534,40 +1712,22 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>428</v>
+        <v>1</v>
       </c>
       <c r="D46" t="n">
-        <v>4971721447.376981</v>
+        <v>406</v>
       </c>
       <c r="E46" t="n">
-        <v>0.003654645328717432</v>
+        <v>9647640472.936535</v>
       </c>
       <c r="F46" t="n">
-        <v>0.225495119118445</v>
+        <v>0.004128103046556034</v>
       </c>
       <c r="G46" t="b">
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0.2084305096271551</v>
-      </c>
-      <c r="I46" t="n">
-        <v>10</v>
-      </c>
-      <c r="J46" t="n">
-        <v>0.590066592231333</v>
-      </c>
-      <c r="K46" t="n">
-        <v>0.2084305096271551</v>
-      </c>
-      <c r="L46" t="n">
-        <v>3.018861124845485</v>
-      </c>
-      <c r="M46" t="n">
-        <v>0.8074143257833919</v>
-      </c>
-      <c r="N46" t="n">
-        <v>-3.018861124845485</v>
+        <v>7</v>
       </c>
     </row>
     <row r="47">
@@ -2580,40 +1740,22 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>484</v>
+        <v>6</v>
       </c>
       <c r="D47" t="n">
-        <v>7366426632.272665</v>
+        <v>368</v>
       </c>
       <c r="E47" t="n">
-        <v>0.004305234389428485</v>
+        <v>6734821565.355495</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1721030865149426</v>
+        <v>0.003102006226171474</v>
       </c>
       <c r="G47" t="b">
         <v>0</v>
       </c>
       <c r="H47" t="n">
-        <v>0.1004642657744218</v>
-      </c>
-      <c r="I47" t="n">
-        <v>8</v>
-      </c>
-      <c r="J47" t="n">
-        <v>0.590066592231333</v>
-      </c>
-      <c r="K47" t="n">
-        <v>0.1004642657744218</v>
-      </c>
-      <c r="L47" t="n">
-        <v>3.242621216611792</v>
-      </c>
-      <c r="M47" t="n">
-        <v>0.9023055787717729</v>
-      </c>
-      <c r="N47" t="n">
-        <v>-3.242621216611792</v>
+        <v>6</v>
       </c>
     </row>
     <row r="48">
@@ -2626,40 +1768,22 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>506</v>
+        <v>1</v>
       </c>
       <c r="D48" t="n">
-        <v>5596692203.920995</v>
+        <v>431</v>
       </c>
       <c r="E48" t="n">
-        <v>0.001896823417889677</v>
+        <v>6359982152.54871</v>
       </c>
       <c r="F48" t="n">
-        <v>0.2368204810461844</v>
+        <v>0.003643534194562875</v>
       </c>
       <c r="G48" t="b">
         <v>0</v>
       </c>
       <c r="H48" t="n">
-        <v>0.2313319937622725</v>
-      </c>
-      <c r="I48" t="n">
-        <v>5</v>
-      </c>
-      <c r="J48" t="n">
-        <v>0.590066592231333</v>
-      </c>
-      <c r="K48" t="n">
-        <v>0.2313319937622725</v>
-      </c>
-      <c r="L48" t="n">
-        <v>4.205881085912596</v>
-      </c>
-      <c r="M48" t="n">
-        <v>0.9640469494097976</v>
-      </c>
-      <c r="N48" t="n">
-        <v>-4.205881085912596</v>
+        <v>8</v>
       </c>
     </row>
     <row r="49">
@@ -2672,40 +1796,22 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>479</v>
+        <v>1</v>
       </c>
       <c r="D49" t="n">
-        <v>4506669022.531095</v>
+        <v>581</v>
       </c>
       <c r="E49" t="n">
-        <v>0.001668197721890523</v>
+        <v>3791032346.751074</v>
       </c>
       <c r="F49" t="n">
-        <v>0.2784069128944654</v>
+        <v>0.004241965637877285</v>
       </c>
       <c r="G49" t="b">
         <v>0</v>
       </c>
       <c r="H49" t="n">
-        <v>0.3154256426263176</v>
-      </c>
-      <c r="I49" t="n">
-        <v>9</v>
-      </c>
-      <c r="J49" t="n">
-        <v>0.590066592231333</v>
-      </c>
-      <c r="K49" t="n">
-        <v>0.3154256426263176</v>
-      </c>
-      <c r="L49" t="n">
-        <v>3.277879625945717</v>
-      </c>
-      <c r="M49" t="n">
-        <v>0.8834969607146834</v>
-      </c>
-      <c r="N49" t="n">
-        <v>-3.277879625945717</v>
+        <v>1</v>
       </c>
     </row>
     <row r="50">
@@ -2718,40 +1824,22 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>559</v>
+        <v>3</v>
       </c>
       <c r="D50" t="n">
-        <v>5877760196.501237</v>
+        <v>528</v>
       </c>
       <c r="E50" t="n">
-        <v>0.004838338444516511</v>
+        <v>6593854162.483883</v>
       </c>
       <c r="F50" t="n">
-        <v>0.2491151324736921</v>
+        <v>0.003676952274343062</v>
       </c>
       <c r="G50" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H50" t="n">
-        <v>0.2561935184014295</v>
-      </c>
-      <c r="I50" t="n">
-        <v>3</v>
-      </c>
-      <c r="J50" t="n">
-        <v>0.590066592231333</v>
-      </c>
-      <c r="K50" t="n">
-        <v>0.2561935184014295</v>
-      </c>
-      <c r="L50" t="n">
-        <v>5.387314332595434</v>
-      </c>
-      <c r="M50" t="n">
-        <v>1.041837024829938</v>
-      </c>
-      <c r="N50" t="n">
-        <v>-5.387314332595434</v>
+        <v>12</v>
       </c>
     </row>
     <row r="51">
@@ -2764,40 +1852,22 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>547</v>
+        <v>3</v>
       </c>
       <c r="D51" t="n">
-        <v>5810593363.515237</v>
+        <v>394</v>
       </c>
       <c r="E51" t="n">
-        <v>0.004467493220802955</v>
+        <v>4582146176.704101</v>
       </c>
       <c r="F51" t="n">
-        <v>0.2465852005746268</v>
+        <v>0.00401420798450983</v>
       </c>
       <c r="G51" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H51" t="n">
-        <v>0.2510776381656324</v>
-      </c>
-      <c r="I51" t="n">
-        <v>10</v>
-      </c>
-      <c r="J51" t="n">
-        <v>0.590066592231333</v>
-      </c>
-      <c r="K51" t="n">
-        <v>0.2510776381656324</v>
-      </c>
-      <c r="L51" t="n">
-        <v>3.061508253383963</v>
-      </c>
-      <c r="M51" t="n">
-        <v>0.9475417115795246</v>
-      </c>
-      <c r="N51" t="n">
-        <v>-3.061508253383963</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52">
@@ -2810,40 +1880,22 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>444</v>
+        <v>1</v>
       </c>
       <c r="D52" t="n">
-        <v>6470012241.540823</v>
+        <v>497</v>
       </c>
       <c r="E52" t="n">
-        <v>0.004773646221288592</v>
+        <v>8279955651.580753</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1797537804539039</v>
+        <v>0.00147496101267231</v>
       </c>
       <c r="G52" t="b">
         <v>1</v>
       </c>
       <c r="H52" t="n">
-        <v>0.1159350513425731</v>
-      </c>
-      <c r="I52" t="n">
-        <v>8</v>
-      </c>
-      <c r="J52" t="n">
-        <v>0.590066592231333</v>
-      </c>
-      <c r="K52" t="n">
-        <v>0.1159350513425731</v>
-      </c>
-      <c r="L52" t="n">
-        <v>3.258092002179944</v>
-      </c>
-      <c r="M52" t="n">
-        <v>0.8552742519133395</v>
-      </c>
-      <c r="N52" t="n">
-        <v>-3.258092002179944</v>
+        <v>10</v>
       </c>
     </row>
     <row r="53">
@@ -2856,40 +1908,22 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>504</v>
+        <v>6</v>
       </c>
       <c r="D53" t="n">
-        <v>5986802561.862445</v>
+        <v>443</v>
       </c>
       <c r="E53" t="n">
-        <v>0.002647591793902008</v>
+        <v>5407419342.615376</v>
       </c>
       <c r="F53" t="n">
-        <v>0.2205137961972986</v>
+        <v>0.002171761727576927</v>
       </c>
       <c r="G53" t="b">
         <v>0</v>
       </c>
       <c r="H53" t="n">
-        <v>0.198357569920821</v>
-      </c>
-      <c r="I53" t="n">
-        <v>9</v>
-      </c>
-      <c r="J53" t="n">
-        <v>0.9049623979099515</v>
-      </c>
-      <c r="K53" t="n">
-        <v>0.1983575699208209</v>
-      </c>
-      <c r="L53" t="n">
-        <v>3.160811553240221</v>
-      </c>
-      <c r="M53" t="n">
-        <v>1.178157875129723</v>
-      </c>
-      <c r="N53" t="n">
-        <v>-3.160811553240221</v>
+        <v>8</v>
       </c>
     </row>
     <row r="54">
@@ -2902,40 +1936,22 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>456</v>
+        <v>6</v>
       </c>
       <c r="D54" t="n">
-        <v>6883632404.78794</v>
+        <v>591</v>
       </c>
       <c r="E54" t="n">
-        <v>0.001273042417447379</v>
+        <v>5669094373.173406</v>
       </c>
       <c r="F54" t="n">
-        <v>0.173519120394808</v>
+        <v>0.005261204188543258</v>
       </c>
       <c r="G54" t="b">
         <v>0</v>
       </c>
       <c r="H54" t="n">
-        <v>0.1033276866206108</v>
-      </c>
-      <c r="I54" t="n">
         <v>11</v>
-      </c>
-      <c r="J54" t="n">
-        <v>0.590066592231333</v>
-      </c>
-      <c r="K54" t="n">
-        <v>0.1033276866206108</v>
-      </c>
-      <c r="L54" t="n">
-        <v>2.782968137901763</v>
-      </c>
-      <c r="M54" t="n">
-        <v>0.8285680404013178</v>
-      </c>
-      <c r="N54" t="n">
-        <v>-2.782968137901763</v>
       </c>
     </row>
     <row r="55">
@@ -2948,40 +1964,22 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>501</v>
+        <v>5</v>
       </c>
       <c r="D55" t="n">
-        <v>6289150161.433359</v>
+        <v>568</v>
       </c>
       <c r="E55" t="n">
-        <v>0.002644703070806149</v>
+        <v>6906775693.15214</v>
       </c>
       <c r="F55" t="n">
-        <v>0.2086632305343001</v>
+        <v>0.00303081644302943</v>
       </c>
       <c r="G55" t="b">
         <v>0</v>
       </c>
       <c r="H55" t="n">
-        <v>0.1743940495269526</v>
-      </c>
-      <c r="I55" t="n">
-        <v>11</v>
-      </c>
-      <c r="J55" t="n">
-        <v>0.590066592231333</v>
-      </c>
-      <c r="K55" t="n">
-        <v>0.1743940495269525</v>
-      </c>
-      <c r="L55" t="n">
-        <v>2.854034500808105</v>
-      </c>
-      <c r="M55" t="n">
-        <v>0.8829037167258467</v>
-      </c>
-      <c r="N55" t="n">
-        <v>-2.854034500808105</v>
+        <v>14</v>
       </c>
     </row>
     <row r="56">
@@ -2994,40 +1992,22 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>493</v>
+        <v>1</v>
       </c>
       <c r="D56" t="n">
-        <v>5596839608.75808</v>
+        <v>467</v>
       </c>
       <c r="E56" t="n">
-        <v>0.003304461626571624</v>
+        <v>4353917462.337093</v>
       </c>
       <c r="F56" t="n">
-        <v>0.230730083452677</v>
+        <v>0.0025507089364203</v>
       </c>
       <c r="G56" t="b">
         <v>0</v>
       </c>
       <c r="H56" t="n">
-        <v>0.2190163481560479</v>
-      </c>
-      <c r="I56" t="n">
-        <v>7</v>
-      </c>
-      <c r="J56" t="n">
-        <v>0.590066592231333</v>
-      </c>
-      <c r="K56" t="n">
-        <v>0.2190163481560479</v>
-      </c>
-      <c r="L56" t="n">
-        <v>3.578123424014257</v>
-      </c>
-      <c r="M56" t="n">
-        <v>0.9252080666114617</v>
-      </c>
-      <c r="N56" t="n">
-        <v>-3.578123424014257</v>
+        <v>6</v>
       </c>
     </row>
     <row r="57">
@@ -3040,40 +2020,22 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>426</v>
+        <v>3</v>
       </c>
       <c r="D57" t="n">
-        <v>5810276155.501841</v>
+        <v>475</v>
       </c>
       <c r="E57" t="n">
-        <v>0.002658115859908592</v>
+        <v>8255347321.217813</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1920494155761211</v>
+        <v>0.002919994739168039</v>
       </c>
       <c r="G57" t="b">
         <v>1</v>
       </c>
       <c r="H57" t="n">
-        <v>0.1407985651516062</v>
-      </c>
-      <c r="I57" t="n">
-        <v>7</v>
-      </c>
-      <c r="J57" t="n">
-        <v>0.8094639732268032</v>
-      </c>
-      <c r="K57" t="n">
-        <v>0.1407985651516062</v>
-      </c>
-      <c r="L57" t="n">
-        <v>3.499905641009815</v>
-      </c>
-      <c r="M57" t="n">
-        <v>1.022193539617084</v>
-      </c>
-      <c r="N57" t="n">
-        <v>-3.499905641009815</v>
+        <v>9</v>
       </c>
     </row>
     <row r="58">
@@ -3086,40 +2048,22 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>440</v>
+        <v>5</v>
       </c>
       <c r="D58" t="n">
-        <v>8242525952.269956</v>
+        <v>484</v>
       </c>
       <c r="E58" t="n">
-        <v>0.001281571908175489</v>
+        <v>6298880347.174081</v>
       </c>
       <c r="F58" t="n">
-        <v>0.139827476027855</v>
+        <v>0.00187597929386026</v>
       </c>
       <c r="G58" t="b">
         <v>0</v>
       </c>
       <c r="H58" t="n">
-        <v>0.035198415001845</v>
-      </c>
-      <c r="I58" t="n">
-        <v>13</v>
-      </c>
-      <c r="J58" t="n">
-        <v>0.590066592231333</v>
-      </c>
-      <c r="K58" t="n">
-        <v>0.035198415001845</v>
-      </c>
-      <c r="L58" t="n">
-        <v>2.500109123785069</v>
-      </c>
-      <c r="M58" t="n">
-        <v>0.7790692171231043</v>
-      </c>
-      <c r="N58" t="n">
-        <v>-2.500109123785069</v>
+        <v>10</v>
       </c>
     </row>
     <row r="59">
@@ -3132,40 +2076,22 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>480</v>
+        <v>2</v>
       </c>
       <c r="D59" t="n">
-        <v>6466275997.81827</v>
+        <v>352</v>
       </c>
       <c r="E59" t="n">
-        <v>0.001864157960898031</v>
+        <v>5844291457.905877</v>
       </c>
       <c r="F59" t="n">
-        <v>0.1944406951426474</v>
+        <v>0.004236130753444558</v>
       </c>
       <c r="G59" t="b">
         <v>0</v>
       </c>
       <c r="H59" t="n">
-        <v>0.1456340707544159</v>
-      </c>
-      <c r="I59" t="n">
-        <v>10</v>
-      </c>
-      <c r="J59" t="n">
-        <v>0.590066592231333</v>
-      </c>
-      <c r="K59" t="n">
-        <v>0.1456340707544159</v>
-      </c>
-      <c r="L59" t="n">
-        <v>2.956064685972746</v>
-      </c>
-      <c r="M59" t="n">
-        <v>0.8714227438080859</v>
-      </c>
-      <c r="N59" t="n">
-        <v>-2.956064685972746</v>
+        <v>4</v>
       </c>
     </row>
     <row r="60">
@@ -3178,40 +2104,22 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>435</v>
+        <v>6</v>
       </c>
       <c r="D60" t="n">
-        <v>7458213348.712278</v>
+        <v>424</v>
       </c>
       <c r="E60" t="n">
-        <v>0.003912790763270439</v>
+        <v>4612940922.288602</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1527758186478713</v>
+        <v>0.003861452521980372</v>
       </c>
       <c r="G60" t="b">
         <v>0</v>
       </c>
       <c r="H60" t="n">
-        <v>0.06138179571677433</v>
-      </c>
-      <c r="I60" t="n">
-        <v>8</v>
-      </c>
-      <c r="J60" t="n">
-        <v>0.590066592231333</v>
-      </c>
-      <c r="K60" t="n">
-        <v>0.06138179571677433</v>
-      </c>
-      <c r="L60" t="n">
-        <v>3.203538746554145</v>
-      </c>
-      <c r="M60" t="n">
-        <v>0.8443312447725453</v>
-      </c>
-      <c r="N60" t="n">
-        <v>-3.203538746554145</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61">
@@ -3224,40 +2132,22 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>549</v>
+        <v>1</v>
       </c>
       <c r="D61" t="n">
-        <v>2637048990.363001</v>
+        <v>488</v>
       </c>
       <c r="E61" t="n">
-        <v>0.001031373666018985</v>
+        <v>5861494759.79219</v>
       </c>
       <c r="F61" t="n">
-        <v>0.5453236232073364</v>
+        <v>0.004394625695045006</v>
       </c>
       <c r="G61" t="b">
         <v>0</v>
       </c>
       <c r="H61" t="n">
-        <v>0.8551689943734926</v>
-      </c>
-      <c r="I61" t="n">
-        <v>10</v>
-      </c>
-      <c r="J61" t="n">
-        <v>0.590066592231333</v>
-      </c>
-      <c r="K61" t="n">
-        <v>0.8551689943734926</v>
-      </c>
-      <c r="L61" t="n">
-        <v>3.665599609591823</v>
-      </c>
-      <c r="M61" t="n">
-        <v>0.9497201486532189</v>
-      </c>
-      <c r="N61" t="n">
-        <v>-3.665599609591823</v>
+        <v>9</v>
       </c>
     </row>
     <row r="62">
@@ -3270,40 +2160,22 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>465</v>
+        <v>5</v>
       </c>
       <c r="D62" t="n">
-        <v>2433472544.51927</v>
+        <v>441</v>
       </c>
       <c r="E62" t="n">
-        <v>0.00356047916079438</v>
+        <v>4251492270.623868</v>
       </c>
       <c r="F62" t="n">
-        <v>0.5005260292511818</v>
+        <v>0.003986569002494348</v>
       </c>
       <c r="G62" t="b">
         <v>0</v>
       </c>
       <c r="H62" t="n">
-        <v>0.7645819214106879</v>
-      </c>
-      <c r="I62" t="n">
-        <v>10</v>
-      </c>
-      <c r="J62" t="n">
-        <v>0.590066592231333</v>
-      </c>
-      <c r="K62" t="n">
-        <v>0.7645819214106879</v>
-      </c>
-      <c r="L62" t="n">
-        <v>3.575012536629018</v>
-      </c>
-      <c r="M62" t="n">
-        <v>0.8534515842241639</v>
-      </c>
-      <c r="N62" t="n">
-        <v>-3.575012536629018</v>
+        <v>8</v>
       </c>
     </row>
     <row r="63">
@@ -3316,40 +2188,22 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>513</v>
+        <v>5</v>
       </c>
       <c r="D63" t="n">
-        <v>6912856639.093707</v>
+        <v>490</v>
       </c>
       <c r="E63" t="n">
-        <v>0.003768429386582036</v>
+        <v>8469685497.37428</v>
       </c>
       <c r="F63" t="n">
-        <v>0.1943837606006203</v>
+        <v>0.003945365828118159</v>
       </c>
       <c r="G63" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H63" t="n">
-        <v>0.145518941055313</v>
-      </c>
-      <c r="I63" t="n">
         <v>10</v>
-      </c>
-      <c r="J63" t="n">
-        <v>0.590066592231333</v>
-      </c>
-      <c r="K63" t="n">
-        <v>0.145518941055313</v>
-      </c>
-      <c r="L63" t="n">
-        <v>2.955949556273643</v>
-      </c>
-      <c r="M63" t="n">
-        <v>0.9097104926353355</v>
-      </c>
-      <c r="N63" t="n">
-        <v>-2.955949556273643</v>
       </c>
     </row>
     <row r="64">
@@ -3362,40 +2216,22 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>471</v>
+        <v>3</v>
       </c>
       <c r="D64" t="n">
-        <v>6391668090.078709</v>
+        <v>545</v>
       </c>
       <c r="E64" t="n">
-        <v>0.002179511539909362</v>
+        <v>5318317670.508268</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1930220206388732</v>
+        <v>0.004967246690483969</v>
       </c>
       <c r="G64" t="b">
         <v>0</v>
       </c>
       <c r="H64" t="n">
-        <v>0.1427653101930867</v>
-      </c>
-      <c r="I64" t="n">
-        <v>5</v>
-      </c>
-      <c r="J64" t="n">
-        <v>0.590066592231333</v>
-      </c>
-      <c r="K64" t="n">
-        <v>0.1427653101930867</v>
-      </c>
-      <c r="L64" t="n">
-        <v>4.117314402343411</v>
-      </c>
-      <c r="M64" t="n">
-        <v>0.9257742020096953</v>
-      </c>
-      <c r="N64" t="n">
-        <v>-4.117314402343411</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65">
@@ -3408,40 +2244,22 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>588</v>
+        <v>5</v>
       </c>
       <c r="D65" t="n">
-        <v>3533388679.974515</v>
+        <v>507</v>
       </c>
       <c r="E65" t="n">
-        <v>0.003973875328748099</v>
+        <v>5790729037.509647</v>
       </c>
       <c r="F65" t="n">
-        <v>0.4358992059744497</v>
+        <v>0.004457715566362516</v>
       </c>
       <c r="G65" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H65" t="n">
-        <v>0.633897341313517</v>
-      </c>
-      <c r="I65" t="n">
-        <v>7</v>
-      </c>
-      <c r="J65" t="n">
-        <v>0.1965427553772736</v>
-      </c>
-      <c r="K65" t="n">
-        <v>0.633897341313517</v>
-      </c>
-      <c r="L65" t="n">
-        <v>3.993004417171726</v>
-      </c>
-      <c r="M65" t="n">
-        <v>0.4918829614052749</v>
-      </c>
-      <c r="N65" t="n">
-        <v>-3.993004417171726</v>
+        <v>12</v>
       </c>
     </row>
     <row r="66">
@@ -3454,40 +2272,22 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>491</v>
+        <v>5</v>
       </c>
       <c r="D66" t="n">
-        <v>5567110560.494678</v>
+        <v>472</v>
       </c>
       <c r="E66" t="n">
-        <v>0.001036876469909744</v>
+        <v>5216802595.892647</v>
       </c>
       <c r="F66" t="n">
-        <v>0.2310211870277135</v>
+        <v>0.002890047652734594</v>
       </c>
       <c r="G66" t="b">
         <v>0</v>
       </c>
       <c r="H66" t="n">
-        <v>0.2196050007702346</v>
-      </c>
-      <c r="I66" t="n">
-        <v>8</v>
-      </c>
-      <c r="J66" t="n">
-        <v>0.590066592231333</v>
-      </c>
-      <c r="K66" t="n">
-        <v>0.2196050007702346</v>
-      </c>
-      <c r="L66" t="n">
-        <v>3.361761951607605</v>
-      </c>
-      <c r="M66" t="n">
-        <v>0.9102862665088349</v>
-      </c>
-      <c r="N66" t="n">
-        <v>-3.361761951607605</v>
+        <v>7</v>
       </c>
     </row>
     <row r="67">
@@ -3500,40 +2300,22 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>456</v>
+        <v>2</v>
       </c>
       <c r="D67" t="n">
-        <v>4654366646.283361</v>
+        <v>411</v>
       </c>
       <c r="E67" t="n">
-        <v>0.002839696911497791</v>
+        <v>5452533751.610332</v>
       </c>
       <c r="F67" t="n">
-        <v>0.2566282226506144</v>
+        <v>0.0054470089341884</v>
       </c>
       <c r="G67" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H67" t="n">
-        <v>0.2713860496944966</v>
-      </c>
-      <c r="I67" t="n">
-        <v>3</v>
-      </c>
-      <c r="J67" t="n">
-        <v>0.590066592231333</v>
-      </c>
-      <c r="K67" t="n">
-        <v>0.2713860496944966</v>
-      </c>
-      <c r="L67" t="n">
-        <v>5.4025068638885</v>
-      </c>
-      <c r="M67" t="n">
-        <v>0.9341153618276421</v>
-      </c>
-      <c r="N67" t="n">
-        <v>-5.4025068638885</v>
+        <v>7</v>
       </c>
     </row>
     <row r="68">
@@ -3546,40 +2328,22 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>366</v>
+        <v>6</v>
       </c>
       <c r="D68" t="n">
-        <v>6513821875.080105</v>
+        <v>462</v>
       </c>
       <c r="E68" t="n">
-        <v>0.003140511718216091</v>
+        <v>8591685727.831163</v>
       </c>
       <c r="F68" t="n">
-        <v>0.147178838842321</v>
+        <v>0.002200210481255403</v>
       </c>
       <c r="G68" t="b">
         <v>0</v>
       </c>
       <c r="H68" t="n">
-        <v>0.05006391068676649</v>
-      </c>
-      <c r="I68" t="n">
-        <v>10</v>
-      </c>
-      <c r="J68" t="n">
-        <v>0.5704226251477762</v>
-      </c>
-      <c r="K68" t="n">
-        <v>0.05006391068676648</v>
-      </c>
-      <c r="L68" t="n">
-        <v>2.860494525905097</v>
-      </c>
-      <c r="M68" t="n">
-        <v>0.7061254154874425</v>
-      </c>
-      <c r="N68" t="n">
-        <v>-2.860494525905097</v>
+        <v>9</v>
       </c>
     </row>
     <row r="69">
@@ -3592,40 +2356,22 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>536</v>
+        <v>5</v>
       </c>
       <c r="D69" t="n">
-        <v>5636052620.792421</v>
+        <v>517</v>
       </c>
       <c r="E69" t="n">
-        <v>0.004981285858341339</v>
+        <v>6560057262.975995</v>
       </c>
       <c r="F69" t="n">
-        <v>0.2491092852505342</v>
+        <v>0.0009351566307860006</v>
       </c>
       <c r="G69" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H69" t="n">
-        <v>0.2561816944889364</v>
-      </c>
-      <c r="I69" t="n">
-        <v>6</v>
-      </c>
-      <c r="J69" t="n">
-        <v>0.590066592231333</v>
-      </c>
-      <c r="K69" t="n">
-        <v>0.2561816944889364</v>
-      </c>
-      <c r="L69" t="n">
-        <v>3.884432017292955</v>
-      </c>
-      <c r="M69" t="n">
-        <v>0.983934291675722</v>
-      </c>
-      <c r="N69" t="n">
-        <v>-3.884432017292955</v>
+        <v>8</v>
       </c>
     </row>
     <row r="70">
@@ -3638,40 +2384,22 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>463</v>
+        <v>2</v>
       </c>
       <c r="D70" t="n">
-        <v>1965775214.208023</v>
+        <v>490</v>
       </c>
       <c r="E70" t="n">
-        <v>0.003238681339025371</v>
+        <v>6828200707.477318</v>
       </c>
       <c r="F70" t="n">
-        <v>0.6169462109575978</v>
+        <v>0.003082835190612326</v>
       </c>
       <c r="G70" t="b">
         <v>0</v>
       </c>
       <c r="H70" t="n">
-        <v>1</v>
-      </c>
-      <c r="I70" t="n">
-        <v>5</v>
-      </c>
-      <c r="J70" t="n">
-        <v>0.590066592231333</v>
-      </c>
-      <c r="K70" t="n">
-        <v>1</v>
-      </c>
-      <c r="L70" t="n">
-        <v>4.974549092150323</v>
-      </c>
-      <c r="M70" t="n">
-        <v>0.9168018383529453</v>
-      </c>
-      <c r="N70" t="n">
-        <v>-4.974549092150323</v>
+        <v>10</v>
       </c>
     </row>
     <row r="71">
@@ -3684,40 +2412,22 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>392</v>
+        <v>5</v>
       </c>
       <c r="D71" t="n">
-        <v>5407619371.805444</v>
+        <v>474</v>
       </c>
       <c r="E71" t="n">
-        <v>0.004938921305132829</v>
+        <v>4444491217.517534</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1898803908709983</v>
+        <v>0.003502939977645644</v>
       </c>
       <c r="G71" t="b">
         <v>0</v>
       </c>
       <c r="H71" t="n">
-        <v>0.1364124903232707</v>
-      </c>
-      <c r="I71" t="n">
-        <v>6</v>
-      </c>
-      <c r="J71" t="n">
-        <v>0.590066592231333</v>
-      </c>
-      <c r="K71" t="n">
-        <v>0.1364124903232707</v>
-      </c>
-      <c r="L71" t="n">
-        <v>3.76466281312729</v>
-      </c>
-      <c r="M71" t="n">
-        <v>0.8188687128881744</v>
-      </c>
-      <c r="N71" t="n">
-        <v>-3.76466281312729</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72">
@@ -3730,40 +2440,22 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>630</v>
+        <v>6</v>
       </c>
       <c r="D72" t="n">
-        <v>7800886068.803999</v>
+        <v>460</v>
       </c>
       <c r="E72" t="n">
-        <v>0.001261785409125543</v>
+        <v>5275004307.862178</v>
       </c>
       <c r="F72" t="n">
-        <v>0.2115420845074596</v>
+        <v>0.001584728633503403</v>
       </c>
       <c r="G72" t="b">
         <v>0</v>
       </c>
       <c r="H72" t="n">
-        <v>0.1802154995622179</v>
-      </c>
-      <c r="I72" t="n">
-        <v>8</v>
-      </c>
-      <c r="J72" t="n">
-        <v>0.590066592231333</v>
-      </c>
-      <c r="K72" t="n">
-        <v>0.1802154995622179</v>
-      </c>
-      <c r="L72" t="n">
-        <v>3.322372450399588</v>
-      </c>
-      <c r="M72" t="n">
-        <v>1.056347075750092</v>
-      </c>
-      <c r="N72" t="n">
-        <v>-3.322372450399588</v>
+        <v>10</v>
       </c>
     </row>
     <row r="73">
@@ -3776,40 +2468,22 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>523</v>
+        <v>6</v>
       </c>
       <c r="D73" t="n">
-        <v>6719917299.934001</v>
+        <v>480</v>
       </c>
       <c r="E73" t="n">
-        <v>0.001731362858148437</v>
+        <v>5351324125.661504</v>
       </c>
       <c r="F73" t="n">
-        <v>0.2038627722417737</v>
+        <v>0.001413056928871687</v>
       </c>
       <c r="G73" t="b">
         <v>0</v>
       </c>
       <c r="H73" t="n">
-        <v>0.1646868436884959</v>
-      </c>
-      <c r="I73" t="n">
-        <v>8</v>
-      </c>
-      <c r="J73" t="n">
-        <v>0.09527691723616839</v>
-      </c>
-      <c r="K73" t="n">
-        <v>0.1646868436884959</v>
-      </c>
-      <c r="L73" t="n">
-        <v>3.306843794525867</v>
-      </c>
-      <c r="M73" t="n">
-        <v>-0.1073888103250266</v>
-      </c>
-      <c r="N73" t="n">
-        <v>-3.306843794525867</v>
+        <v>10</v>
       </c>
     </row>
     <row r="74">
@@ -3822,40 +2496,22 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>463</v>
+        <v>2</v>
       </c>
       <c r="D74" t="n">
-        <v>6682061397.388458</v>
+        <v>520</v>
       </c>
       <c r="E74" t="n">
-        <v>0.00120225037511986</v>
+        <v>6243047069.413853</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1814975196836695</v>
+        <v>0.004919941771643007</v>
       </c>
       <c r="G74" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H74" t="n">
-        <v>0.1194611387701586</v>
-      </c>
-      <c r="I74" t="n">
-        <v>8</v>
-      </c>
-      <c r="J74" t="n">
-        <v>0.590066592231333</v>
-      </c>
-      <c r="K74" t="n">
-        <v>0.1194611387701586</v>
-      </c>
-      <c r="L74" t="n">
-        <v>3.261618089607529</v>
-      </c>
-      <c r="M74" t="n">
-        <v>0.8779283393004663</v>
-      </c>
-      <c r="N74" t="n">
-        <v>-3.261618089607529</v>
+        <v>9</v>
       </c>
     </row>
     <row r="75">
@@ -3868,40 +2524,22 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>465</v>
+        <v>4</v>
       </c>
       <c r="D75" t="n">
-        <v>4792120646.976908</v>
+        <v>441</v>
       </c>
       <c r="E75" t="n">
-        <v>0.003854487465476196</v>
+        <v>6152505329.491963</v>
       </c>
       <c r="F75" t="n">
-        <v>0.2541706354510046</v>
+        <v>0.003315670694503946</v>
       </c>
       <c r="G75" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H75" t="n">
-        <v>0.2664164606763587</v>
-      </c>
-      <c r="I75" t="n">
-        <v>10</v>
-      </c>
-      <c r="J75" t="n">
-        <v>0.590066592231333</v>
-      </c>
-      <c r="K75" t="n">
-        <v>0.2664164606763587</v>
-      </c>
-      <c r="L75" t="n">
-        <v>3.076847075894689</v>
-      </c>
-      <c r="M75" t="n">
-        <v>0.8534515842241639</v>
-      </c>
-      <c r="N75" t="n">
-        <v>-3.076847075894689</v>
+        <v>8</v>
       </c>
     </row>
     <row r="76">
@@ -3914,40 +2552,22 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>520</v>
+        <v>3</v>
       </c>
       <c r="D76" t="n">
-        <v>5295899379.971079</v>
+        <v>459</v>
       </c>
       <c r="E76" t="n">
-        <v>0.001266857043339143</v>
+        <v>6427280479.333216</v>
       </c>
       <c r="F76" t="n">
-        <v>0.2571957475535418</v>
+        <v>0.002642475807132153</v>
       </c>
       <c r="G76" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H76" t="n">
-        <v>0.2725336653418907</v>
-      </c>
-      <c r="I76" t="n">
-        <v>10</v>
-      </c>
-      <c r="J76" t="n">
-        <v>0.590066592231333</v>
-      </c>
-      <c r="K76" t="n">
-        <v>0.2725336653418907</v>
-      </c>
-      <c r="L76" t="n">
-        <v>3.082964280560221</v>
-      </c>
-      <c r="M76" t="n">
-        <v>0.9176267813892283</v>
-      </c>
-      <c r="N76" t="n">
-        <v>-3.082964280560221</v>
+        <v>9</v>
       </c>
     </row>
     <row r="77">
@@ -3960,40 +2580,22 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>541</v>
+        <v>3</v>
       </c>
       <c r="D77" t="n">
-        <v>6090836533.11596</v>
+        <v>576</v>
       </c>
       <c r="E77" t="n">
-        <v>0.001538019686585953</v>
+        <v>7317684964.972841</v>
       </c>
       <c r="F77" t="n">
-        <v>0.2326593370705752</v>
+        <v>0.005948499030822286</v>
       </c>
       <c r="G77" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H77" t="n">
-        <v>0.2229175719230956</v>
-      </c>
-      <c r="I77" t="n">
-        <v>3</v>
-      </c>
-      <c r="J77" t="n">
-        <v>0.590066592231333</v>
-      </c>
-      <c r="K77" t="n">
-        <v>0.2229175719230956</v>
-      </c>
-      <c r="L77" t="n">
-        <v>5.354038386117099</v>
-      </c>
-      <c r="M77" t="n">
-        <v>1.023829476100861</v>
-      </c>
-      <c r="N77" t="n">
-        <v>-5.354038386117099</v>
+        <v>14</v>
       </c>
     </row>
     <row r="78">
@@ -4006,40 +2608,22 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>508</v>
+        <v>5</v>
       </c>
       <c r="D78" t="n">
-        <v>5755377573.569175</v>
+        <v>454</v>
       </c>
       <c r="E78" t="n">
-        <v>0.003950433851355712</v>
+        <v>7381145596.357483</v>
       </c>
       <c r="F78" t="n">
-        <v>0.2312011858458841</v>
+        <v>0.004126324332269734</v>
       </c>
       <c r="G78" t="b">
         <v>0</v>
       </c>
       <c r="H78" t="n">
-        <v>0.2199689838468881</v>
-      </c>
-      <c r="I78" t="n">
-        <v>11</v>
-      </c>
-      <c r="J78" t="n">
-        <v>0.590066592231333</v>
-      </c>
-      <c r="K78" t="n">
-        <v>0.2199689838468881</v>
-      </c>
-      <c r="L78" t="n">
-        <v>2.89960943512804</v>
-      </c>
-      <c r="M78" t="n">
-        <v>0.8910581925554828</v>
-      </c>
-      <c r="N78" t="n">
-        <v>-2.89960943512804</v>
+        <v>9</v>
       </c>
     </row>
     <row r="79">
@@ -4052,40 +2636,22 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>517</v>
+        <v>5</v>
       </c>
       <c r="D79" t="n">
-        <v>7735365364.397675</v>
+        <v>461</v>
       </c>
       <c r="E79" t="n">
-        <v>0.003364631192832288</v>
+        <v>8606798222.682207</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1750692522208288</v>
+        <v>0.001852214434530645</v>
       </c>
       <c r="G79" t="b">
         <v>0</v>
       </c>
       <c r="H79" t="n">
-        <v>0.1064622724861632</v>
-      </c>
-      <c r="I79" t="n">
-        <v>6</v>
-      </c>
-      <c r="J79" t="n">
-        <v>0.590066592231333</v>
-      </c>
-      <c r="K79" t="n">
-        <v>0.1064622724861632</v>
-      </c>
-      <c r="L79" t="n">
-        <v>3.734712595290182</v>
-      </c>
-      <c r="M79" t="n">
-        <v>0.9637751643274755</v>
-      </c>
-      <c r="N79" t="n">
-        <v>-3.734712595290182</v>
+        <v>10</v>
       </c>
     </row>
     <row r="80">
@@ -4098,40 +2664,22 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>562</v>
+        <v>2</v>
       </c>
       <c r="D80" t="n">
-        <v>4088529327.703747</v>
+        <v>573</v>
       </c>
       <c r="E80" t="n">
-        <v>0.003528505863791298</v>
+        <v>7059413934.876025</v>
       </c>
       <c r="F80" t="n">
-        <v>0.360055428739404</v>
+        <v>0.002649584534557516</v>
       </c>
       <c r="G80" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H80" t="n">
-        <v>0.4805304933330156</v>
-      </c>
-      <c r="I80" t="n">
-        <v>10</v>
-      </c>
-      <c r="J80" t="n">
-        <v>0.590066592231333</v>
-      </c>
-      <c r="K80" t="n">
-        <v>0.4805304933330156</v>
-      </c>
-      <c r="L80" t="n">
-        <v>3.290961108551346</v>
-      </c>
-      <c r="M80" t="n">
-        <v>0.9637599737457107</v>
-      </c>
-      <c r="N80" t="n">
-        <v>-3.290961108551346</v>
+        <v>13</v>
       </c>
     </row>
     <row r="81">
@@ -4144,40 +2692,22 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>525</v>
+        <v>5</v>
       </c>
       <c r="D81" t="n">
-        <v>7788620010.622391</v>
+        <v>427</v>
       </c>
       <c r="E81" t="n">
-        <v>0.001341926276424057</v>
+        <v>5368039948.272284</v>
       </c>
       <c r="F81" t="n">
-        <v>0.1765626963601359</v>
+        <v>0.004505533929985021</v>
       </c>
       <c r="G81" t="b">
         <v>0</v>
       </c>
       <c r="H81" t="n">
-        <v>0.1094822278289814</v>
-      </c>
-      <c r="I81" t="n">
-        <v>4</v>
-      </c>
-      <c r="J81" t="n">
-        <v>0.590066592231333</v>
-      </c>
-      <c r="K81" t="n">
-        <v>0.1094822278289814</v>
-      </c>
-      <c r="L81" t="n">
-        <v>4.553163202808081</v>
-      </c>
-      <c r="M81" t="n">
-        <v>0.9959450073075207</v>
-      </c>
-      <c r="N81" t="n">
-        <v>-4.553163202808081</v>
+        <v>7</v>
       </c>
     </row>
     <row r="82">
@@ -4190,40 +2720,22 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>492</v>
+        <v>1</v>
       </c>
       <c r="D82" t="n">
-        <v>5110137236.720218</v>
+        <v>423</v>
       </c>
       <c r="E82" t="n">
-        <v>0.003894114140797396</v>
+        <v>7998467065.779929</v>
       </c>
       <c r="F82" t="n">
-        <v>0.2521928121106856</v>
+        <v>0.004607529942694962</v>
       </c>
       <c r="G82" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H82" t="n">
-        <v>0.2624170220589103</v>
-      </c>
-      <c r="I82" t="n">
         <v>7</v>
-      </c>
-      <c r="J82" t="n">
-        <v>1</v>
-      </c>
-      <c r="K82" t="n">
-        <v>0.2624170220589103</v>
-      </c>
-      <c r="L82" t="n">
-        <v>3.621524097917119</v>
-      </c>
-      <c r="M82" t="n">
-        <v>1.249116891975651</v>
-      </c>
-      <c r="N82" t="n">
-        <v>-3.621524097917119</v>
       </c>
     </row>
     <row r="83">
@@ -4236,40 +2748,22 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>459</v>
+        <v>1</v>
       </c>
       <c r="D83" t="n">
-        <v>6735153055.929583</v>
+        <v>504</v>
       </c>
       <c r="E83" t="n">
-        <v>0.0037012104166638</v>
+        <v>9239031488.366133</v>
       </c>
       <c r="F83" t="n">
-        <v>0.17851116374282</v>
+        <v>0.002686462370377639</v>
       </c>
       <c r="G83" t="b">
         <v>0</v>
       </c>
       <c r="H83" t="n">
-        <v>0.1134223045467979</v>
-      </c>
-      <c r="I83" t="n">
-        <v>15</v>
-      </c>
-      <c r="J83" t="n">
-        <v>0.590066592231333</v>
-      </c>
-      <c r="K83" t="n">
-        <v>0.1134223045467979</v>
-      </c>
-      <c r="L83" t="n">
-        <v>2.40812929280717</v>
-      </c>
-      <c r="M83" t="n">
-        <v>0.7744038611233689</v>
-      </c>
-      <c r="N83" t="n">
-        <v>-2.40812929280717</v>
+        <v>12</v>
       </c>
     </row>
     <row r="84">
@@ -4282,40 +2776,22 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>549</v>
+        <v>2</v>
       </c>
       <c r="D84" t="n">
-        <v>7195812894.707349</v>
+        <v>524</v>
       </c>
       <c r="E84" t="n">
-        <v>0.004963485888600078</v>
+        <v>7439599060.331832</v>
       </c>
       <c r="F84" t="n">
-        <v>0.1998447056701138</v>
+        <v>0.003399335531127872</v>
       </c>
       <c r="G84" t="b">
         <v>1</v>
       </c>
       <c r="H84" t="n">
-        <v>0.1565617446027592</v>
-      </c>
-      <c r="I84" t="n">
-        <v>10</v>
-      </c>
-      <c r="J84" t="n">
-        <v>0.3569577413709048</v>
-      </c>
-      <c r="K84" t="n">
-        <v>0.1565617446027592</v>
-      </c>
-      <c r="L84" t="n">
-        <v>2.966992359821089</v>
-      </c>
-      <c r="M84" t="n">
-        <v>0.6736229025652312</v>
-      </c>
-      <c r="N84" t="n">
-        <v>-2.966992359821089</v>
+        <v>12</v>
       </c>
     </row>
     <row r="85">
@@ -4328,40 +2804,22 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>515</v>
+        <v>2</v>
       </c>
       <c r="D85" t="n">
-        <v>7343572059.348492</v>
+        <v>512</v>
       </c>
       <c r="E85" t="n">
-        <v>0.001686637261955489</v>
+        <v>3825616461.974565</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1836961412100148</v>
+        <v>0.003196046132593981</v>
       </c>
       <c r="G85" t="b">
         <v>0</v>
       </c>
       <c r="H85" t="n">
-        <v>0.1239070625583775</v>
-      </c>
-      <c r="I85" t="n">
-        <v>12</v>
-      </c>
-      <c r="J85" t="n">
-        <v>0.590066592231333</v>
-      </c>
-      <c r="K85" t="n">
-        <v>0.1239070625583775</v>
-      </c>
-      <c r="L85" t="n">
-        <v>2.68946746965538</v>
-      </c>
-      <c r="M85" t="n">
-        <v>0.886112079862748</v>
-      </c>
-      <c r="N85" t="n">
-        <v>-2.68946746965538</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86">
@@ -4374,40 +2832,22 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>574</v>
+        <v>2</v>
       </c>
       <c r="D86" t="n">
-        <v>4377831733.119165</v>
+        <v>517</v>
       </c>
       <c r="E86" t="n">
-        <v>0.004067952650289239</v>
+        <v>6564304334.85702</v>
       </c>
       <c r="F86" t="n">
-        <v>0.3434416742483495</v>
+        <v>0.002017426834395758</v>
       </c>
       <c r="G86" t="b">
         <v>0</v>
       </c>
       <c r="H86" t="n">
-        <v>0.4469351312307499</v>
-      </c>
-      <c r="I86" t="n">
-        <v>11</v>
-      </c>
-      <c r="J86" t="n">
-        <v>0.590066592231333</v>
-      </c>
-      <c r="K86" t="n">
-        <v>0.4469351312307497</v>
-      </c>
-      <c r="L86" t="n">
-        <v>3.126575582511902</v>
-      </c>
-      <c r="M86" t="n">
-        <v>0.9645599341097819</v>
-      </c>
-      <c r="N86" t="n">
-        <v>-3.126575582511902</v>
+        <v>14</v>
       </c>
     </row>
     <row r="87">
@@ -4420,40 +2860,22 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>585</v>
+        <v>3</v>
       </c>
       <c r="D87" t="n">
-        <v>7449649415.639398</v>
+        <v>500</v>
       </c>
       <c r="E87" t="n">
-        <v>0.001649241042602768</v>
+        <v>4101039778.049425</v>
       </c>
       <c r="F87" t="n">
-        <v>0.2056933238741518</v>
+        <v>0.001270377729140061</v>
       </c>
       <c r="G87" t="b">
         <v>0</v>
       </c>
       <c r="H87" t="n">
-        <v>0.1683884780764212</v>
-      </c>
-      <c r="I87" t="n">
-        <v>14</v>
-      </c>
-      <c r="J87" t="n">
-        <v>0.590066592231333</v>
-      </c>
-      <c r="K87" t="n">
-        <v>0.1683884780764212</v>
-      </c>
-      <c r="L87" t="n">
-        <v>2.543635870147475</v>
-      </c>
-      <c r="M87" t="n">
-        <v>0.9398618437254519</v>
-      </c>
-      <c r="N87" t="n">
-        <v>-2.543635870147475</v>
+        <v>0</v>
       </c>
     </row>
     <row r="88">
@@ -4466,40 +2888,22 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>440</v>
+        <v>2</v>
       </c>
       <c r="D88" t="n">
-        <v>6398240578.25938</v>
+        <v>477</v>
       </c>
       <c r="E88" t="n">
-        <v>0.004918757018959292</v>
+        <v>7643701221.566279</v>
       </c>
       <c r="F88" t="n">
-        <v>0.180132582684714</v>
+        <v>0.004218860145001996</v>
       </c>
       <c r="G88" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H88" t="n">
-        <v>0.1167010430463785</v>
-      </c>
-      <c r="I88" t="n">
-        <v>10</v>
-      </c>
-      <c r="J88" t="n">
-        <v>0.590066592231333</v>
-      </c>
-      <c r="K88" t="n">
-        <v>0.1167010430463785</v>
-      </c>
-      <c r="L88" t="n">
-        <v>2.927131658264709</v>
-      </c>
-      <c r="M88" t="n">
-        <v>0.822627672114956</v>
-      </c>
-      <c r="N88" t="n">
-        <v>-2.927131658264709</v>
+        <v>9</v>
       </c>
     </row>
     <row r="89">
@@ -4512,40 +2916,22 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>524</v>
+        <v>6</v>
       </c>
       <c r="D89" t="n">
-        <v>5174470637.695141</v>
+        <v>473</v>
       </c>
       <c r="E89" t="n">
-        <v>0.003816160062299888</v>
+        <v>5650202351.573551</v>
       </c>
       <c r="F89" t="n">
-        <v>0.2652561887202781</v>
+        <v>0.004788969953336532</v>
       </c>
       <c r="G89" t="b">
         <v>0</v>
       </c>
       <c r="H89" t="n">
-        <v>0.2888330177758225</v>
-      </c>
-      <c r="I89" t="n">
-        <v>10</v>
-      </c>
-      <c r="J89" t="n">
-        <v>0.590066592231333</v>
-      </c>
-      <c r="K89" t="n">
-        <v>0.2888330177758225</v>
-      </c>
-      <c r="L89" t="n">
-        <v>3.099263632994153</v>
-      </c>
-      <c r="M89" t="n">
-        <v>0.9221198626384906</v>
-      </c>
-      <c r="N89" t="n">
-        <v>-3.099263632994153</v>
+        <v>9</v>
       </c>
     </row>
     <row r="90">
@@ -4558,40 +2944,22 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>522</v>
+        <v>4</v>
       </c>
       <c r="D90" t="n">
-        <v>7673803833.100504</v>
+        <v>433</v>
       </c>
       <c r="E90" t="n">
-        <v>0.004942449594295887</v>
+        <v>6942209557.002802</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1781804186995422</v>
+        <v>0.002715775697481408</v>
       </c>
       <c r="G90" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H90" t="n">
-        <v>0.1127534912753349</v>
-      </c>
-      <c r="I90" t="n">
-        <v>10</v>
-      </c>
-      <c r="J90" t="n">
-        <v>0.590066592231333</v>
-      </c>
-      <c r="K90" t="n">
-        <v>0.1127534912753349</v>
-      </c>
-      <c r="L90" t="n">
-        <v>2.923184106493665</v>
-      </c>
-      <c r="M90" t="n">
-        <v>0.9198760652922716</v>
-      </c>
-      <c r="N90" t="n">
-        <v>-2.923184106493665</v>
+        <v>7</v>
       </c>
     </row>
     <row r="91">
@@ -4604,40 +2972,22 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>394</v>
+        <v>5</v>
       </c>
       <c r="D91" t="n">
-        <v>6999966105.848434</v>
+        <v>556</v>
       </c>
       <c r="E91" t="n">
-        <v>0.003350828696333004</v>
+        <v>7064445212.730181</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1474349510260823</v>
+        <v>0.004835692656407345</v>
       </c>
       <c r="G91" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H91" t="n">
-        <v>0.0505818057571972</v>
-      </c>
-      <c r="I91" t="n">
-        <v>4</v>
-      </c>
-      <c r="J91" t="n">
-        <v>0.590066592231333</v>
-      </c>
-      <c r="K91" t="n">
-        <v>0.0505818057571972</v>
-      </c>
-      <c r="L91" t="n">
-        <v>4.494262780736297</v>
-      </c>
-      <c r="M91" t="n">
-        <v>0.8492294521676396</v>
-      </c>
-      <c r="N91" t="n">
-        <v>-4.494262780736297</v>
+        <v>12</v>
       </c>
     </row>
     <row r="92">
@@ -4650,40 +3000,22 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>613</v>
+        <v>1</v>
       </c>
       <c r="D92" t="n">
-        <v>6436374362.913134</v>
+        <v>534</v>
       </c>
       <c r="E92" t="n">
-        <v>0.002467237847201718</v>
+        <v>3894867123.330859</v>
       </c>
       <c r="F92" t="n">
-        <v>0.2494705838199969</v>
+        <v>0.003880379696274899</v>
       </c>
       <c r="G92" t="b">
         <v>0</v>
       </c>
       <c r="H92" t="n">
-        <v>0.256912291313072</v>
-      </c>
-      <c r="I92" t="n">
-        <v>8</v>
-      </c>
-      <c r="J92" t="n">
-        <v>0.590066592231333</v>
-      </c>
-      <c r="K92" t="n">
-        <v>0.256912291313072</v>
-      </c>
-      <c r="L92" t="n">
-        <v>3.399069242150443</v>
-      </c>
-      <c r="M92" t="n">
-        <v>1.039585536192023</v>
-      </c>
-      <c r="N92" t="n">
-        <v>-3.399069242150443</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93">
@@ -4696,40 +3028,22 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>514</v>
+        <v>3</v>
       </c>
       <c r="D93" t="n">
-        <v>6075216945.814507</v>
+        <v>588</v>
       </c>
       <c r="E93" t="n">
-        <v>0.001278181697244812</v>
+        <v>6047338766.206453</v>
       </c>
       <c r="F93" t="n">
-        <v>0.221616194451718</v>
+        <v>0.001423374657830279</v>
       </c>
       <c r="G93" t="b">
         <v>1</v>
       </c>
       <c r="H93" t="n">
-        <v>0.200586775159051</v>
-      </c>
-      <c r="I93" t="n">
-        <v>9</v>
-      </c>
-      <c r="J93" t="n">
-        <v>0</v>
-      </c>
-      <c r="K93" t="n">
-        <v>0.200586775159051</v>
-      </c>
-      <c r="L93" t="n">
-        <v>3.163040758478451</v>
-      </c>
-      <c r="M93" t="n">
-        <v>-0.457495710997814</v>
-      </c>
-      <c r="N93" t="n">
-        <v>-3.163040758478451</v>
+        <v>15</v>
       </c>
     </row>
     <row r="94">
@@ -4742,40 +3056,22 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>571</v>
+        <v>2</v>
       </c>
       <c r="D94" t="n">
-        <v>6253933650.121945</v>
+        <v>588</v>
       </c>
       <c r="E94" t="n">
-        <v>0.004966283386816425</v>
+        <v>6459932889.178885</v>
       </c>
       <c r="F94" t="n">
-        <v>0.2391569488382461</v>
+        <v>0.001178374445034768</v>
       </c>
       <c r="G94" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H94" t="n">
-        <v>0.2360566622023207</v>
-      </c>
-      <c r="I94" t="n">
-        <v>3</v>
-      </c>
-      <c r="J94" t="n">
-        <v>0.590066592231333</v>
-      </c>
-      <c r="K94" t="n">
-        <v>0.2360566622023207</v>
-      </c>
-      <c r="L94" t="n">
-        <v>5.367177476396325</v>
-      </c>
-      <c r="M94" t="n">
-        <v>1.05367109657403</v>
-      </c>
-      <c r="N94" t="n">
-        <v>-5.367177476396325</v>
+        <v>15</v>
       </c>
     </row>
     <row r="95">
@@ -4788,40 +3084,22 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>492</v>
+        <v>2</v>
       </c>
       <c r="D95" t="n">
-        <v>7142389052.36998</v>
+        <v>511</v>
       </c>
       <c r="E95" t="n">
-        <v>0.002735000566987866</v>
+        <v>5122834483.859847</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1804354076136992</v>
+        <v>0.002649180442340216</v>
       </c>
       <c r="G95" t="b">
         <v>0</v>
       </c>
       <c r="H95" t="n">
-        <v>0.1173133978965919</v>
-      </c>
-      <c r="I95" t="n">
-        <v>8</v>
-      </c>
-      <c r="J95" t="n">
-        <v>0.590066592231333</v>
-      </c>
-      <c r="K95" t="n">
-        <v>0.1173133978965919</v>
-      </c>
-      <c r="L95" t="n">
-        <v>3.259470348733962</v>
-      </c>
-      <c r="M95" t="n">
-        <v>0.9114206601685153</v>
-      </c>
-      <c r="N95" t="n">
-        <v>-3.259470348733962</v>
+        <v>11</v>
       </c>
     </row>
     <row r="96">
@@ -4834,40 +3112,22 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>533</v>
+        <v>2</v>
       </c>
       <c r="D96" t="n">
-        <v>5860872598.109471</v>
+        <v>520</v>
       </c>
       <c r="E96" t="n">
-        <v>0.001051412104368176</v>
+        <v>9859367708.017097</v>
       </c>
       <c r="F96" t="n">
-        <v>0.2382127996521112</v>
+        <v>0.002120053611369583</v>
       </c>
       <c r="G96" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H96" t="n">
-        <v>0.2341474589693102</v>
-      </c>
-      <c r="I96" t="n">
-        <v>12</v>
-      </c>
-      <c r="J96" t="n">
-        <v>0.590066592231333</v>
-      </c>
-      <c r="K96" t="n">
-        <v>0.2341474589693102</v>
-      </c>
-      <c r="L96" t="n">
-        <v>2.799707866066312</v>
-      </c>
-      <c r="M96" t="n">
-        <v>0.9068584278994261</v>
-      </c>
-      <c r="N96" t="n">
-        <v>-2.799707866066312</v>
+        <v>11</v>
       </c>
     </row>
     <row r="97">
@@ -4880,40 +3140,22 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>476</v>
+        <v>3</v>
       </c>
       <c r="D97" t="n">
-        <v>4407918607.277596</v>
+        <v>514</v>
       </c>
       <c r="E97" t="n">
-        <v>0.004684108216307766</v>
+        <v>6079156202.092227</v>
       </c>
       <c r="F97" t="n">
-        <v>0.2828613118993281</v>
+        <v>0.006004875961559853</v>
       </c>
       <c r="G97" t="b">
         <v>0</v>
       </c>
       <c r="H97" t="n">
-        <v>0.3244330676244966</v>
-      </c>
-      <c r="I97" t="n">
-        <v>7</v>
-      </c>
-      <c r="J97" t="n">
-        <v>0.590066592231333</v>
-      </c>
-      <c r="K97" t="n">
-        <v>0.3244330676244966</v>
-      </c>
-      <c r="L97" t="n">
-        <v>3.683540143482706</v>
-      </c>
-      <c r="M97" t="n">
-        <v>0.9060236802296086</v>
-      </c>
-      <c r="N97" t="n">
-        <v>-3.683540143482706</v>
+        <v>11</v>
       </c>
     </row>
     <row r="98">
@@ -4926,40 +3168,22 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>451</v>
+        <v>4</v>
       </c>
       <c r="D98" t="n">
-        <v>9649857179.860353</v>
+        <v>616</v>
       </c>
       <c r="E98" t="n">
-        <v>0.004780297636508175</v>
+        <v>6092201346.968247</v>
       </c>
       <c r="F98" t="n">
-        <v>0.1224209714176408</v>
+        <v>0.003386798294593443</v>
       </c>
       <c r="G98" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H98" t="n">
-        <v>0</v>
-      </c>
-      <c r="I98" t="n">
-        <v>7</v>
-      </c>
-      <c r="J98" t="n">
-        <v>0.8536781874394905</v>
-      </c>
-      <c r="K98" t="n">
-        <v>0</v>
-      </c>
-      <c r="L98" t="n">
-        <v>3.359107075858209</v>
-      </c>
-      <c r="M98" t="n">
-        <v>1.08884726378866</v>
-      </c>
-      <c r="N98" t="n">
-        <v>-3.359107075858209</v>
+        <v>16</v>
       </c>
     </row>
     <row r="99">
@@ -4972,40 +3196,22 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>501</v>
+        <v>4</v>
       </c>
       <c r="D99" t="n">
-        <v>5534389195.83054</v>
+        <v>567</v>
       </c>
       <c r="E99" t="n">
-        <v>0.004884433672264467</v>
+        <v>2526496842.090811</v>
       </c>
       <c r="F99" t="n">
-        <v>0.2371200043156818</v>
+        <v>0.005539578208115015</v>
       </c>
       <c r="G99" t="b">
         <v>0</v>
       </c>
       <c r="H99" t="n">
-        <v>0.2319376721898811</v>
-      </c>
-      <c r="I99" t="n">
-        <v>12</v>
-      </c>
-      <c r="J99" t="n">
-        <v>0.590066592231333</v>
-      </c>
-      <c r="K99" t="n">
-        <v>0.231937672189881</v>
-      </c>
-      <c r="L99" t="n">
-        <v>2.797498079286883</v>
-      </c>
-      <c r="M99" t="n">
-        <v>0.8696339224379565</v>
-      </c>
-      <c r="N99" t="n">
-        <v>-2.797498079286883</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100">
@@ -5018,40 +3224,22 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>418</v>
+        <v>2</v>
       </c>
       <c r="D100" t="n">
-        <v>6104910509.812019</v>
+        <v>422</v>
       </c>
       <c r="E100" t="n">
-        <v>0.002440107138719167</v>
+        <v>5488926366.625143</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1793482505992891</v>
+        <v>0.002732418220024603</v>
       </c>
       <c r="G100" t="b">
         <v>0</v>
       </c>
       <c r="H100" t="n">
-        <v>0.1151150126019982</v>
-      </c>
-      <c r="I100" t="n">
-        <v>8</v>
-      </c>
-      <c r="J100" t="n">
-        <v>0.590066592231333</v>
-      </c>
-      <c r="K100" t="n">
-        <v>0.1151150126019982</v>
-      </c>
-      <c r="L100" t="n">
-        <v>3.257271963439369</v>
-      </c>
-      <c r="M100" t="n">
-        <v>0.8232643521451908</v>
-      </c>
-      <c r="N100" t="n">
-        <v>-3.257271963439369</v>
+        <v>4</v>
       </c>
     </row>
     <row r="101">
@@ -5064,40 +3252,22 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>486</v>
+        <v>4</v>
       </c>
       <c r="D101" t="n">
-        <v>3597566932.069057</v>
+        <v>573</v>
       </c>
       <c r="E101" t="n">
-        <v>0.003962580192655031</v>
+        <v>6179839472.466457</v>
       </c>
       <c r="F101" t="n">
-        <v>0.353856804901153</v>
+        <v>0.001726192906612731</v>
       </c>
       <c r="G101" t="b">
         <v>0</v>
       </c>
       <c r="H101" t="n">
-        <v>0.4679959989480223</v>
-      </c>
-      <c r="I101" t="n">
-        <v>10</v>
-      </c>
-      <c r="J101" t="n">
-        <v>0.590066592231333</v>
-      </c>
-      <c r="K101" t="n">
-        <v>0.4679959989480224</v>
-      </c>
-      <c r="L101" t="n">
-        <v>3.278426614166353</v>
-      </c>
-      <c r="M101" t="n">
-        <v>0.8785082783619766</v>
-      </c>
-      <c r="N101" t="n">
-        <v>-3.278426614166353</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>

--- a/output/fit_clients/fit_round_43.xlsx
+++ b/output/fit_clients/fit_round_43.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H101"/>
+  <dimension ref="A1:J101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -461,12 +461,22 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
+          <t>channelGain</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>isSelected</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>involvement_history</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>reward</t>
         </is>
       </c>
     </row>
@@ -480,22 +490,28 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D2" t="n">
-        <v>502</v>
+        <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>9813312959.715469</v>
+        <v>2343927336.159789</v>
       </c>
       <c r="F2" t="n">
-        <v>0.003195884941196252</v>
-      </c>
-      <c r="G2" t="b">
-        <v>0</v>
-      </c>
-      <c r="H2" t="n">
-        <v>11</v>
+        <v>0.08564342784650648</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0.04082257807706682</v>
+      </c>
+      <c r="H2" t="b">
+        <v>0</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>1171963709.821906</v>
       </c>
     </row>
     <row r="3">
@@ -511,19 +527,25 @@
         <v>4</v>
       </c>
       <c r="D3" t="n">
-        <v>542</v>
+        <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>5443619012.664607</v>
+        <v>1976124727.220275</v>
       </c>
       <c r="F3" t="n">
-        <v>0.006093517083292989</v>
-      </c>
-      <c r="G3" t="b">
-        <v>0</v>
-      </c>
-      <c r="H3" t="n">
-        <v>10</v>
+        <v>0.1666994217876978</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0.03310594350340838</v>
+      </c>
+      <c r="H3" t="b">
+        <v>0</v>
+      </c>
+      <c r="I3" t="n">
+        <v>1</v>
+      </c>
+      <c r="J3" t="n">
+        <v>988062399.8180699</v>
       </c>
     </row>
     <row r="4">
@@ -536,22 +558,28 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D4" t="n">
-        <v>534</v>
+        <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>4603832581.698705</v>
+        <v>4981549667.865613</v>
       </c>
       <c r="F4" t="n">
-        <v>0.004040089180919991</v>
-      </c>
-      <c r="G4" t="b">
-        <v>0</v>
-      </c>
-      <c r="H4" t="n">
-        <v>10</v>
+        <v>0.1220335178662014</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0.03652380777822739</v>
+      </c>
+      <c r="H4" t="b">
+        <v>1</v>
+      </c>
+      <c r="I4" t="n">
+        <v>15</v>
+      </c>
+      <c r="J4" t="n">
+        <v>2490774917.490571</v>
       </c>
     </row>
     <row r="5">
@@ -564,22 +592,28 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D5" t="n">
-        <v>494</v>
+        <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>4277340487.822975</v>
+        <v>2898559920.046106</v>
       </c>
       <c r="F5" t="n">
-        <v>0.004675752732005502</v>
-      </c>
-      <c r="G5" t="b">
-        <v>0</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0</v>
+        <v>0.07632299394321783</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0.04195078626162758</v>
+      </c>
+      <c r="H5" t="b">
+        <v>0</v>
+      </c>
+      <c r="I5" t="n">
+        <v>17</v>
+      </c>
+      <c r="J5" t="n">
+        <v>1449280036.449594</v>
       </c>
     </row>
     <row r="6">
@@ -592,22 +626,28 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D6" t="n">
-        <v>469</v>
+        <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>7411329212.839115</v>
+        <v>2345571692.057121</v>
       </c>
       <c r="F6" t="n">
-        <v>0.002209694751522676</v>
-      </c>
-      <c r="G6" t="b">
-        <v>0</v>
-      </c>
-      <c r="H6" t="n">
-        <v>9</v>
+        <v>0.127695402165402</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0.03487301710836543</v>
+      </c>
+      <c r="H6" t="b">
+        <v>0</v>
+      </c>
+      <c r="I6" t="n">
+        <v>8</v>
+      </c>
+      <c r="J6" t="n">
+        <v>1172785838.072709</v>
       </c>
     </row>
     <row r="7">
@@ -620,22 +660,28 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D7" t="n">
-        <v>539</v>
+        <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>6691040198.866175</v>
+        <v>2666044953.434752</v>
       </c>
       <c r="F7" t="n">
-        <v>0.001210120000868509</v>
-      </c>
-      <c r="G7" t="b">
-        <v>0</v>
-      </c>
-      <c r="H7" t="n">
+        <v>0.08459150507469686</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0.0342754076825196</v>
+      </c>
+      <c r="H7" t="b">
+        <v>1</v>
+      </c>
+      <c r="I7" t="n">
         <v>13</v>
+      </c>
+      <c r="J7" t="n">
+        <v>1333022473.592693</v>
       </c>
     </row>
     <row r="8">
@@ -648,22 +694,28 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D8" t="n">
-        <v>513</v>
+        <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>5764990110.146276</v>
+        <v>3917311155.995519</v>
       </c>
       <c r="F8" t="n">
-        <v>0.00213945144499489</v>
-      </c>
-      <c r="G8" t="b">
-        <v>0</v>
-      </c>
-      <c r="H8" t="n">
-        <v>11</v>
+        <v>0.2145415405372695</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0.02232931186937992</v>
+      </c>
+      <c r="H8" t="b">
+        <v>0</v>
+      </c>
+      <c r="I8" t="n">
+        <v>14</v>
+      </c>
+      <c r="J8" t="n">
+        <v>1958655729.106479</v>
       </c>
     </row>
     <row r="9">
@@ -676,22 +728,28 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D9" t="n">
-        <v>569</v>
+        <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>5253367842.610567</v>
+        <v>1856869689.556149</v>
       </c>
       <c r="F9" t="n">
-        <v>0.004778952901504505</v>
-      </c>
-      <c r="G9" t="b">
-        <v>0</v>
-      </c>
-      <c r="H9" t="n">
-        <v>14</v>
+        <v>0.1601370785640476</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0.0339701837572246</v>
+      </c>
+      <c r="H9" t="b">
+        <v>0</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>928434891.1048319</v>
       </c>
     </row>
     <row r="10">
@@ -704,22 +762,28 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D10" t="n">
-        <v>529</v>
+        <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>3382994419.172236</v>
+        <v>5464319313.555366</v>
       </c>
       <c r="F10" t="n">
-        <v>0.004395580510579448</v>
-      </c>
-      <c r="G10" t="b">
-        <v>0</v>
-      </c>
-      <c r="H10" t="n">
-        <v>0</v>
+        <v>0.1719769039002059</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0.03575786279139185</v>
+      </c>
+      <c r="H10" t="b">
+        <v>1</v>
+      </c>
+      <c r="I10" t="n">
+        <v>18</v>
+      </c>
+      <c r="J10" t="n">
+        <v>2732159791.884604</v>
       </c>
     </row>
     <row r="11">
@@ -732,22 +796,28 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D11" t="n">
-        <v>582</v>
+        <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>3236949413.440906</v>
+        <v>4113937720.847311</v>
       </c>
       <c r="F11" t="n">
-        <v>0.001036220380360657</v>
-      </c>
-      <c r="G11" t="b">
-        <v>0</v>
-      </c>
-      <c r="H11" t="n">
-        <v>0</v>
+        <v>0.1689094716763127</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0.03653545855188896</v>
+      </c>
+      <c r="H11" t="b">
+        <v>0</v>
+      </c>
+      <c r="I11" t="n">
+        <v>18</v>
+      </c>
+      <c r="J11" t="n">
+        <v>2056968880.902989</v>
       </c>
     </row>
     <row r="12">
@@ -760,22 +830,28 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D12" t="n">
-        <v>537</v>
+        <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>6127491607.135519</v>
+        <v>2846763724.753891</v>
       </c>
       <c r="F12" t="n">
-        <v>0.00183829895813278</v>
-      </c>
-      <c r="G12" t="b">
-        <v>1</v>
-      </c>
-      <c r="H12" t="n">
-        <v>12</v>
+        <v>0.1897120523914169</v>
+      </c>
+      <c r="G12" t="n">
+        <v>0.04401865470371569</v>
+      </c>
+      <c r="H12" t="b">
+        <v>0</v>
+      </c>
+      <c r="I12" t="n">
+        <v>15</v>
+      </c>
+      <c r="J12" t="n">
+        <v>1423381866.206452</v>
       </c>
     </row>
     <row r="13">
@@ -791,19 +867,25 @@
         <v>2</v>
       </c>
       <c r="D13" t="n">
-        <v>480</v>
+        <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>6095255462.515558</v>
+        <v>4066113839.303657</v>
       </c>
       <c r="F13" t="n">
-        <v>0.004168778012223168</v>
-      </c>
-      <c r="G13" t="b">
+        <v>0.0623073112574954</v>
+      </c>
+      <c r="G13" t="n">
+        <v>0.02409002924302249</v>
+      </c>
+      <c r="H13" t="b">
         <v>1</v>
       </c>
-      <c r="H13" t="n">
-        <v>7</v>
+      <c r="I13" t="n">
+        <v>14</v>
+      </c>
+      <c r="J13" t="n">
+        <v>2033056971.065459</v>
       </c>
     </row>
     <row r="14">
@@ -816,22 +898,28 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D14" t="n">
-        <v>486</v>
+        <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>7879454037.84855</v>
+        <v>3867725575.26829</v>
       </c>
       <c r="F14" t="n">
-        <v>0.002369033241475378</v>
-      </c>
-      <c r="G14" t="b">
-        <v>0</v>
-      </c>
-      <c r="H14" t="n">
-        <v>11</v>
+        <v>0.1713624336124563</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0.04363813858768967</v>
+      </c>
+      <c r="H14" t="b">
+        <v>1</v>
+      </c>
+      <c r="I14" t="n">
+        <v>13</v>
+      </c>
+      <c r="J14" t="n">
+        <v>1933862759.092878</v>
       </c>
     </row>
     <row r="15">
@@ -844,22 +932,28 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D15" t="n">
-        <v>538</v>
+        <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>7875900269.720513</v>
+        <v>1611587507.379589</v>
       </c>
       <c r="F15" t="n">
-        <v>0.003816166464139721</v>
-      </c>
-      <c r="G15" t="b">
-        <v>1</v>
-      </c>
-      <c r="H15" t="n">
-        <v>12</v>
+        <v>0.06584218126379209</v>
+      </c>
+      <c r="G15" t="n">
+        <v>0.04182775334990411</v>
+      </c>
+      <c r="H15" t="b">
+        <v>0</v>
+      </c>
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
+        <v>805793864.3420316</v>
       </c>
     </row>
     <row r="16">
@@ -872,22 +966,28 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D16" t="n">
-        <v>569</v>
+        <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>6813244858.143101</v>
+        <v>2573800657.241053</v>
       </c>
       <c r="F16" t="n">
-        <v>0.003836585838706493</v>
-      </c>
-      <c r="G16" t="b">
-        <v>0</v>
-      </c>
-      <c r="H16" t="n">
-        <v>14</v>
+        <v>0.109075731584996</v>
+      </c>
+      <c r="G16" t="n">
+        <v>0.05109900261240632</v>
+      </c>
+      <c r="H16" t="b">
+        <v>0</v>
+      </c>
+      <c r="I16" t="n">
+        <v>5</v>
+      </c>
+      <c r="J16" t="n">
+        <v>1286900352.681244</v>
       </c>
     </row>
     <row r="17">
@@ -900,22 +1000,28 @@
         </is>
       </c>
       <c r="C17" t="n">
+        <v>3</v>
+      </c>
+      <c r="D17" t="n">
+        <v>476</v>
+      </c>
+      <c r="E17" t="n">
+        <v>5010568526.049057</v>
+      </c>
+      <c r="F17" t="n">
+        <v>0.1530744569198538</v>
+      </c>
+      <c r="G17" t="n">
+        <v>0.03930078462958603</v>
+      </c>
+      <c r="H17" t="b">
         <v>1</v>
       </c>
-      <c r="D17" t="n">
-        <v>462</v>
-      </c>
-      <c r="E17" t="n">
-        <v>4583691142.337432</v>
-      </c>
-      <c r="F17" t="n">
-        <v>0.002665918762253109</v>
-      </c>
-      <c r="G17" t="b">
-        <v>0</v>
-      </c>
-      <c r="H17" t="n">
-        <v>9</v>
+      <c r="I17" t="n">
+        <v>12</v>
+      </c>
+      <c r="J17" t="n">
+        <v>2505284247.538346</v>
       </c>
     </row>
     <row r="18">
@@ -928,22 +1034,28 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D18" t="n">
-        <v>536</v>
+        <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>5749986341.107999</v>
+        <v>2948821533.368982</v>
       </c>
       <c r="F18" t="n">
-        <v>0.001259438107345426</v>
-      </c>
-      <c r="G18" t="b">
-        <v>0</v>
-      </c>
-      <c r="H18" t="n">
-        <v>12</v>
+        <v>0.1174077511994597</v>
+      </c>
+      <c r="G18" t="n">
+        <v>0.02959023450350404</v>
+      </c>
+      <c r="H18" t="b">
+        <v>0</v>
+      </c>
+      <c r="I18" t="n">
+        <v>15</v>
+      </c>
+      <c r="J18" t="n">
+        <v>1474410800.474118</v>
       </c>
     </row>
     <row r="19">
@@ -956,22 +1068,28 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D19" t="n">
-        <v>512</v>
+        <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>3037510871.290442</v>
+        <v>1037872718.685935</v>
       </c>
       <c r="F19" t="n">
-        <v>0.002019667272244661</v>
-      </c>
-      <c r="G19" t="b">
-        <v>0</v>
-      </c>
-      <c r="H19" t="n">
-        <v>0</v>
+        <v>0.1279689393876431</v>
+      </c>
+      <c r="G19" t="n">
+        <v>0.02076806374293856</v>
+      </c>
+      <c r="H19" t="b">
+        <v>0</v>
+      </c>
+      <c r="I19" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" t="n">
+        <v>518936397.638948</v>
       </c>
     </row>
     <row r="20">
@@ -984,22 +1102,28 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D20" t="n">
-        <v>508</v>
+        <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>4996957096.538465</v>
+        <v>2376816882.829329</v>
       </c>
       <c r="F20" t="n">
-        <v>0.0009498656287868598</v>
-      </c>
-      <c r="G20" t="b">
-        <v>0</v>
-      </c>
-      <c r="H20" t="n">
-        <v>1</v>
+        <v>0.1515444926018167</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0.02299700906935272</v>
+      </c>
+      <c r="H20" t="b">
+        <v>0</v>
+      </c>
+      <c r="I20" t="n">
+        <v>5</v>
+      </c>
+      <c r="J20" t="n">
+        <v>1188408427.472763</v>
       </c>
     </row>
     <row r="21">
@@ -1012,22 +1136,28 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D21" t="n">
-        <v>440</v>
+        <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>5471902383.37735</v>
+        <v>2506902776.546964</v>
       </c>
       <c r="F21" t="n">
-        <v>0.005669921820490505</v>
-      </c>
-      <c r="G21" t="b">
-        <v>0</v>
-      </c>
-      <c r="H21" t="n">
-        <v>8</v>
+        <v>0.1026746865894384</v>
+      </c>
+      <c r="G21" t="n">
+        <v>0.04036066109199387</v>
+      </c>
+      <c r="H21" t="b">
+        <v>0</v>
+      </c>
+      <c r="I21" t="n">
+        <v>5</v>
+      </c>
+      <c r="J21" t="n">
+        <v>1253451375.621311</v>
       </c>
     </row>
     <row r="22">
@@ -1040,22 +1170,28 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D22" t="n">
-        <v>441</v>
+        <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>6022890060.272672</v>
+        <v>3528049664.0656</v>
       </c>
       <c r="F22" t="n">
-        <v>0.003782521515071914</v>
-      </c>
-      <c r="G22" t="b">
-        <v>0</v>
-      </c>
-      <c r="H22" t="n">
-        <v>4</v>
+        <v>0.1313895902657263</v>
+      </c>
+      <c r="G22" t="n">
+        <v>0.03462779390479221</v>
+      </c>
+      <c r="H22" t="b">
+        <v>0</v>
+      </c>
+      <c r="I22" t="n">
+        <v>12</v>
+      </c>
+      <c r="J22" t="n">
+        <v>1764024861.780486</v>
       </c>
     </row>
     <row r="23">
@@ -1068,22 +1204,28 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D23" t="n">
-        <v>439</v>
+        <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>7660520011.91455</v>
+        <v>1372350709.07338</v>
       </c>
       <c r="F23" t="n">
-        <v>0.001815835555792701</v>
-      </c>
-      <c r="G23" t="b">
-        <v>0</v>
-      </c>
-      <c r="H23" t="n">
-        <v>8</v>
+        <v>0.1782279387444832</v>
+      </c>
+      <c r="G23" t="n">
+        <v>0.03308061102486369</v>
+      </c>
+      <c r="H23" t="b">
+        <v>0</v>
+      </c>
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
+        <v>686175361.8246667</v>
       </c>
     </row>
     <row r="24">
@@ -1096,22 +1238,28 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D24" t="n">
-        <v>513</v>
+        <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>8593210066.659906</v>
+        <v>3966098394.092573</v>
       </c>
       <c r="F24" t="n">
-        <v>0.003442670180091471</v>
-      </c>
-      <c r="G24" t="b">
-        <v>0</v>
-      </c>
-      <c r="H24" t="n">
-        <v>11</v>
+        <v>0.09939717633546959</v>
+      </c>
+      <c r="G24" t="n">
+        <v>0.02860410964492754</v>
+      </c>
+      <c r="H24" t="b">
+        <v>1</v>
+      </c>
+      <c r="I24" t="n">
+        <v>12</v>
+      </c>
+      <c r="J24" t="n">
+        <v>1983049167.133789</v>
       </c>
     </row>
     <row r="25">
@@ -1124,22 +1272,28 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D25" t="n">
-        <v>473</v>
+        <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>5095069478.172801</v>
+        <v>984966649.0276263</v>
       </c>
       <c r="F25" t="n">
-        <v>0.00326906832343948</v>
-      </c>
-      <c r="G25" t="b">
-        <v>0</v>
-      </c>
-      <c r="H25" t="n">
-        <v>9</v>
+        <v>0.1168878457737922</v>
+      </c>
+      <c r="G25" t="n">
+        <v>0.02975495791381179</v>
+      </c>
+      <c r="H25" t="b">
+        <v>0</v>
+      </c>
+      <c r="I25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" t="n">
+        <v>492483391.8108571</v>
       </c>
     </row>
     <row r="26">
@@ -1152,22 +1306,28 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D26" t="n">
-        <v>462</v>
+        <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>5536432874.13962</v>
+        <v>1404485134.103683</v>
       </c>
       <c r="F26" t="n">
-        <v>0.001336794321775137</v>
-      </c>
-      <c r="G26" t="b">
-        <v>0</v>
-      </c>
-      <c r="H26" t="n">
-        <v>0</v>
+        <v>0.07578529675228929</v>
+      </c>
+      <c r="G26" t="n">
+        <v>0.03701884884833438</v>
+      </c>
+      <c r="H26" t="b">
+        <v>0</v>
+      </c>
+      <c r="I26" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" t="n">
+        <v>702242638.029479</v>
       </c>
     </row>
     <row r="27">
@@ -1180,22 +1340,28 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D27" t="n">
-        <v>517</v>
+        <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>6077094334.546985</v>
+        <v>3933483335.772035</v>
       </c>
       <c r="F27" t="n">
-        <v>0.003459790214617063</v>
-      </c>
-      <c r="G27" t="b">
-        <v>0</v>
-      </c>
-      <c r="H27" t="n">
-        <v>12</v>
+        <v>0.1218064462237949</v>
+      </c>
+      <c r="G27" t="n">
+        <v>0.02199414963185808</v>
+      </c>
+      <c r="H27" t="b">
+        <v>1</v>
+      </c>
+      <c r="I27" t="n">
+        <v>9</v>
+      </c>
+      <c r="J27" t="n">
+        <v>1966741681.179847</v>
       </c>
     </row>
     <row r="28">
@@ -1208,22 +1374,28 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D28" t="n">
-        <v>507</v>
+        <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>7580135890.539037</v>
+        <v>3321779758.090885</v>
       </c>
       <c r="F28" t="n">
-        <v>0.004251800562082315</v>
-      </c>
-      <c r="G28" t="b">
-        <v>0</v>
-      </c>
-      <c r="H28" t="n">
-        <v>11</v>
+        <v>0.1299144382953364</v>
+      </c>
+      <c r="G28" t="n">
+        <v>0.04151000283191169</v>
+      </c>
+      <c r="H28" t="b">
+        <v>0</v>
+      </c>
+      <c r="I28" t="n">
+        <v>14</v>
+      </c>
+      <c r="J28" t="n">
+        <v>1660889918.053008</v>
       </c>
     </row>
     <row r="29">
@@ -1236,22 +1408,28 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D29" t="n">
-        <v>504</v>
+        <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>5934514515.149849</v>
+        <v>3969237892.748796</v>
       </c>
       <c r="F29" t="n">
-        <v>0.001563694678115086</v>
-      </c>
-      <c r="G29" t="b">
-        <v>0</v>
-      </c>
-      <c r="H29" t="n">
-        <v>13</v>
+        <v>0.1283978435215177</v>
+      </c>
+      <c r="G29" t="n">
+        <v>0.0450450081776748</v>
+      </c>
+      <c r="H29" t="b">
+        <v>0</v>
+      </c>
+      <c r="I29" t="n">
+        <v>19</v>
+      </c>
+      <c r="J29" t="n">
+        <v>1984618965.292157</v>
       </c>
     </row>
     <row r="30">
@@ -1264,22 +1442,28 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D30" t="n">
-        <v>564</v>
+        <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>7906951546.351132</v>
+        <v>1600554109.992071</v>
       </c>
       <c r="F30" t="n">
-        <v>0.003523242918341343</v>
-      </c>
-      <c r="G30" t="b">
-        <v>0</v>
-      </c>
-      <c r="H30" t="n">
-        <v>15</v>
+        <v>0.1394258407582389</v>
+      </c>
+      <c r="G30" t="n">
+        <v>0.03192437951215403</v>
+      </c>
+      <c r="H30" t="b">
+        <v>0</v>
+      </c>
+      <c r="I30" t="n">
+        <v>0</v>
+      </c>
+      <c r="J30" t="n">
+        <v>800277046.8008602</v>
       </c>
     </row>
     <row r="31">
@@ -1295,19 +1479,25 @@
         <v>2</v>
       </c>
       <c r="D31" t="n">
-        <v>457</v>
+        <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>5663790955.649938</v>
+        <v>934262506.8017801</v>
       </c>
       <c r="F31" t="n">
-        <v>0.002703154239353602</v>
-      </c>
-      <c r="G31" t="b">
-        <v>0</v>
-      </c>
-      <c r="H31" t="n">
-        <v>9</v>
+        <v>0.08701314091494058</v>
+      </c>
+      <c r="G31" t="n">
+        <v>0.0357491663857319</v>
+      </c>
+      <c r="H31" t="b">
+        <v>0</v>
+      </c>
+      <c r="I31" t="n">
+        <v>0</v>
+      </c>
+      <c r="J31" t="n">
+        <v>467131267.2310869</v>
       </c>
     </row>
     <row r="32">
@@ -1320,22 +1510,28 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D32" t="n">
-        <v>574</v>
+        <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>5221498036.735463</v>
+        <v>1438231765.74738</v>
       </c>
       <c r="F32" t="n">
-        <v>0.001313172041037109</v>
-      </c>
-      <c r="G32" t="b">
-        <v>0</v>
-      </c>
-      <c r="H32" t="n">
-        <v>0</v>
+        <v>0.07264801120097587</v>
+      </c>
+      <c r="G32" t="n">
+        <v>0.03177889589210441</v>
+      </c>
+      <c r="H32" t="b">
+        <v>0</v>
+      </c>
+      <c r="I32" t="n">
+        <v>0</v>
+      </c>
+      <c r="J32" t="n">
+        <v>719115938.2787708</v>
       </c>
     </row>
     <row r="33">
@@ -1351,19 +1547,25 @@
         <v>4</v>
       </c>
       <c r="D33" t="n">
-        <v>470</v>
+        <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>7204279576.620718</v>
+        <v>2064507395.837973</v>
       </c>
       <c r="F33" t="n">
-        <v>0.002767919454139106</v>
-      </c>
-      <c r="G33" t="b">
-        <v>0</v>
-      </c>
-      <c r="H33" t="n">
-        <v>9</v>
+        <v>0.1648776801838742</v>
+      </c>
+      <c r="G33" t="n">
+        <v>0.04245974450994368</v>
+      </c>
+      <c r="H33" t="b">
+        <v>0</v>
+      </c>
+      <c r="I33" t="n">
+        <v>12</v>
+      </c>
+      <c r="J33" t="n">
+        <v>1032253773.070133</v>
       </c>
     </row>
     <row r="34">
@@ -1376,22 +1578,28 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D34" t="n">
-        <v>560</v>
+        <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>6833093656.503198</v>
+        <v>1567643960.352456</v>
       </c>
       <c r="F34" t="n">
-        <v>0.004462236871275995</v>
-      </c>
-      <c r="G34" t="b">
-        <v>1</v>
-      </c>
-      <c r="H34" t="n">
-        <v>13</v>
+        <v>0.09009119119121579</v>
+      </c>
+      <c r="G34" t="n">
+        <v>0.02041181650576638</v>
+      </c>
+      <c r="H34" t="b">
+        <v>0</v>
+      </c>
+      <c r="I34" t="n">
+        <v>0</v>
+      </c>
+      <c r="J34" t="n">
+        <v>783821924.7570777</v>
       </c>
     </row>
     <row r="35">
@@ -1404,22 +1612,28 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D35" t="n">
-        <v>514</v>
+        <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>5345802108.443287</v>
+        <v>1019313978.957274</v>
       </c>
       <c r="F35" t="n">
-        <v>0.002567683305340644</v>
-      </c>
-      <c r="G35" t="b">
-        <v>0</v>
-      </c>
-      <c r="H35" t="n">
-        <v>11</v>
+        <v>0.1098486933831219</v>
+      </c>
+      <c r="G35" t="n">
+        <v>0.04521691628902003</v>
+      </c>
+      <c r="H35" t="b">
+        <v>0</v>
+      </c>
+      <c r="I35" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" t="n">
+        <v>509657003.6788796</v>
       </c>
     </row>
     <row r="36">
@@ -1432,22 +1646,28 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D36" t="n">
-        <v>538</v>
+        <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>7827174834.857094</v>
+        <v>2239020016.569484</v>
       </c>
       <c r="F36" t="n">
-        <v>0.002572357268074239</v>
-      </c>
-      <c r="G36" t="b">
-        <v>1</v>
-      </c>
-      <c r="H36" t="n">
-        <v>12</v>
+        <v>0.1515873126236993</v>
+      </c>
+      <c r="G36" t="n">
+        <v>0.02590618755186986</v>
+      </c>
+      <c r="H36" t="b">
+        <v>0</v>
+      </c>
+      <c r="I36" t="n">
+        <v>10</v>
+      </c>
+      <c r="J36" t="n">
+        <v>1119510051.040573</v>
       </c>
     </row>
     <row r="37">
@@ -1460,22 +1680,28 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D37" t="n">
-        <v>573</v>
+        <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>5520088697.886893</v>
+        <v>2343137882.449907</v>
       </c>
       <c r="F37" t="n">
-        <v>0.004684048532412765</v>
-      </c>
-      <c r="G37" t="b">
-        <v>0</v>
-      </c>
-      <c r="H37" t="n">
-        <v>12</v>
+        <v>0.07544330176525593</v>
+      </c>
+      <c r="G37" t="n">
+        <v>0.03141578175360554</v>
+      </c>
+      <c r="H37" t="b">
+        <v>0</v>
+      </c>
+      <c r="I37" t="n">
+        <v>11</v>
+      </c>
+      <c r="J37" t="n">
+        <v>1171569015.556558</v>
       </c>
     </row>
     <row r="38">
@@ -1488,22 +1714,28 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D38" t="n">
-        <v>461</v>
+        <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>4806973588.373824</v>
+        <v>1348402841.371487</v>
       </c>
       <c r="F38" t="n">
-        <v>0.003177481373728678</v>
-      </c>
-      <c r="G38" t="b">
-        <v>0</v>
-      </c>
-      <c r="H38" t="n">
-        <v>0</v>
+        <v>0.1025438099564533</v>
+      </c>
+      <c r="G38" t="n">
+        <v>0.02905977630527934</v>
+      </c>
+      <c r="H38" t="b">
+        <v>0</v>
+      </c>
+      <c r="I38" t="n">
+        <v>0</v>
+      </c>
+      <c r="J38" t="n">
+        <v>674201491.1703682</v>
       </c>
     </row>
     <row r="39">
@@ -1516,22 +1748,28 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D39" t="n">
-        <v>470</v>
+        <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>4844453469.825539</v>
+        <v>1928845357.432254</v>
       </c>
       <c r="F39" t="n">
-        <v>0.002700264399316256</v>
-      </c>
-      <c r="G39" t="b">
-        <v>0</v>
-      </c>
-      <c r="H39" t="n">
-        <v>4</v>
+        <v>0.1434305321611989</v>
+      </c>
+      <c r="G39" t="n">
+        <v>0.02565229323765456</v>
+      </c>
+      <c r="H39" t="b">
+        <v>0</v>
+      </c>
+      <c r="I39" t="n">
+        <v>0</v>
+      </c>
+      <c r="J39" t="n">
+        <v>964422683.9003732</v>
       </c>
     </row>
     <row r="40">
@@ -1544,22 +1782,28 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D40" t="n">
-        <v>523</v>
+        <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>5411572065.622097</v>
+        <v>1149596868.594152</v>
       </c>
       <c r="F40" t="n">
-        <v>0.003210399459555771</v>
-      </c>
-      <c r="G40" t="b">
-        <v>0</v>
-      </c>
-      <c r="H40" t="n">
-        <v>10</v>
+        <v>0.1234301813962211</v>
+      </c>
+      <c r="G40" t="n">
+        <v>0.04020729939248215</v>
+      </c>
+      <c r="H40" t="b">
+        <v>0</v>
+      </c>
+      <c r="I40" t="n">
+        <v>0</v>
+      </c>
+      <c r="J40" t="n">
+        <v>574798488.0869422</v>
       </c>
     </row>
     <row r="41">
@@ -1572,22 +1816,28 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D41" t="n">
-        <v>540</v>
+        <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>5399380154.859483</v>
+        <v>2025456807.756047</v>
       </c>
       <c r="F41" t="n">
-        <v>0.001140102916917127</v>
-      </c>
-      <c r="G41" t="b">
-        <v>0</v>
-      </c>
-      <c r="H41" t="n">
+        <v>0.1650570590462891</v>
+      </c>
+      <c r="G41" t="n">
+        <v>0.04170906797508175</v>
+      </c>
+      <c r="H41" t="b">
+        <v>0</v>
+      </c>
+      <c r="I41" t="n">
         <v>12</v>
+      </c>
+      <c r="J41" t="n">
+        <v>1012728475.412342</v>
       </c>
     </row>
     <row r="42">
@@ -1600,22 +1850,28 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D42" t="n">
-        <v>514</v>
+        <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>4406118065.889472</v>
+        <v>2654443973.25834</v>
       </c>
       <c r="F42" t="n">
-        <v>0.004184163444147528</v>
-      </c>
-      <c r="G42" t="b">
-        <v>0</v>
-      </c>
-      <c r="H42" t="n">
-        <v>11</v>
+        <v>0.0813782675555927</v>
+      </c>
+      <c r="G42" t="n">
+        <v>0.03258916841040099</v>
+      </c>
+      <c r="H42" t="b">
+        <v>0</v>
+      </c>
+      <c r="I42" t="n">
+        <v>14</v>
+      </c>
+      <c r="J42" t="n">
+        <v>1327221923.06095</v>
       </c>
     </row>
     <row r="43">
@@ -1631,19 +1887,25 @@
         <v>3</v>
       </c>
       <c r="D43" t="n">
-        <v>493</v>
+        <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>6459237654.201124</v>
+        <v>2846681119.037285</v>
       </c>
       <c r="F43" t="n">
-        <v>0.004423401427994102</v>
-      </c>
-      <c r="G43" t="b">
-        <v>0</v>
-      </c>
-      <c r="H43" t="n">
-        <v>11</v>
+        <v>0.1962756200814591</v>
+      </c>
+      <c r="G43" t="n">
+        <v>0.02267746404841592</v>
+      </c>
+      <c r="H43" t="b">
+        <v>1</v>
+      </c>
+      <c r="I43" t="n">
+        <v>14</v>
+      </c>
+      <c r="J43" t="n">
+        <v>1423340573.183878</v>
       </c>
     </row>
     <row r="44">
@@ -1656,22 +1918,28 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D44" t="n">
-        <v>523</v>
+        <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>6346097769.392366</v>
+        <v>1589196318.53692</v>
       </c>
       <c r="F44" t="n">
-        <v>0.001791479690686544</v>
-      </c>
-      <c r="G44" t="b">
-        <v>0</v>
-      </c>
-      <c r="H44" t="n">
-        <v>12</v>
+        <v>0.09843074746583315</v>
+      </c>
+      <c r="G44" t="n">
+        <v>0.02963339441125061</v>
+      </c>
+      <c r="H44" t="b">
+        <v>0</v>
+      </c>
+      <c r="I44" t="n">
+        <v>0</v>
+      </c>
+      <c r="J44" t="n">
+        <v>794598183.508476</v>
       </c>
     </row>
     <row r="45">
@@ -1684,22 +1952,28 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D45" t="n">
-        <v>520</v>
+        <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>4677075237.099364</v>
+        <v>1686630197.896164</v>
       </c>
       <c r="F45" t="n">
-        <v>0.001607944730824203</v>
-      </c>
-      <c r="G45" t="b">
-        <v>0</v>
-      </c>
-      <c r="H45" t="n">
-        <v>3</v>
+        <v>0.1830587190765492</v>
+      </c>
+      <c r="G45" t="n">
+        <v>0.03657932004389347</v>
+      </c>
+      <c r="H45" t="b">
+        <v>0</v>
+      </c>
+      <c r="I45" t="n">
+        <v>0</v>
+      </c>
+      <c r="J45" t="n">
+        <v>843315058.0933822</v>
       </c>
     </row>
     <row r="46">
@@ -1712,22 +1986,28 @@
         </is>
       </c>
       <c r="C46" t="n">
+        <v>5</v>
+      </c>
+      <c r="D46" t="n">
+        <v>525</v>
+      </c>
+      <c r="E46" t="n">
+        <v>5524291248.155935</v>
+      </c>
+      <c r="F46" t="n">
+        <v>0.1710809505014878</v>
+      </c>
+      <c r="G46" t="n">
+        <v>0.04642197519820517</v>
+      </c>
+      <c r="H46" t="b">
         <v>1</v>
       </c>
-      <c r="D46" t="n">
-        <v>406</v>
-      </c>
-      <c r="E46" t="n">
-        <v>9647640472.936535</v>
-      </c>
-      <c r="F46" t="n">
-        <v>0.004128103046556034</v>
-      </c>
-      <c r="G46" t="b">
-        <v>0</v>
-      </c>
-      <c r="H46" t="n">
-        <v>7</v>
+      <c r="I46" t="n">
+        <v>15</v>
+      </c>
+      <c r="J46" t="n">
+        <v>2762145680.720453</v>
       </c>
     </row>
     <row r="47">
@@ -1740,22 +2020,28 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D47" t="n">
-        <v>368</v>
+        <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>6734821565.355495</v>
+        <v>4699752702.539762</v>
       </c>
       <c r="F47" t="n">
-        <v>0.003102006226171474</v>
-      </c>
-      <c r="G47" t="b">
-        <v>0</v>
-      </c>
-      <c r="H47" t="n">
-        <v>6</v>
+        <v>0.1299392316460914</v>
+      </c>
+      <c r="G47" t="n">
+        <v>0.03862526642421631</v>
+      </c>
+      <c r="H47" t="b">
+        <v>1</v>
+      </c>
+      <c r="I47" t="n">
+        <v>11</v>
+      </c>
+      <c r="J47" t="n">
+        <v>2349876389.942618</v>
       </c>
     </row>
     <row r="48">
@@ -1768,22 +2054,28 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D48" t="n">
-        <v>431</v>
+        <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>6359982152.54871</v>
+        <v>3555337036.243207</v>
       </c>
       <c r="F48" t="n">
-        <v>0.003643534194562875</v>
-      </c>
-      <c r="G48" t="b">
-        <v>0</v>
-      </c>
-      <c r="H48" t="n">
-        <v>8</v>
+        <v>0.07421800750005071</v>
+      </c>
+      <c r="G48" t="n">
+        <v>0.03273443791251367</v>
+      </c>
+      <c r="H48" t="b">
+        <v>0</v>
+      </c>
+      <c r="I48" t="n">
+        <v>14</v>
+      </c>
+      <c r="J48" t="n">
+        <v>1777668578.172528</v>
       </c>
     </row>
     <row r="49">
@@ -1796,22 +2088,28 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D49" t="n">
-        <v>581</v>
+        <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>3791032346.751074</v>
+        <v>1584850640.080309</v>
       </c>
       <c r="F49" t="n">
-        <v>0.004241965637877285</v>
-      </c>
-      <c r="G49" t="b">
-        <v>0</v>
-      </c>
-      <c r="H49" t="n">
-        <v>1</v>
+        <v>0.1424631355092402</v>
+      </c>
+      <c r="G49" t="n">
+        <v>0.03318072919482965</v>
+      </c>
+      <c r="H49" t="b">
+        <v>0</v>
+      </c>
+      <c r="I49" t="n">
+        <v>0</v>
+      </c>
+      <c r="J49" t="n">
+        <v>792425338.7020886</v>
       </c>
     </row>
     <row r="50">
@@ -1824,22 +2122,28 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D50" t="n">
-        <v>528</v>
+        <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>6593854162.483883</v>
+        <v>2616009204.797318</v>
       </c>
       <c r="F50" t="n">
-        <v>0.003676952274343062</v>
-      </c>
-      <c r="G50" t="b">
-        <v>1</v>
-      </c>
-      <c r="H50" t="n">
-        <v>12</v>
+        <v>0.1704514169588151</v>
+      </c>
+      <c r="G50" t="n">
+        <v>0.04548386720031446</v>
+      </c>
+      <c r="H50" t="b">
+        <v>0</v>
+      </c>
+      <c r="I50" t="n">
+        <v>15</v>
+      </c>
+      <c r="J50" t="n">
+        <v>1308004689.414385</v>
       </c>
     </row>
     <row r="51">
@@ -1852,22 +2156,28 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D51" t="n">
-        <v>394</v>
+        <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>4582146176.704101</v>
+        <v>1001287213.777298</v>
       </c>
       <c r="F51" t="n">
-        <v>0.00401420798450983</v>
-      </c>
-      <c r="G51" t="b">
-        <v>0</v>
-      </c>
-      <c r="H51" t="n">
-        <v>0</v>
+        <v>0.1660433682992703</v>
+      </c>
+      <c r="G51" t="n">
+        <v>0.04737066451314517</v>
+      </c>
+      <c r="H51" t="b">
+        <v>0</v>
+      </c>
+      <c r="I51" t="n">
+        <v>0</v>
+      </c>
+      <c r="J51" t="n">
+        <v>500643690.4879328</v>
       </c>
     </row>
     <row r="52">
@@ -1880,22 +2190,28 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D52" t="n">
-        <v>497</v>
+        <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>8279955651.580753</v>
+        <v>4451898181.563859</v>
       </c>
       <c r="F52" t="n">
-        <v>0.00147496101267231</v>
-      </c>
-      <c r="G52" t="b">
-        <v>1</v>
-      </c>
-      <c r="H52" t="n">
-        <v>10</v>
+        <v>0.09559544644940793</v>
+      </c>
+      <c r="G52" t="n">
+        <v>0.05568204305031086</v>
+      </c>
+      <c r="H52" t="b">
+        <v>0</v>
+      </c>
+      <c r="I52" t="n">
+        <v>18</v>
+      </c>
+      <c r="J52" t="n">
+        <v>2225949120.505251</v>
       </c>
     </row>
     <row r="53">
@@ -1908,22 +2224,28 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D53" t="n">
-        <v>443</v>
+        <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>5407419342.615376</v>
+        <v>3197389613.281287</v>
       </c>
       <c r="F53" t="n">
-        <v>0.002171761727576927</v>
-      </c>
-      <c r="G53" t="b">
-        <v>0</v>
-      </c>
-      <c r="H53" t="n">
-        <v>8</v>
+        <v>0.2008896017908603</v>
+      </c>
+      <c r="G53" t="n">
+        <v>0.02174097497453466</v>
+      </c>
+      <c r="H53" t="b">
+        <v>0</v>
+      </c>
+      <c r="I53" t="n">
+        <v>12</v>
+      </c>
+      <c r="J53" t="n">
+        <v>1598694825.308938</v>
       </c>
     </row>
     <row r="54">
@@ -1936,22 +2258,28 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D54" t="n">
-        <v>591</v>
+        <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>5669094373.173406</v>
+        <v>3250340215.556563</v>
       </c>
       <c r="F54" t="n">
-        <v>0.005261204188543258</v>
-      </c>
-      <c r="G54" t="b">
-        <v>0</v>
-      </c>
-      <c r="H54" t="n">
-        <v>11</v>
+        <v>0.1114757287243415</v>
+      </c>
+      <c r="G54" t="n">
+        <v>0.05163581644021951</v>
+      </c>
+      <c r="H54" t="b">
+        <v>0</v>
+      </c>
+      <c r="I54" t="n">
+        <v>14</v>
+      </c>
+      <c r="J54" t="n">
+        <v>1625170112.870889</v>
       </c>
     </row>
     <row r="55">
@@ -1964,22 +2292,28 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D55" t="n">
-        <v>568</v>
+        <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>6906775693.15214</v>
+        <v>3816062322.644804</v>
       </c>
       <c r="F55" t="n">
-        <v>0.00303081644302943</v>
-      </c>
-      <c r="G55" t="b">
-        <v>0</v>
-      </c>
-      <c r="H55" t="n">
-        <v>14</v>
+        <v>0.2192046285276344</v>
+      </c>
+      <c r="G55" t="n">
+        <v>0.02540633930554457</v>
+      </c>
+      <c r="H55" t="b">
+        <v>0</v>
+      </c>
+      <c r="I55" t="n">
+        <v>11</v>
+      </c>
+      <c r="J55" t="n">
+        <v>1908031127.967589</v>
       </c>
     </row>
     <row r="56">
@@ -1992,22 +2326,28 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D56" t="n">
-        <v>467</v>
+        <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>4353917462.337093</v>
+        <v>1754871721.887054</v>
       </c>
       <c r="F56" t="n">
-        <v>0.0025507089364203</v>
-      </c>
-      <c r="G56" t="b">
-        <v>0</v>
-      </c>
-      <c r="H56" t="n">
-        <v>6</v>
+        <v>0.1470785098839122</v>
+      </c>
+      <c r="G56" t="n">
+        <v>0.04661344335434048</v>
+      </c>
+      <c r="H56" t="b">
+        <v>0</v>
+      </c>
+      <c r="I56" t="n">
+        <v>0</v>
+      </c>
+      <c r="J56" t="n">
+        <v>877435865.3295888</v>
       </c>
     </row>
     <row r="57">
@@ -2023,19 +2363,25 @@
         <v>3</v>
       </c>
       <c r="D57" t="n">
-        <v>475</v>
+        <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>8255347321.217813</v>
+        <v>3156112208.584576</v>
       </c>
       <c r="F57" t="n">
-        <v>0.002919994739168039</v>
-      </c>
-      <c r="G57" t="b">
-        <v>1</v>
-      </c>
-      <c r="H57" t="n">
-        <v>9</v>
+        <v>0.1557230748617127</v>
+      </c>
+      <c r="G57" t="n">
+        <v>0.02015910290346037</v>
+      </c>
+      <c r="H57" t="b">
+        <v>0</v>
+      </c>
+      <c r="I57" t="n">
+        <v>14</v>
+      </c>
+      <c r="J57" t="n">
+        <v>1578056121.648944</v>
       </c>
     </row>
     <row r="58">
@@ -2051,19 +2397,25 @@
         <v>5</v>
       </c>
       <c r="D58" t="n">
-        <v>484</v>
+        <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>6298880347.174081</v>
+        <v>1841598726.536366</v>
       </c>
       <c r="F58" t="n">
-        <v>0.00187597929386026</v>
-      </c>
-      <c r="G58" t="b">
-        <v>0</v>
-      </c>
-      <c r="H58" t="n">
-        <v>10</v>
+        <v>0.1301630026159508</v>
+      </c>
+      <c r="G58" t="n">
+        <v>0.03674278884527985</v>
+      </c>
+      <c r="H58" t="b">
+        <v>0</v>
+      </c>
+      <c r="I58" t="n">
+        <v>0</v>
+      </c>
+      <c r="J58" t="n">
+        <v>920799363.0908805</v>
       </c>
     </row>
     <row r="59">
@@ -2079,19 +2431,25 @@
         <v>2</v>
       </c>
       <c r="D59" t="n">
-        <v>352</v>
+        <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>5844291457.905877</v>
+        <v>4832824271.667133</v>
       </c>
       <c r="F59" t="n">
-        <v>0.004236130753444558</v>
-      </c>
-      <c r="G59" t="b">
-        <v>0</v>
-      </c>
-      <c r="H59" t="n">
-        <v>4</v>
+        <v>0.08185263574748777</v>
+      </c>
+      <c r="G59" t="n">
+        <v>0.04151327818533884</v>
+      </c>
+      <c r="H59" t="b">
+        <v>1</v>
+      </c>
+      <c r="I59" t="n">
+        <v>11</v>
+      </c>
+      <c r="J59" t="n">
+        <v>2416412071.442733</v>
       </c>
     </row>
     <row r="60">
@@ -2104,22 +2462,28 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D60" t="n">
-        <v>424</v>
+        <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>4612940922.288602</v>
+        <v>2994697698.129821</v>
       </c>
       <c r="F60" t="n">
-        <v>0.003861452521980372</v>
-      </c>
-      <c r="G60" t="b">
-        <v>0</v>
-      </c>
-      <c r="H60" t="n">
-        <v>0</v>
+        <v>0.1833871180809319</v>
+      </c>
+      <c r="G60" t="n">
+        <v>0.03332547492536054</v>
+      </c>
+      <c r="H60" t="b">
+        <v>1</v>
+      </c>
+      <c r="I60" t="n">
+        <v>13</v>
+      </c>
+      <c r="J60" t="n">
+        <v>1497348918.706919</v>
       </c>
     </row>
     <row r="61">
@@ -2132,22 +2496,28 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D61" t="n">
-        <v>488</v>
+        <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>5861494759.79219</v>
+        <v>2213108593.775383</v>
       </c>
       <c r="F61" t="n">
-        <v>0.004394625695045006</v>
-      </c>
-      <c r="G61" t="b">
-        <v>0</v>
-      </c>
-      <c r="H61" t="n">
-        <v>9</v>
+        <v>0.1793277549932171</v>
+      </c>
+      <c r="G61" t="n">
+        <v>0.02637516125531277</v>
+      </c>
+      <c r="H61" t="b">
+        <v>0</v>
+      </c>
+      <c r="I61" t="n">
+        <v>14</v>
+      </c>
+      <c r="J61" t="n">
+        <v>1106554351.416688</v>
       </c>
     </row>
     <row r="62">
@@ -2160,22 +2530,28 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D62" t="n">
-        <v>441</v>
+        <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>4251492270.623868</v>
+        <v>1664849206.273672</v>
       </c>
       <c r="F62" t="n">
-        <v>0.003986569002494348</v>
-      </c>
-      <c r="G62" t="b">
-        <v>0</v>
-      </c>
-      <c r="H62" t="n">
-        <v>8</v>
+        <v>0.129189719799104</v>
+      </c>
+      <c r="G62" t="n">
+        <v>0.03416310927976105</v>
+      </c>
+      <c r="H62" t="b">
+        <v>0</v>
+      </c>
+      <c r="I62" t="n">
+        <v>0</v>
+      </c>
+      <c r="J62" t="n">
+        <v>832424610.7546356</v>
       </c>
     </row>
     <row r="63">
@@ -2188,22 +2564,28 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D63" t="n">
-        <v>490</v>
+        <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>8469685497.37428</v>
+        <v>5121278686.092595</v>
       </c>
       <c r="F63" t="n">
-        <v>0.003945365828118159</v>
-      </c>
-      <c r="G63" t="b">
-        <v>0</v>
-      </c>
-      <c r="H63" t="n">
-        <v>10</v>
+        <v>0.07060303955997541</v>
+      </c>
+      <c r="G63" t="n">
+        <v>0.04572731382894639</v>
+      </c>
+      <c r="H63" t="b">
+        <v>0</v>
+      </c>
+      <c r="I63" t="n">
+        <v>12</v>
+      </c>
+      <c r="J63" t="n">
+        <v>2560639355.242492</v>
       </c>
     </row>
     <row r="64">
@@ -2216,22 +2598,28 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D64" t="n">
-        <v>545</v>
+        <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>5318317670.508268</v>
+        <v>4281295874.428078</v>
       </c>
       <c r="F64" t="n">
-        <v>0.004967246690483969</v>
-      </c>
-      <c r="G64" t="b">
-        <v>0</v>
-      </c>
-      <c r="H64" t="n">
-        <v>0</v>
+        <v>0.1643650530519793</v>
+      </c>
+      <c r="G64" t="n">
+        <v>0.03430735298594397</v>
+      </c>
+      <c r="H64" t="b">
+        <v>1</v>
+      </c>
+      <c r="I64" t="n">
+        <v>13</v>
+      </c>
+      <c r="J64" t="n">
+        <v>2140647992.711387</v>
       </c>
     </row>
     <row r="65">
@@ -2244,22 +2632,28 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D65" t="n">
-        <v>507</v>
+        <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>5790729037.509647</v>
+        <v>5733181544.065477</v>
       </c>
       <c r="F65" t="n">
-        <v>0.004457715566362516</v>
-      </c>
-      <c r="G65" t="b">
-        <v>0</v>
-      </c>
-      <c r="H65" t="n">
-        <v>12</v>
+        <v>0.1512177440736532</v>
+      </c>
+      <c r="G65" t="n">
+        <v>0.02545756367721128</v>
+      </c>
+      <c r="H65" t="b">
+        <v>1</v>
+      </c>
+      <c r="I65" t="n">
+        <v>15</v>
+      </c>
+      <c r="J65" t="n">
+        <v>2866590687.028431</v>
       </c>
     </row>
     <row r="66">
@@ -2272,22 +2666,28 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D66" t="n">
-        <v>472</v>
+        <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>5216802595.892647</v>
+        <v>5276064600.618678</v>
       </c>
       <c r="F66" t="n">
-        <v>0.002890047652734594</v>
-      </c>
-      <c r="G66" t="b">
-        <v>0</v>
-      </c>
-      <c r="H66" t="n">
-        <v>7</v>
+        <v>0.1200208820908645</v>
+      </c>
+      <c r="G66" t="n">
+        <v>0.04863765436723796</v>
+      </c>
+      <c r="H66" t="b">
+        <v>1</v>
+      </c>
+      <c r="I66" t="n">
+        <v>12</v>
+      </c>
+      <c r="J66" t="n">
+        <v>2638032342.104556</v>
       </c>
     </row>
     <row r="67">
@@ -2300,22 +2700,28 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D67" t="n">
-        <v>411</v>
+        <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>5452533751.610332</v>
+        <v>2794203113.780628</v>
       </c>
       <c r="F67" t="n">
-        <v>0.0054470089341884</v>
-      </c>
-      <c r="G67" t="b">
-        <v>0</v>
-      </c>
-      <c r="H67" t="n">
-        <v>7</v>
+        <v>0.1005963317369237</v>
+      </c>
+      <c r="G67" t="n">
+        <v>0.03845872124896095</v>
+      </c>
+      <c r="H67" t="b">
+        <v>1</v>
+      </c>
+      <c r="I67" t="n">
+        <v>13</v>
+      </c>
+      <c r="J67" t="n">
+        <v>1397101592.439997</v>
       </c>
     </row>
     <row r="68">
@@ -2328,22 +2734,28 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D68" t="n">
-        <v>462</v>
+        <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>8591685727.831163</v>
+        <v>5393542460.201324</v>
       </c>
       <c r="F68" t="n">
-        <v>0.002200210481255403</v>
-      </c>
-      <c r="G68" t="b">
-        <v>0</v>
-      </c>
-      <c r="H68" t="n">
-        <v>9</v>
+        <v>0.1106757119031958</v>
+      </c>
+      <c r="G68" t="n">
+        <v>0.04600574747435088</v>
+      </c>
+      <c r="H68" t="b">
+        <v>1</v>
+      </c>
+      <c r="I68" t="n">
+        <v>13</v>
+      </c>
+      <c r="J68" t="n">
+        <v>2696771310.180892</v>
       </c>
     </row>
     <row r="69">
@@ -2359,19 +2771,25 @@
         <v>5</v>
       </c>
       <c r="D69" t="n">
-        <v>517</v>
+        <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>6560057262.975995</v>
+        <v>1588156745.121551</v>
       </c>
       <c r="F69" t="n">
-        <v>0.0009351566307860006</v>
-      </c>
-      <c r="G69" t="b">
-        <v>1</v>
-      </c>
-      <c r="H69" t="n">
-        <v>8</v>
+        <v>0.1819881602013521</v>
+      </c>
+      <c r="G69" t="n">
+        <v>0.04988412191552663</v>
+      </c>
+      <c r="H69" t="b">
+        <v>0</v>
+      </c>
+      <c r="I69" t="n">
+        <v>0</v>
+      </c>
+      <c r="J69" t="n">
+        <v>794078324.0980662</v>
       </c>
     </row>
     <row r="70">
@@ -2384,22 +2802,28 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D70" t="n">
-        <v>490</v>
+        <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>6828200707.477318</v>
+        <v>2896316833.753152</v>
       </c>
       <c r="F70" t="n">
-        <v>0.003082835190612326</v>
-      </c>
-      <c r="G70" t="b">
-        <v>0</v>
-      </c>
-      <c r="H70" t="n">
-        <v>10</v>
+        <v>0.07162035506269947</v>
+      </c>
+      <c r="G70" t="n">
+        <v>0.04483066795943403</v>
+      </c>
+      <c r="H70" t="b">
+        <v>0</v>
+      </c>
+      <c r="I70" t="n">
+        <v>13</v>
+      </c>
+      <c r="J70" t="n">
+        <v>1448158386.975248</v>
       </c>
     </row>
     <row r="71">
@@ -2415,19 +2839,25 @@
         <v>5</v>
       </c>
       <c r="D71" t="n">
-        <v>474</v>
+        <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>4444491217.517534</v>
+        <v>3509836747.901418</v>
       </c>
       <c r="F71" t="n">
-        <v>0.003502939977645644</v>
-      </c>
-      <c r="G71" t="b">
-        <v>0</v>
-      </c>
-      <c r="H71" t="n">
-        <v>0</v>
+        <v>0.1469625614747731</v>
+      </c>
+      <c r="G71" t="n">
+        <v>0.02312718934701832</v>
+      </c>
+      <c r="H71" t="b">
+        <v>0</v>
+      </c>
+      <c r="I71" t="n">
+        <v>16</v>
+      </c>
+      <c r="J71" t="n">
+        <v>1754918368.26869</v>
       </c>
     </row>
     <row r="72">
@@ -2440,22 +2870,28 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D72" t="n">
-        <v>460</v>
+        <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>5275004307.862178</v>
+        <v>1903790876.922491</v>
       </c>
       <c r="F72" t="n">
-        <v>0.001584728633503403</v>
-      </c>
-      <c r="G72" t="b">
-        <v>0</v>
-      </c>
-      <c r="H72" t="n">
-        <v>10</v>
+        <v>0.09362901632605898</v>
+      </c>
+      <c r="G72" t="n">
+        <v>0.03667161614920317</v>
+      </c>
+      <c r="H72" t="b">
+        <v>0</v>
+      </c>
+      <c r="I72" t="n">
+        <v>0</v>
+      </c>
+      <c r="J72" t="n">
+        <v>951895400.1505398</v>
       </c>
     </row>
     <row r="73">
@@ -2468,22 +2904,28 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D73" t="n">
-        <v>480</v>
+        <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>5351324125.661504</v>
+        <v>3068590996.461464</v>
       </c>
       <c r="F73" t="n">
-        <v>0.001413056928871687</v>
-      </c>
-      <c r="G73" t="b">
-        <v>0</v>
-      </c>
-      <c r="H73" t="n">
-        <v>10</v>
+        <v>0.07934838207184768</v>
+      </c>
+      <c r="G73" t="n">
+        <v>0.04587921530552037</v>
+      </c>
+      <c r="H73" t="b">
+        <v>0</v>
+      </c>
+      <c r="I73" t="n">
+        <v>17</v>
+      </c>
+      <c r="J73" t="n">
+        <v>1534295487.785963</v>
       </c>
     </row>
     <row r="74">
@@ -2499,19 +2941,25 @@
         <v>2</v>
       </c>
       <c r="D74" t="n">
-        <v>520</v>
+        <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>6243047069.413853</v>
+        <v>3713395355.590926</v>
       </c>
       <c r="F74" t="n">
-        <v>0.004919941771643007</v>
-      </c>
-      <c r="G74" t="b">
-        <v>1</v>
-      </c>
-      <c r="H74" t="n">
-        <v>9</v>
+        <v>0.1674851014953335</v>
+      </c>
+      <c r="G74" t="n">
+        <v>0.0226810049548445</v>
+      </c>
+      <c r="H74" t="b">
+        <v>0</v>
+      </c>
+      <c r="I74" t="n">
+        <v>15</v>
+      </c>
+      <c r="J74" t="n">
+        <v>1856697681.348495</v>
       </c>
     </row>
     <row r="75">
@@ -2524,22 +2972,28 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D75" t="n">
-        <v>441</v>
+        <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>6152505329.491963</v>
+        <v>2421456726.089251</v>
       </c>
       <c r="F75" t="n">
-        <v>0.003315670694503946</v>
-      </c>
-      <c r="G75" t="b">
-        <v>0</v>
-      </c>
-      <c r="H75" t="n">
-        <v>8</v>
+        <v>0.1620188904760712</v>
+      </c>
+      <c r="G75" t="n">
+        <v>0.03743356068172556</v>
+      </c>
+      <c r="H75" t="b">
+        <v>0</v>
+      </c>
+      <c r="I75" t="n">
+        <v>0</v>
+      </c>
+      <c r="J75" t="n">
+        <v>1210728287.526596</v>
       </c>
     </row>
     <row r="76">
@@ -2552,22 +3006,28 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D76" t="n">
-        <v>459</v>
+        <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>6427280479.333216</v>
+        <v>5200470866.854396</v>
       </c>
       <c r="F76" t="n">
-        <v>0.002642475807132153</v>
-      </c>
-      <c r="G76" t="b">
-        <v>0</v>
-      </c>
-      <c r="H76" t="n">
+        <v>0.1067480371878963</v>
+      </c>
+      <c r="G76" t="n">
+        <v>0.03424959914105611</v>
+      </c>
+      <c r="H76" t="b">
+        <v>0</v>
+      </c>
+      <c r="I76" t="n">
         <v>9</v>
+      </c>
+      <c r="J76" t="n">
+        <v>2600235468.362737</v>
       </c>
     </row>
     <row r="77">
@@ -2580,22 +3040,28 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D77" t="n">
-        <v>576</v>
+        <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>7317684964.972841</v>
+        <v>2261448344.302361</v>
       </c>
       <c r="F77" t="n">
-        <v>0.005948499030822286</v>
-      </c>
-      <c r="G77" t="b">
-        <v>1</v>
-      </c>
-      <c r="H77" t="n">
-        <v>14</v>
+        <v>0.163873122203406</v>
+      </c>
+      <c r="G77" t="n">
+        <v>0.02905824785495161</v>
+      </c>
+      <c r="H77" t="b">
+        <v>0</v>
+      </c>
+      <c r="I77" t="n">
+        <v>0</v>
+      </c>
+      <c r="J77" t="n">
+        <v>1130724272.159388</v>
       </c>
     </row>
     <row r="78">
@@ -2608,22 +3074,28 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D78" t="n">
-        <v>454</v>
+        <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>7381145596.357483</v>
+        <v>3876968155.78923</v>
       </c>
       <c r="F78" t="n">
-        <v>0.004126324332269734</v>
-      </c>
-      <c r="G78" t="b">
-        <v>0</v>
-      </c>
-      <c r="H78" t="n">
-        <v>9</v>
+        <v>0.08472891312468496</v>
+      </c>
+      <c r="G78" t="n">
+        <v>0.036669896517377</v>
+      </c>
+      <c r="H78" t="b">
+        <v>0</v>
+      </c>
+      <c r="I78" t="n">
+        <v>15</v>
+      </c>
+      <c r="J78" t="n">
+        <v>1938484052.235141</v>
       </c>
     </row>
     <row r="79">
@@ -2639,19 +3111,25 @@
         <v>5</v>
       </c>
       <c r="D79" t="n">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>8606798222.682207</v>
+        <v>1489344227.631877</v>
       </c>
       <c r="F79" t="n">
-        <v>0.001852214434530645</v>
-      </c>
-      <c r="G79" t="b">
-        <v>0</v>
-      </c>
-      <c r="H79" t="n">
-        <v>10</v>
+        <v>0.1333979903072335</v>
+      </c>
+      <c r="G79" t="n">
+        <v>0.02742441051752351</v>
+      </c>
+      <c r="H79" t="b">
+        <v>0</v>
+      </c>
+      <c r="I79" t="n">
+        <v>0</v>
+      </c>
+      <c r="J79" t="n">
+        <v>744672146.0394995</v>
       </c>
     </row>
     <row r="80">
@@ -2664,22 +3142,28 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D80" t="n">
-        <v>573</v>
+        <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>7059413934.876025</v>
+        <v>4588129923.043079</v>
       </c>
       <c r="F80" t="n">
-        <v>0.002649584534557516</v>
-      </c>
-      <c r="G80" t="b">
-        <v>1</v>
-      </c>
-      <c r="H80" t="n">
-        <v>13</v>
+        <v>0.070768917186283</v>
+      </c>
+      <c r="G80" t="n">
+        <v>0.02883737760817135</v>
+      </c>
+      <c r="H80" t="b">
+        <v>0</v>
+      </c>
+      <c r="I80" t="n">
+        <v>9</v>
+      </c>
+      <c r="J80" t="n">
+        <v>2294064990.090691</v>
       </c>
     </row>
     <row r="81">
@@ -2692,22 +3176,28 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D81" t="n">
-        <v>427</v>
+        <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>5368039948.272284</v>
+        <v>4045572960.960159</v>
       </c>
       <c r="F81" t="n">
-        <v>0.004505533929985021</v>
-      </c>
-      <c r="G81" t="b">
-        <v>0</v>
-      </c>
-      <c r="H81" t="n">
-        <v>7</v>
+        <v>0.1201174284129219</v>
+      </c>
+      <c r="G81" t="n">
+        <v>0.02711663107562068</v>
+      </c>
+      <c r="H81" t="b">
+        <v>0</v>
+      </c>
+      <c r="I81" t="n">
+        <v>9</v>
+      </c>
+      <c r="J81" t="n">
+        <v>2022786445.209543</v>
       </c>
     </row>
     <row r="82">
@@ -2720,22 +3210,28 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D82" t="n">
-        <v>423</v>
+        <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>7998467065.779929</v>
+        <v>4640384295.81131</v>
       </c>
       <c r="F82" t="n">
-        <v>0.004607529942694962</v>
-      </c>
-      <c r="G82" t="b">
-        <v>1</v>
-      </c>
-      <c r="H82" t="n">
-        <v>7</v>
+        <v>0.2031570973715588</v>
+      </c>
+      <c r="G82" t="n">
+        <v>0.02344028364040692</v>
+      </c>
+      <c r="H82" t="b">
+        <v>0</v>
+      </c>
+      <c r="I82" t="n">
+        <v>15</v>
+      </c>
+      <c r="J82" t="n">
+        <v>2320192151.765025</v>
       </c>
     </row>
     <row r="83">
@@ -2748,22 +3244,28 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D83" t="n">
-        <v>504</v>
+        <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>9239031488.366133</v>
+        <v>2014766485.415205</v>
       </c>
       <c r="F83" t="n">
-        <v>0.002686462370377639</v>
-      </c>
-      <c r="G83" t="b">
-        <v>0</v>
-      </c>
-      <c r="H83" t="n">
-        <v>12</v>
+        <v>0.1115291659761824</v>
+      </c>
+      <c r="G83" t="n">
+        <v>0.03842032855857819</v>
+      </c>
+      <c r="H83" t="b">
+        <v>0</v>
+      </c>
+      <c r="I83" t="n">
+        <v>0</v>
+      </c>
+      <c r="J83" t="n">
+        <v>1007383229.730641</v>
       </c>
     </row>
     <row r="84">
@@ -2776,22 +3278,28 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D84" t="n">
-        <v>524</v>
+        <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>7439599060.331832</v>
+        <v>2317555164.239296</v>
       </c>
       <c r="F84" t="n">
-        <v>0.003399335531127872</v>
-      </c>
-      <c r="G84" t="b">
-        <v>1</v>
-      </c>
-      <c r="H84" t="n">
-        <v>12</v>
+        <v>0.09899384492066304</v>
+      </c>
+      <c r="G84" t="n">
+        <v>0.04078120877567926</v>
+      </c>
+      <c r="H84" t="b">
+        <v>0</v>
+      </c>
+      <c r="I84" t="n">
+        <v>0</v>
+      </c>
+      <c r="J84" t="n">
+        <v>1158777540.465044</v>
       </c>
     </row>
     <row r="85">
@@ -2804,22 +3312,28 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D85" t="n">
-        <v>512</v>
+        <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>3825616461.974565</v>
+        <v>3522007979.16656</v>
       </c>
       <c r="F85" t="n">
-        <v>0.003196046132593981</v>
-      </c>
-      <c r="G85" t="b">
-        <v>0</v>
-      </c>
-      <c r="H85" t="n">
-        <v>0</v>
+        <v>0.177367558599202</v>
+      </c>
+      <c r="G85" t="n">
+        <v>0.0445445482648365</v>
+      </c>
+      <c r="H85" t="b">
+        <v>0</v>
+      </c>
+      <c r="I85" t="n">
+        <v>17</v>
+      </c>
+      <c r="J85" t="n">
+        <v>1761004107.203564</v>
       </c>
     </row>
     <row r="86">
@@ -2835,19 +3349,25 @@
         <v>2</v>
       </c>
       <c r="D86" t="n">
-        <v>517</v>
+        <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>6564304334.85702</v>
+        <v>1914288052.353429</v>
       </c>
       <c r="F86" t="n">
-        <v>0.002017426834395758</v>
-      </c>
-      <c r="G86" t="b">
-        <v>0</v>
-      </c>
-      <c r="H86" t="n">
-        <v>14</v>
+        <v>0.1060031195547135</v>
+      </c>
+      <c r="G86" t="n">
+        <v>0.0249278159947809</v>
+      </c>
+      <c r="H86" t="b">
+        <v>0</v>
+      </c>
+      <c r="I86" t="n">
+        <v>4</v>
+      </c>
+      <c r="J86" t="n">
+        <v>957144041.7082515</v>
       </c>
     </row>
     <row r="87">
@@ -2863,19 +3383,25 @@
         <v>3</v>
       </c>
       <c r="D87" t="n">
-        <v>500</v>
+        <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>4101039778.049425</v>
+        <v>1069340130.593904</v>
       </c>
       <c r="F87" t="n">
-        <v>0.001270377729140061</v>
-      </c>
-      <c r="G87" t="b">
-        <v>0</v>
-      </c>
-      <c r="H87" t="n">
-        <v>0</v>
+        <v>0.1613534176854183</v>
+      </c>
+      <c r="G87" t="n">
+        <v>0.02740701821126475</v>
+      </c>
+      <c r="H87" t="b">
+        <v>0</v>
+      </c>
+      <c r="I87" t="n">
+        <v>0</v>
+      </c>
+      <c r="J87" t="n">
+        <v>534670087.2400686</v>
       </c>
     </row>
     <row r="88">
@@ -2888,22 +3414,28 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D88" t="n">
-        <v>477</v>
+        <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>7643701221.566279</v>
+        <v>2967369327.943684</v>
       </c>
       <c r="F88" t="n">
-        <v>0.004218860145001996</v>
-      </c>
-      <c r="G88" t="b">
+        <v>0.1608419080642068</v>
+      </c>
+      <c r="G88" t="n">
+        <v>0.02545566285790045</v>
+      </c>
+      <c r="H88" t="b">
         <v>1</v>
       </c>
-      <c r="H88" t="n">
-        <v>9</v>
+      <c r="I88" t="n">
+        <v>16</v>
+      </c>
+      <c r="J88" t="n">
+        <v>1483684691.038062</v>
       </c>
     </row>
     <row r="89">
@@ -2916,22 +3448,28 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D89" t="n">
-        <v>473</v>
+        <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>5650202351.573551</v>
+        <v>3480597148.233807</v>
       </c>
       <c r="F89" t="n">
-        <v>0.004788969953336532</v>
-      </c>
-      <c r="G89" t="b">
-        <v>0</v>
-      </c>
-      <c r="H89" t="n">
-        <v>9</v>
+        <v>0.1137737650750875</v>
+      </c>
+      <c r="G89" t="n">
+        <v>0.03254419462583854</v>
+      </c>
+      <c r="H89" t="b">
+        <v>0</v>
+      </c>
+      <c r="I89" t="n">
+        <v>15</v>
+      </c>
+      <c r="J89" t="n">
+        <v>1740298576.829416</v>
       </c>
     </row>
     <row r="90">
@@ -2944,22 +3482,28 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D90" t="n">
-        <v>433</v>
+        <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>6942209557.002802</v>
+        <v>2083306332.586386</v>
       </c>
       <c r="F90" t="n">
-        <v>0.002715775697481408</v>
-      </c>
-      <c r="G90" t="b">
-        <v>1</v>
-      </c>
-      <c r="H90" t="n">
-        <v>7</v>
+        <v>0.1154943596011327</v>
+      </c>
+      <c r="G90" t="n">
+        <v>0.05059056394298782</v>
+      </c>
+      <c r="H90" t="b">
+        <v>0</v>
+      </c>
+      <c r="I90" t="n">
+        <v>0</v>
+      </c>
+      <c r="J90" t="n">
+        <v>1041653251.636961</v>
       </c>
     </row>
     <row r="91">
@@ -2972,22 +3516,28 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D91" t="n">
-        <v>556</v>
+        <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>7064445212.730181</v>
+        <v>1871555420.989715</v>
       </c>
       <c r="F91" t="n">
-        <v>0.004835692656407345</v>
-      </c>
-      <c r="G91" t="b">
-        <v>1</v>
-      </c>
-      <c r="H91" t="n">
-        <v>12</v>
+        <v>0.1391868597800758</v>
+      </c>
+      <c r="G91" t="n">
+        <v>0.03894447716291154</v>
+      </c>
+      <c r="H91" t="b">
+        <v>0</v>
+      </c>
+      <c r="I91" t="n">
+        <v>0</v>
+      </c>
+      <c r="J91" t="n">
+        <v>935777699.715539</v>
       </c>
     </row>
     <row r="92">
@@ -3000,22 +3550,28 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D92" t="n">
-        <v>534</v>
+        <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>3894867123.330859</v>
+        <v>1909099660.794782</v>
       </c>
       <c r="F92" t="n">
-        <v>0.003880379696274899</v>
-      </c>
-      <c r="G92" t="b">
-        <v>0</v>
-      </c>
-      <c r="H92" t="n">
-        <v>0</v>
+        <v>0.1100291981576613</v>
+      </c>
+      <c r="G92" t="n">
+        <v>0.0307747418147434</v>
+      </c>
+      <c r="H92" t="b">
+        <v>0</v>
+      </c>
+      <c r="I92" t="n">
+        <v>12</v>
+      </c>
+      <c r="J92" t="n">
+        <v>954549769.5159069</v>
       </c>
     </row>
     <row r="93">
@@ -3028,22 +3584,28 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D93" t="n">
-        <v>588</v>
+        <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>6047338766.206453</v>
+        <v>4761586240.031987</v>
       </c>
       <c r="F93" t="n">
-        <v>0.001423374657830279</v>
-      </c>
-      <c r="G93" t="b">
-        <v>1</v>
-      </c>
-      <c r="H93" t="n">
-        <v>15</v>
+        <v>0.1138221155763901</v>
+      </c>
+      <c r="G93" t="n">
+        <v>0.03820127060687615</v>
+      </c>
+      <c r="H93" t="b">
+        <v>0</v>
+      </c>
+      <c r="I93" t="n">
+        <v>13</v>
+      </c>
+      <c r="J93" t="n">
+        <v>2380793071.2221</v>
       </c>
     </row>
     <row r="94">
@@ -3059,19 +3621,25 @@
         <v>2</v>
       </c>
       <c r="D94" t="n">
-        <v>588</v>
+        <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>6459932889.178885</v>
+        <v>1763342490.035267</v>
       </c>
       <c r="F94" t="n">
-        <v>0.001178374445034768</v>
-      </c>
-      <c r="G94" t="b">
-        <v>0</v>
-      </c>
-      <c r="H94" t="n">
-        <v>15</v>
+        <v>0.1307959977814262</v>
+      </c>
+      <c r="G94" t="n">
+        <v>0.04206436196355814</v>
+      </c>
+      <c r="H94" t="b">
+        <v>0</v>
+      </c>
+      <c r="I94" t="n">
+        <v>0</v>
+      </c>
+      <c r="J94" t="n">
+        <v>881671212.4481655</v>
       </c>
     </row>
     <row r="95">
@@ -3084,22 +3652,28 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D95" t="n">
-        <v>511</v>
+        <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>5122834483.859847</v>
+        <v>2377047311.929017</v>
       </c>
       <c r="F95" t="n">
-        <v>0.002649180442340216</v>
-      </c>
-      <c r="G95" t="b">
-        <v>0</v>
-      </c>
-      <c r="H95" t="n">
-        <v>11</v>
+        <v>0.0851871822838445</v>
+      </c>
+      <c r="G95" t="n">
+        <v>0.04944791429113259</v>
+      </c>
+      <c r="H95" t="b">
+        <v>0</v>
+      </c>
+      <c r="I95" t="n">
+        <v>10</v>
+      </c>
+      <c r="J95" t="n">
+        <v>1188523700.820731</v>
       </c>
     </row>
     <row r="96">
@@ -3112,22 +3686,28 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D96" t="n">
-        <v>520</v>
+        <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>9859367708.017097</v>
+        <v>2168968253.448752</v>
       </c>
       <c r="F96" t="n">
-        <v>0.002120053611369583</v>
-      </c>
-      <c r="G96" t="b">
-        <v>1</v>
-      </c>
-      <c r="H96" t="n">
-        <v>11</v>
+        <v>0.1054352713542191</v>
+      </c>
+      <c r="G96" t="n">
+        <v>0.03597464919209668</v>
+      </c>
+      <c r="H96" t="b">
+        <v>0</v>
+      </c>
+      <c r="I96" t="n">
+        <v>0</v>
+      </c>
+      <c r="J96" t="n">
+        <v>1084484095.521742</v>
       </c>
     </row>
     <row r="97">
@@ -3140,22 +3720,28 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D97" t="n">
-        <v>514</v>
+        <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>6079156202.092227</v>
+        <v>4877895661.058045</v>
       </c>
       <c r="F97" t="n">
-        <v>0.006004875961559853</v>
-      </c>
-      <c r="G97" t="b">
-        <v>0</v>
-      </c>
-      <c r="H97" t="n">
-        <v>11</v>
+        <v>0.1148354221398925</v>
+      </c>
+      <c r="G97" t="n">
+        <v>0.02795502848875438</v>
+      </c>
+      <c r="H97" t="b">
+        <v>0</v>
+      </c>
+      <c r="I97" t="n">
+        <v>14</v>
+      </c>
+      <c r="J97" t="n">
+        <v>2438947957.355817</v>
       </c>
     </row>
     <row r="98">
@@ -3168,22 +3754,28 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D98" t="n">
-        <v>616</v>
+        <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>6092201346.968247</v>
+        <v>2840383912.851698</v>
       </c>
       <c r="F98" t="n">
-        <v>0.003386798294593443</v>
-      </c>
-      <c r="G98" t="b">
-        <v>1</v>
-      </c>
-      <c r="H98" t="n">
-        <v>16</v>
+        <v>0.08827772345868125</v>
+      </c>
+      <c r="G98" t="n">
+        <v>0.02570663070237754</v>
+      </c>
+      <c r="H98" t="b">
+        <v>0</v>
+      </c>
+      <c r="I98" t="n">
+        <v>11</v>
+      </c>
+      <c r="J98" t="n">
+        <v>1420191930.139268</v>
       </c>
     </row>
     <row r="99">
@@ -3196,22 +3788,28 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D99" t="n">
-        <v>567</v>
+        <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>2526496842.090811</v>
+        <v>3268729474.028528</v>
       </c>
       <c r="F99" t="n">
-        <v>0.005539578208115015</v>
-      </c>
-      <c r="G99" t="b">
-        <v>0</v>
-      </c>
-      <c r="H99" t="n">
-        <v>0</v>
+        <v>0.1114271157472104</v>
+      </c>
+      <c r="G99" t="n">
+        <v>0.02975996938125756</v>
+      </c>
+      <c r="H99" t="b">
+        <v>1</v>
+      </c>
+      <c r="I99" t="n">
+        <v>12</v>
+      </c>
+      <c r="J99" t="n">
+        <v>1634364742.35748</v>
       </c>
     </row>
     <row r="100">
@@ -3227,19 +3825,25 @@
         <v>2</v>
       </c>
       <c r="D100" t="n">
-        <v>422</v>
+        <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>5488926366.625143</v>
+        <v>3219165249.094316</v>
       </c>
       <c r="F100" t="n">
-        <v>0.002732418220024603</v>
-      </c>
-      <c r="G100" t="b">
-        <v>0</v>
-      </c>
-      <c r="H100" t="n">
-        <v>4</v>
+        <v>0.1717078066210773</v>
+      </c>
+      <c r="G100" t="n">
+        <v>0.021893873151988</v>
+      </c>
+      <c r="H100" t="b">
+        <v>0</v>
+      </c>
+      <c r="I100" t="n">
+        <v>13</v>
+      </c>
+      <c r="J100" t="n">
+        <v>1609582632.725555</v>
       </c>
     </row>
     <row r="101">
@@ -3252,22 +3856,28 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D101" t="n">
-        <v>573</v>
+        <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>6179839472.466457</v>
+        <v>2494295320.636754</v>
       </c>
       <c r="F101" t="n">
-        <v>0.001726192906612731</v>
-      </c>
-      <c r="G101" t="b">
-        <v>0</v>
-      </c>
-      <c r="H101" t="n">
-        <v>14</v>
+        <v>0.1400060243644217</v>
+      </c>
+      <c r="G101" t="n">
+        <v>0.04112754883127426</v>
+      </c>
+      <c r="H101" t="b">
+        <v>0</v>
+      </c>
+      <c r="I101" t="n">
+        <v>18</v>
+      </c>
+      <c r="J101" t="n">
+        <v>1247147682.37447</v>
       </c>
     </row>
   </sheetData>

--- a/output/fit_clients/fit_round_43.xlsx
+++ b/output/fit_clients/fit_round_43.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J101"/>
+  <dimension ref="A1:H101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,16 +469,6 @@
           <t>isSelected</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>involvement_history</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>reward</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -490,28 +480,22 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>2343927336.159789</v>
+        <v>2180506946.334002</v>
       </c>
       <c r="F2" t="n">
-        <v>0.08564342784650648</v>
+        <v>0.0960689934272721</v>
       </c>
       <c r="G2" t="n">
-        <v>0.04082257807706682</v>
+        <v>0.0308776875545332</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J2" t="n">
-        <v>1171963709.821906</v>
       </c>
     </row>
     <row r="3">
@@ -524,28 +508,22 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>1976124727.220275</v>
+        <v>1926636489.858968</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1666994217876978</v>
+        <v>0.1504156224138799</v>
       </c>
       <c r="G3" t="n">
-        <v>0.03310594350340838</v>
+        <v>0.03592829956332939</v>
       </c>
       <c r="H3" t="b">
-        <v>0</v>
-      </c>
-      <c r="I3" t="n">
         <v>1</v>
-      </c>
-      <c r="J3" t="n">
-        <v>988062399.8180699</v>
       </c>
     </row>
     <row r="4">
@@ -558,28 +536,22 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>4981549667.865613</v>
+        <v>3976729902.305147</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1220335178662014</v>
+        <v>0.1530629202460465</v>
       </c>
       <c r="G4" t="n">
-        <v>0.03652380777822739</v>
+        <v>0.03452719137155341</v>
       </c>
       <c r="H4" t="b">
-        <v>1</v>
-      </c>
-      <c r="I4" t="n">
-        <v>15</v>
-      </c>
-      <c r="J4" t="n">
-        <v>2490774917.490571</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -592,28 +564,22 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>2898559920.046106</v>
+        <v>2780408440.052382</v>
       </c>
       <c r="F5" t="n">
-        <v>0.07632299394321783</v>
+        <v>0.09048122889484894</v>
       </c>
       <c r="G5" t="n">
-        <v>0.04195078626162758</v>
+        <v>0.03399545652218711</v>
       </c>
       <c r="H5" t="b">
         <v>0</v>
-      </c>
-      <c r="I5" t="n">
-        <v>17</v>
-      </c>
-      <c r="J5" t="n">
-        <v>1449280036.449594</v>
       </c>
     </row>
     <row r="6">
@@ -632,22 +598,16 @@
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2345571692.057121</v>
+        <v>2571521076.194815</v>
       </c>
       <c r="F6" t="n">
-        <v>0.127695402165402</v>
+        <v>0.113313502396813</v>
       </c>
       <c r="G6" t="n">
-        <v>0.03487301710836543</v>
+        <v>0.05668663351363471</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
-      </c>
-      <c r="I6" t="n">
-        <v>8</v>
-      </c>
-      <c r="J6" t="n">
-        <v>1172785838.072709</v>
       </c>
     </row>
     <row r="7">
@@ -660,28 +620,22 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2666044953.434752</v>
+        <v>2631751715.328085</v>
       </c>
       <c r="F7" t="n">
-        <v>0.08459150507469686</v>
+        <v>0.09059178218702002</v>
       </c>
       <c r="G7" t="n">
-        <v>0.0342754076825196</v>
+        <v>0.03833487311579364</v>
       </c>
       <c r="H7" t="b">
-        <v>1</v>
-      </c>
-      <c r="I7" t="n">
-        <v>13</v>
-      </c>
-      <c r="J7" t="n">
-        <v>1333022473.592693</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -694,28 +648,22 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>3917311155.995519</v>
+        <v>2676598169.799643</v>
       </c>
       <c r="F8" t="n">
-        <v>0.2145415405372695</v>
+        <v>0.1529989656817507</v>
       </c>
       <c r="G8" t="n">
-        <v>0.02232931186937992</v>
+        <v>0.02821947157777877</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
-      </c>
-      <c r="I8" t="n">
-        <v>14</v>
-      </c>
-      <c r="J8" t="n">
-        <v>1958655729.106479</v>
       </c>
     </row>
     <row r="9">
@@ -728,28 +676,22 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>1856869689.556149</v>
+        <v>2180005707.599455</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1601370785640476</v>
+        <v>0.1543326941406839</v>
       </c>
       <c r="G9" t="n">
-        <v>0.0339701837572246</v>
+        <v>0.03290362396212149</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="n">
-        <v>928434891.1048319</v>
       </c>
     </row>
     <row r="10">
@@ -762,28 +704,22 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>5464319313.555366</v>
+        <v>5234898751.787786</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1719769039002059</v>
+        <v>0.1565684928825482</v>
       </c>
       <c r="G10" t="n">
-        <v>0.03575786279139185</v>
+        <v>0.03659103142716801</v>
       </c>
       <c r="H10" t="b">
         <v>1</v>
-      </c>
-      <c r="I10" t="n">
-        <v>18</v>
-      </c>
-      <c r="J10" t="n">
-        <v>2732159791.884604</v>
       </c>
     </row>
     <row r="11">
@@ -796,28 +732,22 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>4113937720.847311</v>
+        <v>3808661829.537016</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1689094716763127</v>
+        <v>0.1225363704615987</v>
       </c>
       <c r="G11" t="n">
-        <v>0.03653545855188896</v>
+        <v>0.03174660994397387</v>
       </c>
       <c r="H11" t="b">
         <v>0</v>
-      </c>
-      <c r="I11" t="n">
-        <v>18</v>
-      </c>
-      <c r="J11" t="n">
-        <v>2056968880.902989</v>
       </c>
     </row>
     <row r="12">
@@ -830,28 +760,22 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2846763724.753891</v>
+        <v>2644128448.698184</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1897120523914169</v>
+        <v>0.1823040699950793</v>
       </c>
       <c r="G12" t="n">
-        <v>0.04401865470371569</v>
+        <v>0.05243008928309933</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
-      </c>
-      <c r="I12" t="n">
-        <v>15</v>
-      </c>
-      <c r="J12" t="n">
-        <v>1423381866.206452</v>
       </c>
     </row>
     <row r="13">
@@ -870,22 +794,16 @@
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>4066113839.303657</v>
+        <v>4738006354.729667</v>
       </c>
       <c r="F13" t="n">
-        <v>0.0623073112574954</v>
+        <v>0.07963293695042462</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02409002924302249</v>
+        <v>0.02889529584853871</v>
       </c>
       <c r="H13" t="b">
         <v>1</v>
-      </c>
-      <c r="I13" t="n">
-        <v>14</v>
-      </c>
-      <c r="J13" t="n">
-        <v>2033056971.065459</v>
       </c>
     </row>
     <row r="14">
@@ -904,22 +822,16 @@
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>3867725575.26829</v>
+        <v>3605766182.60199</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1713624336124563</v>
+        <v>0.1712618583570066</v>
       </c>
       <c r="G14" t="n">
-        <v>0.04363813858768967</v>
+        <v>0.04223399833944152</v>
       </c>
       <c r="H14" t="b">
         <v>1</v>
-      </c>
-      <c r="I14" t="n">
-        <v>13</v>
-      </c>
-      <c r="J14" t="n">
-        <v>1933862759.092878</v>
       </c>
     </row>
     <row r="15">
@@ -932,28 +844,22 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1611587507.379589</v>
+        <v>1761707353.707415</v>
       </c>
       <c r="F15" t="n">
-        <v>0.06584218126379209</v>
+        <v>0.1070554262065155</v>
       </c>
       <c r="G15" t="n">
-        <v>0.04182775334990411</v>
+        <v>0.04657616874755955</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
-      </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" t="n">
-        <v>805793864.3420316</v>
       </c>
     </row>
     <row r="16">
@@ -966,28 +872,22 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2573800657.241053</v>
+        <v>2622572695.72914</v>
       </c>
       <c r="F16" t="n">
-        <v>0.109075731584996</v>
+        <v>0.0811441909074197</v>
       </c>
       <c r="G16" t="n">
-        <v>0.05109900261240632</v>
+        <v>0.04794659271102465</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
-      </c>
-      <c r="I16" t="n">
-        <v>5</v>
-      </c>
-      <c r="J16" t="n">
-        <v>1286900352.681244</v>
       </c>
     </row>
     <row r="17">
@@ -1000,28 +900,22 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>5010568526.049057</v>
+        <v>3656563172.681967</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1530744569198538</v>
+        <v>0.128909026759684</v>
       </c>
       <c r="G17" t="n">
-        <v>0.03930078462958603</v>
+        <v>0.05242253316132373</v>
       </c>
       <c r="H17" t="b">
-        <v>1</v>
-      </c>
-      <c r="I17" t="n">
-        <v>12</v>
-      </c>
-      <c r="J17" t="n">
-        <v>2505284247.538346</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -1040,22 +934,16 @@
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>2948821533.368982</v>
+        <v>3509635730.291472</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1174077511994597</v>
+        <v>0.1613188226492479</v>
       </c>
       <c r="G18" t="n">
-        <v>0.02959023450350404</v>
+        <v>0.02919101296741857</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
-      </c>
-      <c r="I18" t="n">
-        <v>15</v>
-      </c>
-      <c r="J18" t="n">
-        <v>1474410800.474118</v>
       </c>
     </row>
     <row r="19">
@@ -1068,28 +956,22 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>1037872718.685935</v>
+        <v>1138012903.552808</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1279689393876431</v>
+        <v>0.1218076403911709</v>
       </c>
       <c r="G19" t="n">
-        <v>0.02076806374293856</v>
+        <v>0.02457650086471935</v>
       </c>
       <c r="H19" t="b">
-        <v>0</v>
-      </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
-      <c r="J19" t="n">
-        <v>518936397.638948</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20">
@@ -1102,28 +984,22 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2376816882.829329</v>
+        <v>2606947909.755291</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1515444926018167</v>
+        <v>0.1348316837018083</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02299700906935272</v>
+        <v>0.01960119124747742</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
-      </c>
-      <c r="I20" t="n">
-        <v>5</v>
-      </c>
-      <c r="J20" t="n">
-        <v>1188408427.472763</v>
       </c>
     </row>
     <row r="21">
@@ -1136,28 +1012,22 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>2506902776.546964</v>
+        <v>1994099527.215191</v>
       </c>
       <c r="F21" t="n">
-        <v>0.1026746865894384</v>
+        <v>0.08182029169038896</v>
       </c>
       <c r="G21" t="n">
-        <v>0.04036066109199387</v>
+        <v>0.03049303947655348</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
-      </c>
-      <c r="I21" t="n">
-        <v>5</v>
-      </c>
-      <c r="J21" t="n">
-        <v>1253451375.621311</v>
       </c>
     </row>
     <row r="22">
@@ -1176,22 +1046,16 @@
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>3528049664.0656</v>
+        <v>2723808679.034646</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1313895902657263</v>
+        <v>0.120840137850858</v>
       </c>
       <c r="G22" t="n">
-        <v>0.03462779390479221</v>
+        <v>0.04756520340108752</v>
       </c>
       <c r="H22" t="b">
-        <v>0</v>
-      </c>
-      <c r="I22" t="n">
-        <v>12</v>
-      </c>
-      <c r="J22" t="n">
-        <v>1764024861.780486</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23">
@@ -1210,22 +1074,16 @@
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1372350709.07338</v>
+        <v>1205080363.425992</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1782279387444832</v>
+        <v>0.1413796506593791</v>
       </c>
       <c r="G23" t="n">
-        <v>0.03308061102486369</v>
+        <v>0.05182325700559227</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
-      </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" t="n">
-        <v>686175361.8246667</v>
       </c>
     </row>
     <row r="24">
@@ -1238,28 +1096,22 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>3966098394.092573</v>
+        <v>3405469801.129898</v>
       </c>
       <c r="F24" t="n">
-        <v>0.09939717633546959</v>
+        <v>0.1238073567761434</v>
       </c>
       <c r="G24" t="n">
-        <v>0.02860410964492754</v>
+        <v>0.03174048972411336</v>
       </c>
       <c r="H24" t="b">
-        <v>1</v>
-      </c>
-      <c r="I24" t="n">
-        <v>12</v>
-      </c>
-      <c r="J24" t="n">
-        <v>1983049167.133789</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -1272,28 +1124,22 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>984966649.0276263</v>
+        <v>1417055169.068861</v>
       </c>
       <c r="F25" t="n">
-        <v>0.1168878457737922</v>
+        <v>0.09842101293984437</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02975495791381179</v>
+        <v>0.02446020914038487</v>
       </c>
       <c r="H25" t="b">
-        <v>0</v>
-      </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
-      <c r="J25" t="n">
-        <v>492483391.8108571</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26">
@@ -1312,22 +1158,16 @@
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1404485134.103683</v>
+        <v>1082045077.353578</v>
       </c>
       <c r="F26" t="n">
-        <v>0.07578529675228929</v>
+        <v>0.09588103119560053</v>
       </c>
       <c r="G26" t="n">
-        <v>0.03701884884833438</v>
+        <v>0.03330012480498293</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
-      </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
-      <c r="J26" t="n">
-        <v>702242638.029479</v>
       </c>
     </row>
     <row r="27">
@@ -1340,28 +1180,22 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>3933483335.772035</v>
+        <v>4327962801.112074</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1218064462237949</v>
+        <v>0.1301679406865749</v>
       </c>
       <c r="G27" t="n">
-        <v>0.02199414963185808</v>
+        <v>0.02048124021577626</v>
       </c>
       <c r="H27" t="b">
-        <v>1</v>
-      </c>
-      <c r="I27" t="n">
-        <v>9</v>
-      </c>
-      <c r="J27" t="n">
-        <v>1966741681.179847</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -1374,28 +1208,22 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>3321779758.090885</v>
+        <v>2908191629.6429</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1299144382953364</v>
+        <v>0.110535978784785</v>
       </c>
       <c r="G28" t="n">
-        <v>0.04151000283191169</v>
+        <v>0.04156040960281267</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
-      </c>
-      <c r="I28" t="n">
-        <v>14</v>
-      </c>
-      <c r="J28" t="n">
-        <v>1660889918.053008</v>
       </c>
     </row>
     <row r="29">
@@ -1408,28 +1236,22 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>3969237892.748796</v>
+        <v>4848942722.267133</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1283978435215177</v>
+        <v>0.1493728485573265</v>
       </c>
       <c r="G29" t="n">
-        <v>0.0450450081776748</v>
+        <v>0.03169016225840478</v>
       </c>
       <c r="H29" t="b">
         <v>0</v>
-      </c>
-      <c r="I29" t="n">
-        <v>19</v>
-      </c>
-      <c r="J29" t="n">
-        <v>1984618965.292157</v>
       </c>
     </row>
     <row r="30">
@@ -1442,28 +1264,22 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>1600554109.992071</v>
+        <v>1478721098.48239</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1394258407582389</v>
+        <v>0.1017079552257848</v>
       </c>
       <c r="G30" t="n">
-        <v>0.03192437951215403</v>
+        <v>0.03016432205850235</v>
       </c>
       <c r="H30" t="b">
-        <v>0</v>
-      </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
-      <c r="J30" t="n">
-        <v>800277046.8008602</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31">
@@ -1476,28 +1292,22 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>934262506.8017801</v>
+        <v>1137618648.399914</v>
       </c>
       <c r="F31" t="n">
-        <v>0.08701314091494058</v>
+        <v>0.08207537990544808</v>
       </c>
       <c r="G31" t="n">
-        <v>0.0357491663857319</v>
+        <v>0.03284426564191915</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
-      </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
-      <c r="J31" t="n">
-        <v>467131267.2310869</v>
       </c>
     </row>
     <row r="32">
@@ -1516,22 +1326,16 @@
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1438231765.74738</v>
+        <v>1713124783.653183</v>
       </c>
       <c r="F32" t="n">
-        <v>0.07264801120097587</v>
+        <v>0.1029363652042883</v>
       </c>
       <c r="G32" t="n">
-        <v>0.03177889589210441</v>
+        <v>0.03621401424834079</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
-      </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
-      <c r="J32" t="n">
-        <v>719115938.2787708</v>
       </c>
     </row>
     <row r="33">
@@ -1544,28 +1348,22 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2064507395.837973</v>
+        <v>2445703030.441338</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1648776801838742</v>
+        <v>0.1691461431359527</v>
       </c>
       <c r="G33" t="n">
-        <v>0.04245974450994368</v>
+        <v>0.05635015226366604</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
-      </c>
-      <c r="I33" t="n">
-        <v>12</v>
-      </c>
-      <c r="J33" t="n">
-        <v>1032253773.070133</v>
       </c>
     </row>
     <row r="34">
@@ -1578,28 +1376,22 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1567643960.352456</v>
+        <v>1433180015.844994</v>
       </c>
       <c r="F34" t="n">
-        <v>0.09009119119121579</v>
+        <v>0.09750268512668218</v>
       </c>
       <c r="G34" t="n">
-        <v>0.02041181650576638</v>
+        <v>0.02839332725984651</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
-      </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
-      <c r="J34" t="n">
-        <v>783821924.7570777</v>
       </c>
     </row>
     <row r="35">
@@ -1612,28 +1404,22 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>1019313978.957274</v>
+        <v>975809018.6813347</v>
       </c>
       <c r="F35" t="n">
-        <v>0.1098486933831219</v>
+        <v>0.07918266461306472</v>
       </c>
       <c r="G35" t="n">
-        <v>0.04521691628902003</v>
+        <v>0.02798283623295413</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
-      </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
-      <c r="J35" t="n">
-        <v>509657003.6788796</v>
       </c>
     </row>
     <row r="36">
@@ -1646,28 +1432,22 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2239020016.569484</v>
+        <v>2083464882.535652</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1515873126236993</v>
+        <v>0.1425046050187588</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02590618755186986</v>
+        <v>0.02112549024374085</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
-      </c>
-      <c r="I36" t="n">
-        <v>10</v>
-      </c>
-      <c r="J36" t="n">
-        <v>1119510051.040573</v>
       </c>
     </row>
     <row r="37">
@@ -1680,28 +1460,22 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2343137882.449907</v>
+        <v>2696327505.730299</v>
       </c>
       <c r="F37" t="n">
-        <v>0.07544330176525593</v>
+        <v>0.106411608826811</v>
       </c>
       <c r="G37" t="n">
-        <v>0.03141578175360554</v>
+        <v>0.02710443021784828</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
-      </c>
-      <c r="I37" t="n">
-        <v>11</v>
-      </c>
-      <c r="J37" t="n">
-        <v>1171569015.556558</v>
       </c>
     </row>
     <row r="38">
@@ -1714,28 +1488,22 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1348402841.371487</v>
+        <v>1610469773.210964</v>
       </c>
       <c r="F38" t="n">
-        <v>0.1025438099564533</v>
+        <v>0.08876222611126779</v>
       </c>
       <c r="G38" t="n">
-        <v>0.02905977630527934</v>
+        <v>0.0372725945658556</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
-      </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
-      <c r="J38" t="n">
-        <v>674201491.1703682</v>
       </c>
     </row>
     <row r="39">
@@ -1748,28 +1516,22 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1928845357.432254</v>
+        <v>1483811070.029727</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1434305321611989</v>
+        <v>0.161643460511678</v>
       </c>
       <c r="G39" t="n">
-        <v>0.02565229323765456</v>
+        <v>0.02672047804637075</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
-      </c>
-      <c r="I39" t="n">
-        <v>0</v>
-      </c>
-      <c r="J39" t="n">
-        <v>964422683.9003732</v>
       </c>
     </row>
     <row r="40">
@@ -1782,28 +1544,22 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1149596868.594152</v>
+        <v>1597986445.530729</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1234301813962211</v>
+        <v>0.1576551961576355</v>
       </c>
       <c r="G40" t="n">
-        <v>0.04020729939248215</v>
+        <v>0.03901450113152542</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
-      </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
-      <c r="J40" t="n">
-        <v>574798488.0869422</v>
       </c>
     </row>
     <row r="41">
@@ -1816,28 +1572,22 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2025456807.756047</v>
+        <v>1784547799.244435</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1650570590462891</v>
+        <v>0.1244210746884351</v>
       </c>
       <c r="G41" t="n">
-        <v>0.04170906797508175</v>
+        <v>0.04673622763792906</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
-      </c>
-      <c r="I41" t="n">
-        <v>12</v>
-      </c>
-      <c r="J41" t="n">
-        <v>1012728475.412342</v>
       </c>
     </row>
     <row r="42">
@@ -1850,28 +1600,22 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>2654443973.25834</v>
+        <v>4038983402.220275</v>
       </c>
       <c r="F42" t="n">
-        <v>0.0813782675555927</v>
+        <v>0.09799651427729417</v>
       </c>
       <c r="G42" t="n">
-        <v>0.03258916841040099</v>
+        <v>0.03780691259544363</v>
       </c>
       <c r="H42" t="b">
         <v>0</v>
-      </c>
-      <c r="I42" t="n">
-        <v>14</v>
-      </c>
-      <c r="J42" t="n">
-        <v>1327221923.06095</v>
       </c>
     </row>
     <row r="43">
@@ -1890,22 +1634,16 @@
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2846681119.037285</v>
+        <v>2882513555.033882</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1962756200814591</v>
+        <v>0.2045233158632869</v>
       </c>
       <c r="G43" t="n">
-        <v>0.02267746404841592</v>
+        <v>0.02006912285103484</v>
       </c>
       <c r="H43" t="b">
-        <v>1</v>
-      </c>
-      <c r="I43" t="n">
-        <v>14</v>
-      </c>
-      <c r="J43" t="n">
-        <v>1423340573.183878</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -1918,28 +1656,22 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>1589196318.53692</v>
+        <v>1937244745.783624</v>
       </c>
       <c r="F44" t="n">
-        <v>0.09843074746583315</v>
+        <v>0.09344177146841526</v>
       </c>
       <c r="G44" t="n">
-        <v>0.02963339441125061</v>
+        <v>0.03537662901059174</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
-      </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
-      <c r="J44" t="n">
-        <v>794598183.508476</v>
       </c>
     </row>
     <row r="45">
@@ -1958,22 +1690,16 @@
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>1686630197.896164</v>
+        <v>2005024967.190026</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1830587190765492</v>
+        <v>0.1324269563664833</v>
       </c>
       <c r="G45" t="n">
-        <v>0.03657932004389347</v>
+        <v>0.03511831696588084</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
-      </c>
-      <c r="I45" t="n">
-        <v>0</v>
-      </c>
-      <c r="J45" t="n">
-        <v>843315058.0933822</v>
       </c>
     </row>
     <row r="46">
@@ -1986,28 +1712,22 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>5524291248.155935</v>
+        <v>4829621985.088874</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1710809505014878</v>
+        <v>0.1435383226877266</v>
       </c>
       <c r="G46" t="n">
-        <v>0.04642197519820517</v>
+        <v>0.04876157305421398</v>
       </c>
       <c r="H46" t="b">
-        <v>1</v>
-      </c>
-      <c r="I46" t="n">
-        <v>15</v>
-      </c>
-      <c r="J46" t="n">
-        <v>2762145680.720453</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47">
@@ -2020,28 +1740,22 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>4699752702.539762</v>
+        <v>4085910289.625451</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1299392316460914</v>
+        <v>0.1966310597680682</v>
       </c>
       <c r="G47" t="n">
-        <v>0.03862526642421631</v>
+        <v>0.04703304530957164</v>
       </c>
       <c r="H47" t="b">
-        <v>1</v>
-      </c>
-      <c r="I47" t="n">
-        <v>11</v>
-      </c>
-      <c r="J47" t="n">
-        <v>2349876389.942618</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48">
@@ -2054,28 +1768,22 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>3555337036.243207</v>
+        <v>3951645261.032198</v>
       </c>
       <c r="F48" t="n">
-        <v>0.07421800750005071</v>
+        <v>0.07389349408234321</v>
       </c>
       <c r="G48" t="n">
-        <v>0.03273443791251367</v>
+        <v>0.03634925206663714</v>
       </c>
       <c r="H48" t="b">
         <v>0</v>
-      </c>
-      <c r="I48" t="n">
-        <v>14</v>
-      </c>
-      <c r="J48" t="n">
-        <v>1777668578.172528</v>
       </c>
     </row>
     <row r="49">
@@ -2094,22 +1802,16 @@
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1584850640.080309</v>
+        <v>1851495857.408782</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1424631355092402</v>
+        <v>0.1561234744594418</v>
       </c>
       <c r="G49" t="n">
-        <v>0.03318072919482965</v>
+        <v>0.03440049787511728</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
-      </c>
-      <c r="I49" t="n">
-        <v>0</v>
-      </c>
-      <c r="J49" t="n">
-        <v>792425338.7020886</v>
       </c>
     </row>
     <row r="50">
@@ -2128,22 +1830,16 @@
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>2616009204.797318</v>
+        <v>2959792923.546521</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1704514169588151</v>
+        <v>0.1239425242245796</v>
       </c>
       <c r="G50" t="n">
-        <v>0.04548386720031446</v>
+        <v>0.04944170781968485</v>
       </c>
       <c r="H50" t="b">
         <v>0</v>
-      </c>
-      <c r="I50" t="n">
-        <v>15</v>
-      </c>
-      <c r="J50" t="n">
-        <v>1308004689.414385</v>
       </c>
     </row>
     <row r="51">
@@ -2156,28 +1852,22 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1001287213.777298</v>
+        <v>1327099407.777521</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1660433682992703</v>
+        <v>0.1870124266404488</v>
       </c>
       <c r="G51" t="n">
-        <v>0.04737066451314517</v>
+        <v>0.03838032168416095</v>
       </c>
       <c r="H51" t="b">
-        <v>0</v>
-      </c>
-      <c r="I51" t="n">
-        <v>0</v>
-      </c>
-      <c r="J51" t="n">
-        <v>500643690.4879328</v>
+        <v>1</v>
       </c>
     </row>
     <row r="52">
@@ -2190,28 +1880,22 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>4451898181.563859</v>
+        <v>4720549124.172088</v>
       </c>
       <c r="F52" t="n">
-        <v>0.09559544644940793</v>
+        <v>0.1067895817721833</v>
       </c>
       <c r="G52" t="n">
-        <v>0.05568204305031086</v>
+        <v>0.05876001143440635</v>
       </c>
       <c r="H52" t="b">
         <v>0</v>
-      </c>
-      <c r="I52" t="n">
-        <v>18</v>
-      </c>
-      <c r="J52" t="n">
-        <v>2225949120.505251</v>
       </c>
     </row>
     <row r="53">
@@ -2224,28 +1908,22 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>3197389613.281287</v>
+        <v>3082344884.97799</v>
       </c>
       <c r="F53" t="n">
-        <v>0.2008896017908603</v>
+        <v>0.1436382352935487</v>
       </c>
       <c r="G53" t="n">
-        <v>0.02174097497453466</v>
+        <v>0.02332474106429406</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
-      </c>
-      <c r="I53" t="n">
-        <v>12</v>
-      </c>
-      <c r="J53" t="n">
-        <v>1598694825.308938</v>
       </c>
     </row>
     <row r="54">
@@ -2264,22 +1942,16 @@
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>3250340215.556563</v>
+        <v>3789472308.417603</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1114757287243415</v>
+        <v>0.1037201175522665</v>
       </c>
       <c r="G54" t="n">
-        <v>0.05163581644021951</v>
+        <v>0.04679252980191695</v>
       </c>
       <c r="H54" t="b">
         <v>0</v>
-      </c>
-      <c r="I54" t="n">
-        <v>14</v>
-      </c>
-      <c r="J54" t="n">
-        <v>1625170112.870889</v>
       </c>
     </row>
     <row r="55">
@@ -2292,28 +1964,22 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>3816062322.644804</v>
+        <v>4018607769.380855</v>
       </c>
       <c r="F55" t="n">
-        <v>0.2192046285276344</v>
+        <v>0.1362561148619145</v>
       </c>
       <c r="G55" t="n">
-        <v>0.02540633930554457</v>
+        <v>0.02770032162294738</v>
       </c>
       <c r="H55" t="b">
         <v>0</v>
-      </c>
-      <c r="I55" t="n">
-        <v>11</v>
-      </c>
-      <c r="J55" t="n">
-        <v>1908031127.967589</v>
       </c>
     </row>
     <row r="56">
@@ -2332,22 +1998,16 @@
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1754871721.887054</v>
+        <v>1747294634.650489</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1470785098839122</v>
+        <v>0.1247801305806303</v>
       </c>
       <c r="G56" t="n">
-        <v>0.04661344335434048</v>
+        <v>0.05252527375422096</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
-      </c>
-      <c r="I56" t="n">
-        <v>0</v>
-      </c>
-      <c r="J56" t="n">
-        <v>877435865.3295888</v>
       </c>
     </row>
     <row r="57">
@@ -2360,28 +2020,22 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>3156112208.584576</v>
+        <v>4175468627.915228</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1557230748617127</v>
+        <v>0.1165324141216845</v>
       </c>
       <c r="G57" t="n">
-        <v>0.02015910290346037</v>
+        <v>0.01979782784379425</v>
       </c>
       <c r="H57" t="b">
         <v>0</v>
-      </c>
-      <c r="I57" t="n">
-        <v>14</v>
-      </c>
-      <c r="J57" t="n">
-        <v>1578056121.648944</v>
       </c>
     </row>
     <row r="58">
@@ -2400,22 +2054,16 @@
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1841598726.536366</v>
+        <v>1182761068.18827</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1301630026159508</v>
+        <v>0.1892707775490783</v>
       </c>
       <c r="G58" t="n">
-        <v>0.03674278884527985</v>
+        <v>0.02448959053282411</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
-      </c>
-      <c r="I58" t="n">
-        <v>0</v>
-      </c>
-      <c r="J58" t="n">
-        <v>920799363.0908805</v>
       </c>
     </row>
     <row r="59">
@@ -2428,28 +2076,22 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>4832824271.667133</v>
+        <v>4774938913.711338</v>
       </c>
       <c r="F59" t="n">
-        <v>0.08185263574748777</v>
+        <v>0.08704261108014988</v>
       </c>
       <c r="G59" t="n">
-        <v>0.04151327818533884</v>
+        <v>0.03364217114968133</v>
       </c>
       <c r="H59" t="b">
-        <v>1</v>
-      </c>
-      <c r="I59" t="n">
-        <v>11</v>
-      </c>
-      <c r="J59" t="n">
-        <v>2416412071.442733</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60">
@@ -2462,28 +2104,22 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>2994697698.129821</v>
+        <v>3537195798.940688</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1833871180809319</v>
+        <v>0.1514507755019927</v>
       </c>
       <c r="G60" t="n">
-        <v>0.03332547492536054</v>
+        <v>0.02764654050050038</v>
       </c>
       <c r="H60" t="b">
-        <v>1</v>
-      </c>
-      <c r="I60" t="n">
-        <v>13</v>
-      </c>
-      <c r="J60" t="n">
-        <v>1497348918.706919</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61">
@@ -2496,28 +2132,22 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>2213108593.775383</v>
+        <v>3273116826.136093</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1793277549932171</v>
+        <v>0.1448790388283873</v>
       </c>
       <c r="G61" t="n">
-        <v>0.02637516125531277</v>
+        <v>0.02386530957751183</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
-      </c>
-      <c r="I61" t="n">
-        <v>14</v>
-      </c>
-      <c r="J61" t="n">
-        <v>1106554351.416688</v>
       </c>
     </row>
     <row r="62">
@@ -2536,22 +2166,16 @@
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1664849206.273672</v>
+        <v>1747224432.325271</v>
       </c>
       <c r="F62" t="n">
-        <v>0.129189719799104</v>
+        <v>0.1300189265862029</v>
       </c>
       <c r="G62" t="n">
-        <v>0.03416310927976105</v>
+        <v>0.04835603579425677</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
-      </c>
-      <c r="I62" t="n">
-        <v>0</v>
-      </c>
-      <c r="J62" t="n">
-        <v>832424610.7546356</v>
       </c>
     </row>
     <row r="63">
@@ -2564,28 +2188,22 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>5121278686.092595</v>
+        <v>3942852567.716932</v>
       </c>
       <c r="F63" t="n">
-        <v>0.07060303955997541</v>
+        <v>0.07468913046330633</v>
       </c>
       <c r="G63" t="n">
-        <v>0.04572731382894639</v>
+        <v>0.02961941991618542</v>
       </c>
       <c r="H63" t="b">
         <v>0</v>
-      </c>
-      <c r="I63" t="n">
-        <v>12</v>
-      </c>
-      <c r="J63" t="n">
-        <v>2560639355.242492</v>
       </c>
     </row>
     <row r="64">
@@ -2598,28 +2216,22 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>4281295874.428078</v>
+        <v>3591138372.637317</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1643650530519793</v>
+        <v>0.1887238630823271</v>
       </c>
       <c r="G64" t="n">
-        <v>0.03430735298594397</v>
+        <v>0.02729667707548043</v>
       </c>
       <c r="H64" t="b">
-        <v>1</v>
-      </c>
-      <c r="I64" t="n">
-        <v>13</v>
-      </c>
-      <c r="J64" t="n">
-        <v>2140647992.711387</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65">
@@ -2638,22 +2250,16 @@
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>5733181544.065477</v>
+        <v>4348936292.630802</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1512177440736532</v>
+        <v>0.1265738135545439</v>
       </c>
       <c r="G65" t="n">
-        <v>0.02545756367721128</v>
+        <v>0.02397485174048553</v>
       </c>
       <c r="H65" t="b">
-        <v>1</v>
-      </c>
-      <c r="I65" t="n">
-        <v>15</v>
-      </c>
-      <c r="J65" t="n">
-        <v>2866590687.028431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66">
@@ -2666,28 +2272,22 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>5276064600.618678</v>
+        <v>3554869408.450285</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1200208820908645</v>
+        <v>0.1189257020896485</v>
       </c>
       <c r="G66" t="n">
-        <v>0.04863765436723796</v>
+        <v>0.04182776136511513</v>
       </c>
       <c r="H66" t="b">
-        <v>1</v>
-      </c>
-      <c r="I66" t="n">
-        <v>12</v>
-      </c>
-      <c r="J66" t="n">
-        <v>2638032342.104556</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67">
@@ -2700,28 +2300,22 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>2794203113.780628</v>
+        <v>2905693807.690285</v>
       </c>
       <c r="F67" t="n">
-        <v>0.1005963317369237</v>
+        <v>0.1001075345397034</v>
       </c>
       <c r="G67" t="n">
-        <v>0.03845872124896095</v>
+        <v>0.04303381085521193</v>
       </c>
       <c r="H67" t="b">
-        <v>1</v>
-      </c>
-      <c r="I67" t="n">
-        <v>13</v>
-      </c>
-      <c r="J67" t="n">
-        <v>1397101592.439997</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68">
@@ -2734,28 +2328,22 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>5393542460.201324</v>
+        <v>4222889110.083623</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1106757119031958</v>
+        <v>0.1390295974054259</v>
       </c>
       <c r="G68" t="n">
-        <v>0.04600574747435088</v>
+        <v>0.05165226331772238</v>
       </c>
       <c r="H68" t="b">
-        <v>1</v>
-      </c>
-      <c r="I68" t="n">
-        <v>13</v>
-      </c>
-      <c r="J68" t="n">
-        <v>2696771310.180892</v>
+        <v>0</v>
       </c>
     </row>
     <row r="69">
@@ -2774,22 +2362,16 @@
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>1588156745.121551</v>
+        <v>1885468081.103956</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1819881602013521</v>
+        <v>0.1731913915087497</v>
       </c>
       <c r="G69" t="n">
-        <v>0.04988412191552663</v>
+        <v>0.05188927516008545</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
-      </c>
-      <c r="I69" t="n">
-        <v>0</v>
-      </c>
-      <c r="J69" t="n">
-        <v>794078324.0980662</v>
       </c>
     </row>
     <row r="70">
@@ -2802,28 +2384,22 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>2896316833.753152</v>
+        <v>2244655007.161292</v>
       </c>
       <c r="F70" t="n">
-        <v>0.07162035506269947</v>
+        <v>0.06385149692562711</v>
       </c>
       <c r="G70" t="n">
-        <v>0.04483066795943403</v>
+        <v>0.0406804748770738</v>
       </c>
       <c r="H70" t="b">
-        <v>0</v>
-      </c>
-      <c r="I70" t="n">
-        <v>13</v>
-      </c>
-      <c r="J70" t="n">
-        <v>1448158386.975248</v>
+        <v>1</v>
       </c>
     </row>
     <row r="71">
@@ -2836,28 +2412,22 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>3509836747.901418</v>
+        <v>4756748174.711276</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1469625614747731</v>
+        <v>0.1581253000011572</v>
       </c>
       <c r="G71" t="n">
-        <v>0.02312718934701832</v>
+        <v>0.03222918036135981</v>
       </c>
       <c r="H71" t="b">
         <v>0</v>
-      </c>
-      <c r="I71" t="n">
-        <v>16</v>
-      </c>
-      <c r="J71" t="n">
-        <v>1754918368.26869</v>
       </c>
     </row>
     <row r="72">
@@ -2870,28 +2440,22 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>1903790876.922491</v>
+        <v>1539620381.257465</v>
       </c>
       <c r="F72" t="n">
-        <v>0.09362901632605898</v>
+        <v>0.07348397593404017</v>
       </c>
       <c r="G72" t="n">
-        <v>0.03667161614920317</v>
+        <v>0.0472114922064376</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
-      </c>
-      <c r="I72" t="n">
-        <v>0</v>
-      </c>
-      <c r="J72" t="n">
-        <v>951895400.1505398</v>
       </c>
     </row>
     <row r="73">
@@ -2904,28 +2468,22 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>3068590996.461464</v>
+        <v>2589964046.771195</v>
       </c>
       <c r="F73" t="n">
-        <v>0.07934838207184768</v>
+        <v>0.08363001322529331</v>
       </c>
       <c r="G73" t="n">
-        <v>0.04587921530552037</v>
+        <v>0.04865719256642499</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
-      </c>
-      <c r="I73" t="n">
-        <v>17</v>
-      </c>
-      <c r="J73" t="n">
-        <v>1534295487.785963</v>
       </c>
     </row>
     <row r="74">
@@ -2938,28 +2496,22 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>3713395355.590926</v>
+        <v>3089382456.564964</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1674851014953335</v>
+        <v>0.1769822402806452</v>
       </c>
       <c r="G74" t="n">
-        <v>0.0226810049548445</v>
+        <v>0.02352204474904487</v>
       </c>
       <c r="H74" t="b">
         <v>0</v>
-      </c>
-      <c r="I74" t="n">
-        <v>15</v>
-      </c>
-      <c r="J74" t="n">
-        <v>1856697681.348495</v>
       </c>
     </row>
     <row r="75">
@@ -2978,22 +2530,16 @@
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>2421456726.089251</v>
+        <v>2331623861.933076</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1620188904760712</v>
+        <v>0.1425002499202304</v>
       </c>
       <c r="G75" t="n">
-        <v>0.03743356068172556</v>
+        <v>0.02446355848087647</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
-      </c>
-      <c r="I75" t="n">
-        <v>0</v>
-      </c>
-      <c r="J75" t="n">
-        <v>1210728287.526596</v>
       </c>
     </row>
     <row r="76">
@@ -3012,22 +2558,16 @@
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>5200470866.854396</v>
+        <v>5237794264.574978</v>
       </c>
       <c r="F76" t="n">
-        <v>0.1067480371878963</v>
+        <v>0.1058282283236413</v>
       </c>
       <c r="G76" t="n">
-        <v>0.03424959914105611</v>
+        <v>0.02908533485788256</v>
       </c>
       <c r="H76" t="b">
         <v>0</v>
-      </c>
-      <c r="I76" t="n">
-        <v>9</v>
-      </c>
-      <c r="J76" t="n">
-        <v>2600235468.362737</v>
       </c>
     </row>
     <row r="77">
@@ -3040,28 +2580,22 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>2261448344.302361</v>
+        <v>1766806132.62549</v>
       </c>
       <c r="F77" t="n">
-        <v>0.163873122203406</v>
+        <v>0.1397225139201443</v>
       </c>
       <c r="G77" t="n">
-        <v>0.02905824785495161</v>
+        <v>0.02270340738540019</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
-      </c>
-      <c r="I77" t="n">
-        <v>0</v>
-      </c>
-      <c r="J77" t="n">
-        <v>1130724272.159388</v>
       </c>
     </row>
     <row r="78">
@@ -3074,28 +2608,22 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>3876968155.78923</v>
+        <v>2932124348.709693</v>
       </c>
       <c r="F78" t="n">
-        <v>0.08472891312468496</v>
+        <v>0.1197041439949603</v>
       </c>
       <c r="G78" t="n">
-        <v>0.036669896517377</v>
+        <v>0.04740047459607478</v>
       </c>
       <c r="H78" t="b">
         <v>0</v>
-      </c>
-      <c r="I78" t="n">
-        <v>15</v>
-      </c>
-      <c r="J78" t="n">
-        <v>1938484052.235141</v>
       </c>
     </row>
     <row r="79">
@@ -3108,28 +2636,22 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1489344227.631877</v>
+        <v>1394805588.516811</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1333979903072335</v>
+        <v>0.1179059292978265</v>
       </c>
       <c r="G79" t="n">
-        <v>0.02742441051752351</v>
+        <v>0.02742419175685367</v>
       </c>
       <c r="H79" t="b">
-        <v>0</v>
-      </c>
-      <c r="I79" t="n">
-        <v>0</v>
-      </c>
-      <c r="J79" t="n">
-        <v>744672146.0394995</v>
+        <v>1</v>
       </c>
     </row>
     <row r="80">
@@ -3142,28 +2664,22 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>4588129923.043079</v>
+        <v>5597748975.74724</v>
       </c>
       <c r="F80" t="n">
-        <v>0.070768917186283</v>
+        <v>0.1050933522799254</v>
       </c>
       <c r="G80" t="n">
-        <v>0.02883737760817135</v>
+        <v>0.03756534954552177</v>
       </c>
       <c r="H80" t="b">
         <v>0</v>
-      </c>
-      <c r="I80" t="n">
-        <v>9</v>
-      </c>
-      <c r="J80" t="n">
-        <v>2294064990.090691</v>
       </c>
     </row>
     <row r="81">
@@ -3182,22 +2698,16 @@
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>4045572960.960159</v>
+        <v>4164157287.513639</v>
       </c>
       <c r="F81" t="n">
-        <v>0.1201174284129219</v>
+        <v>0.1357914872680091</v>
       </c>
       <c r="G81" t="n">
-        <v>0.02711663107562068</v>
+        <v>0.03244895195690091</v>
       </c>
       <c r="H81" t="b">
         <v>0</v>
-      </c>
-      <c r="I81" t="n">
-        <v>9</v>
-      </c>
-      <c r="J81" t="n">
-        <v>2022786445.209543</v>
       </c>
     </row>
     <row r="82">
@@ -3210,28 +2720,22 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>4640384295.81131</v>
+        <v>5513445023.16002</v>
       </c>
       <c r="F82" t="n">
-        <v>0.2031570973715588</v>
+        <v>0.1489075351504349</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02344028364040692</v>
+        <v>0.01833372632225895</v>
       </c>
       <c r="H82" t="b">
         <v>0</v>
-      </c>
-      <c r="I82" t="n">
-        <v>15</v>
-      </c>
-      <c r="J82" t="n">
-        <v>2320192151.765025</v>
       </c>
     </row>
     <row r="83">
@@ -3244,28 +2748,22 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>2014766485.415205</v>
+        <v>1517731591.563645</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1115291659761824</v>
+        <v>0.1289395590236707</v>
       </c>
       <c r="G83" t="n">
-        <v>0.03842032855857819</v>
+        <v>0.03002515597245236</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
-      </c>
-      <c r="I83" t="n">
-        <v>0</v>
-      </c>
-      <c r="J83" t="n">
-        <v>1007383229.730641</v>
       </c>
     </row>
     <row r="84">
@@ -3278,28 +2776,22 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>2317555164.239296</v>
+        <v>2303770565.220933</v>
       </c>
       <c r="F84" t="n">
-        <v>0.09899384492066304</v>
+        <v>0.1084108525888925</v>
       </c>
       <c r="G84" t="n">
-        <v>0.04078120877567926</v>
+        <v>0.04437288288544997</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
-      </c>
-      <c r="I84" t="n">
-        <v>0</v>
-      </c>
-      <c r="J84" t="n">
-        <v>1158777540.465044</v>
       </c>
     </row>
     <row r="85">
@@ -3312,28 +2804,22 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>3522007979.16656</v>
+        <v>2867620241.360585</v>
       </c>
       <c r="F85" t="n">
-        <v>0.177367558599202</v>
+        <v>0.1153969661278007</v>
       </c>
       <c r="G85" t="n">
-        <v>0.0445445482648365</v>
+        <v>0.05217979598504884</v>
       </c>
       <c r="H85" t="b">
         <v>0</v>
-      </c>
-      <c r="I85" t="n">
-        <v>17</v>
-      </c>
-      <c r="J85" t="n">
-        <v>1761004107.203564</v>
       </c>
     </row>
     <row r="86">
@@ -3346,28 +2832,22 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>1914288052.353429</v>
+        <v>1802299443.487427</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1060031195547135</v>
+        <v>0.1435789767170951</v>
       </c>
       <c r="G86" t="n">
-        <v>0.0249278159947809</v>
+        <v>0.01761395311855703</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
-      </c>
-      <c r="I86" t="n">
-        <v>4</v>
-      </c>
-      <c r="J86" t="n">
-        <v>957144041.7082515</v>
       </c>
     </row>
     <row r="87">
@@ -3380,28 +2860,22 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1069340130.593904</v>
+        <v>922251259.2621551</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1613534176854183</v>
+        <v>0.1805535661519173</v>
       </c>
       <c r="G87" t="n">
-        <v>0.02740701821126475</v>
+        <v>0.03807840946006493</v>
       </c>
       <c r="H87" t="b">
-        <v>0</v>
-      </c>
-      <c r="I87" t="n">
-        <v>0</v>
-      </c>
-      <c r="J87" t="n">
-        <v>534670087.2400686</v>
+        <v>1</v>
       </c>
     </row>
     <row r="88">
@@ -3420,22 +2894,16 @@
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>2967369327.943684</v>
+        <v>2515367090.885749</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1608419080642068</v>
+        <v>0.177158042836967</v>
       </c>
       <c r="G88" t="n">
-        <v>0.02545566285790045</v>
+        <v>0.02830188096944552</v>
       </c>
       <c r="H88" t="b">
         <v>1</v>
-      </c>
-      <c r="I88" t="n">
-        <v>16</v>
-      </c>
-      <c r="J88" t="n">
-        <v>1483684691.038062</v>
       </c>
     </row>
     <row r="89">
@@ -3448,28 +2916,22 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>3480597148.233807</v>
+        <v>2951249785.605403</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1137737650750875</v>
+        <v>0.1591840519334335</v>
       </c>
       <c r="G89" t="n">
-        <v>0.03254419462583854</v>
+        <v>0.03341502062089457</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
-      </c>
-      <c r="I89" t="n">
-        <v>15</v>
-      </c>
-      <c r="J89" t="n">
-        <v>1740298576.829416</v>
       </c>
     </row>
     <row r="90">
@@ -3488,22 +2950,16 @@
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>2083306332.586386</v>
+        <v>1995393222.089874</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1154943596011327</v>
+        <v>0.09675242050671282</v>
       </c>
       <c r="G90" t="n">
-        <v>0.05059056394298782</v>
+        <v>0.0523353556140885</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
-      </c>
-      <c r="I90" t="n">
-        <v>0</v>
-      </c>
-      <c r="J90" t="n">
-        <v>1041653251.636961</v>
       </c>
     </row>
     <row r="91">
@@ -3516,28 +2972,22 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1871555420.989715</v>
+        <v>1774170057.474561</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1391868597800758</v>
+        <v>0.1292059088401485</v>
       </c>
       <c r="G91" t="n">
-        <v>0.03894447716291154</v>
+        <v>0.05692310701197541</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
-      </c>
-      <c r="I91" t="n">
-        <v>0</v>
-      </c>
-      <c r="J91" t="n">
-        <v>935777699.715539</v>
       </c>
     </row>
     <row r="92">
@@ -3550,28 +3000,22 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>1909099660.794782</v>
+        <v>1860869006.989222</v>
       </c>
       <c r="F92" t="n">
-        <v>0.1100291981576613</v>
+        <v>0.09907645166036057</v>
       </c>
       <c r="G92" t="n">
-        <v>0.0307747418147434</v>
+        <v>0.04207117588378367</v>
       </c>
       <c r="H92" t="b">
-        <v>0</v>
-      </c>
-      <c r="I92" t="n">
-        <v>12</v>
-      </c>
-      <c r="J92" t="n">
-        <v>954549769.5159069</v>
+        <v>1</v>
       </c>
     </row>
     <row r="93">
@@ -3584,28 +3028,22 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>4761586240.031987</v>
+        <v>5022150847.024253</v>
       </c>
       <c r="F93" t="n">
-        <v>0.1138221155763901</v>
+        <v>0.1332096161564655</v>
       </c>
       <c r="G93" t="n">
-        <v>0.03820127060687615</v>
+        <v>0.03472199059083434</v>
       </c>
       <c r="H93" t="b">
-        <v>0</v>
-      </c>
-      <c r="I93" t="n">
-        <v>13</v>
-      </c>
-      <c r="J93" t="n">
-        <v>2380793071.2221</v>
+        <v>1</v>
       </c>
     </row>
     <row r="94">
@@ -3618,28 +3056,22 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>1763342490.035267</v>
+        <v>2428183461.913481</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1307959977814262</v>
+        <v>0.160405522185599</v>
       </c>
       <c r="G94" t="n">
-        <v>0.04206436196355814</v>
+        <v>0.0262269158957044</v>
       </c>
       <c r="H94" t="b">
-        <v>0</v>
-      </c>
-      <c r="I94" t="n">
-        <v>0</v>
-      </c>
-      <c r="J94" t="n">
-        <v>881671212.4481655</v>
+        <v>1</v>
       </c>
     </row>
     <row r="95">
@@ -3658,22 +3090,16 @@
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2377047311.929017</v>
+        <v>2652749521.703461</v>
       </c>
       <c r="F95" t="n">
-        <v>0.0851871822838445</v>
+        <v>0.09656052464343051</v>
       </c>
       <c r="G95" t="n">
-        <v>0.04944791429113259</v>
+        <v>0.03676884476911441</v>
       </c>
       <c r="H95" t="b">
-        <v>0</v>
-      </c>
-      <c r="I95" t="n">
-        <v>10</v>
-      </c>
-      <c r="J95" t="n">
-        <v>1188523700.820731</v>
+        <v>1</v>
       </c>
     </row>
     <row r="96">
@@ -3686,28 +3112,22 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>2168968253.448752</v>
+        <v>2376520997.968175</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1054352713542191</v>
+        <v>0.1311944057510633</v>
       </c>
       <c r="G96" t="n">
-        <v>0.03597464919209668</v>
+        <v>0.04720401813916106</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
-      </c>
-      <c r="I96" t="n">
-        <v>0</v>
-      </c>
-      <c r="J96" t="n">
-        <v>1084484095.521742</v>
       </c>
     </row>
     <row r="97">
@@ -3720,28 +3140,22 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>4877895661.058045</v>
+        <v>4144721106.46128</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1148354221398925</v>
+        <v>0.1269531493673573</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02795502848875438</v>
+        <v>0.02672487244292675</v>
       </c>
       <c r="H97" t="b">
-        <v>0</v>
-      </c>
-      <c r="I97" t="n">
-        <v>14</v>
-      </c>
-      <c r="J97" t="n">
-        <v>2438947957.355817</v>
+        <v>1</v>
       </c>
     </row>
     <row r="98">
@@ -3760,22 +3174,16 @@
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>2840383912.851698</v>
+        <v>2617912785.348208</v>
       </c>
       <c r="F98" t="n">
-        <v>0.08827772345868125</v>
+        <v>0.09976294105723492</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02570663070237754</v>
+        <v>0.03060092565421717</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
-      </c>
-      <c r="I98" t="n">
-        <v>11</v>
-      </c>
-      <c r="J98" t="n">
-        <v>1420191930.139268</v>
       </c>
     </row>
     <row r="99">
@@ -3788,28 +3196,22 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D99" t="n">
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>3268729474.028528</v>
+        <v>2785923520.930038</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1114271157472104</v>
+        <v>0.11084877551922</v>
       </c>
       <c r="G99" t="n">
-        <v>0.02975996938125756</v>
+        <v>0.02223179406737247</v>
       </c>
       <c r="H99" t="b">
         <v>1</v>
-      </c>
-      <c r="I99" t="n">
-        <v>12</v>
-      </c>
-      <c r="J99" t="n">
-        <v>1634364742.35748</v>
       </c>
     </row>
     <row r="100">
@@ -3828,22 +3230,16 @@
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>3219165249.094316</v>
+        <v>4031097136.133182</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1717078066210773</v>
+        <v>0.1116006131203802</v>
       </c>
       <c r="G100" t="n">
-        <v>0.021893873151988</v>
+        <v>0.02283151945930451</v>
       </c>
       <c r="H100" t="b">
         <v>0</v>
-      </c>
-      <c r="I100" t="n">
-        <v>13</v>
-      </c>
-      <c r="J100" t="n">
-        <v>1609582632.725555</v>
       </c>
     </row>
     <row r="101">
@@ -3862,22 +3258,16 @@
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>2494295320.636754</v>
+        <v>3399718186.923305</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1400060243644217</v>
+        <v>0.1545130598438814</v>
       </c>
       <c r="G101" t="n">
-        <v>0.04112754883127426</v>
+        <v>0.03844744972569106</v>
       </c>
       <c r="H101" t="b">
-        <v>0</v>
-      </c>
-      <c r="I101" t="n">
-        <v>18</v>
-      </c>
-      <c r="J101" t="n">
-        <v>1247147682.37447</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/output/fit_clients/fit_round_43.xlsx
+++ b/output/fit_clients/fit_round_43.xlsx
@@ -480,19 +480,19 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>2180506946.334002</v>
+        <v>1832292541.504474</v>
       </c>
       <c r="F2" t="n">
-        <v>0.0960689934272721</v>
+        <v>0.0774582417868656</v>
       </c>
       <c r="G2" t="n">
-        <v>0.0308776875545332</v>
+        <v>0.03225061869812451</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
@@ -508,22 +508,22 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>1926636489.858968</v>
+        <v>1805151831.85051</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1504156224138799</v>
+        <v>0.1294526002044108</v>
       </c>
       <c r="G3" t="n">
-        <v>0.03592829956332939</v>
+        <v>0.03403020510525767</v>
       </c>
       <c r="H3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -536,19 +536,19 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>3976729902.305147</v>
+        <v>4449041157.232046</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1530629202460465</v>
+        <v>0.1039064763008289</v>
       </c>
       <c r="G4" t="n">
-        <v>0.03452719137155341</v>
+        <v>0.03642311527607148</v>
       </c>
       <c r="H4" t="b">
         <v>0</v>
@@ -564,19 +564,19 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>2780408440.052382</v>
+        <v>2862279848.985278</v>
       </c>
       <c r="F5" t="n">
-        <v>0.09048122889484894</v>
+        <v>0.07806498879747101</v>
       </c>
       <c r="G5" t="n">
-        <v>0.03399545652218711</v>
+        <v>0.03422108239593551</v>
       </c>
       <c r="H5" t="b">
         <v>0</v>
@@ -592,19 +592,19 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2571521076.194815</v>
+        <v>2369704960.987624</v>
       </c>
       <c r="F6" t="n">
-        <v>0.113313502396813</v>
+        <v>0.1318621676330444</v>
       </c>
       <c r="G6" t="n">
-        <v>0.05668663351363471</v>
+        <v>0.04536927830059742</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
@@ -620,19 +620,19 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2631751715.328085</v>
+        <v>2268586208.793185</v>
       </c>
       <c r="F7" t="n">
-        <v>0.09059178218702002</v>
+        <v>0.08794500148826426</v>
       </c>
       <c r="G7" t="n">
-        <v>0.03833487311579364</v>
+        <v>0.03043351454904855</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
@@ -648,19 +648,19 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>2676598169.799643</v>
+        <v>2892640447.783722</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1529989656817507</v>
+        <v>0.1381085688845477</v>
       </c>
       <c r="G8" t="n">
-        <v>0.02821947157777877</v>
+        <v>0.02492075182511187</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
@@ -676,19 +676,19 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>2180005707.599455</v>
+        <v>1714757863.080933</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1543326941406839</v>
+        <v>0.1769698631213101</v>
       </c>
       <c r="G9" t="n">
-        <v>0.03290362396212149</v>
+        <v>0.02589752913725779</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
@@ -704,19 +704,19 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>5234898751.787786</v>
+        <v>4102826538.281096</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1565684928825482</v>
+        <v>0.1943176510655157</v>
       </c>
       <c r="G10" t="n">
-        <v>0.03659103142716801</v>
+        <v>0.04687982520510532</v>
       </c>
       <c r="H10" t="b">
         <v>1</v>
@@ -732,19 +732,19 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>3808661829.537016</v>
+        <v>3153582358.360932</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1225363704615987</v>
+        <v>0.1649676166106179</v>
       </c>
       <c r="G11" t="n">
-        <v>0.03174660994397387</v>
+        <v>0.04576136154236368</v>
       </c>
       <c r="H11" t="b">
         <v>0</v>
@@ -760,19 +760,19 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2644128448.698184</v>
+        <v>2996098791.211939</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1823040699950793</v>
+        <v>0.1360523477087333</v>
       </c>
       <c r="G12" t="n">
-        <v>0.05243008928309933</v>
+        <v>0.05142304966949736</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
@@ -788,19 +788,19 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>4738006354.729667</v>
+        <v>5209675525.971812</v>
       </c>
       <c r="F13" t="n">
-        <v>0.07963293695042462</v>
+        <v>0.08174936594277944</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02889529584853871</v>
+        <v>0.03135939838409735</v>
       </c>
       <c r="H13" t="b">
         <v>1</v>
@@ -822,16 +822,16 @@
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>3605766182.60199</v>
+        <v>3259899694.650149</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1712618583570066</v>
+        <v>0.1836482908642542</v>
       </c>
       <c r="G14" t="n">
-        <v>0.04223399833944152</v>
+        <v>0.03558288649489164</v>
       </c>
       <c r="H14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -844,19 +844,19 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1761707353.707415</v>
+        <v>1719410038.990372</v>
       </c>
       <c r="F15" t="n">
-        <v>0.1070554262065155</v>
+        <v>0.07452223755414414</v>
       </c>
       <c r="G15" t="n">
-        <v>0.04657616874755955</v>
+        <v>0.03134202807592554</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
@@ -872,19 +872,19 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2622572695.72914</v>
+        <v>2052534432.56148</v>
       </c>
       <c r="F16" t="n">
-        <v>0.0811441909074197</v>
+        <v>0.1151591398838906</v>
       </c>
       <c r="G16" t="n">
-        <v>0.04794659271102465</v>
+        <v>0.04821893929964853</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
@@ -906,13 +906,13 @@
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>3656563172.681967</v>
+        <v>5262357514.355457</v>
       </c>
       <c r="F17" t="n">
-        <v>0.128909026759684</v>
+        <v>0.1143346456946481</v>
       </c>
       <c r="G17" t="n">
-        <v>0.05242253316132373</v>
+        <v>0.04079352368514057</v>
       </c>
       <c r="H17" t="b">
         <v>0</v>
@@ -928,19 +928,19 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>3509635730.291472</v>
+        <v>2550886066.442308</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1613188226492479</v>
+        <v>0.1801984648441368</v>
       </c>
       <c r="G18" t="n">
-        <v>0.02919101296741857</v>
+        <v>0.03074902711081563</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
@@ -956,22 +956,22 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>1138012903.552808</v>
+        <v>1290091202.10867</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1218076403911709</v>
+        <v>0.1729340164169425</v>
       </c>
       <c r="G19" t="n">
-        <v>0.02457650086471935</v>
+        <v>0.02657467477392782</v>
       </c>
       <c r="H19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -984,19 +984,19 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2606947909.755291</v>
+        <v>2779800327.436563</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1348316837018083</v>
+        <v>0.106924870568707</v>
       </c>
       <c r="G20" t="n">
-        <v>0.01960119124747742</v>
+        <v>0.02021680021522133</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
@@ -1012,19 +1012,19 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>1994099527.215191</v>
+        <v>2678930856.968085</v>
       </c>
       <c r="F21" t="n">
-        <v>0.08182029169038896</v>
+        <v>0.07244542849893217</v>
       </c>
       <c r="G21" t="n">
-        <v>0.03049303947655348</v>
+        <v>0.03179904623180235</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
@@ -1046,16 +1046,16 @@
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>2723808679.034646</v>
+        <v>2779199450.260782</v>
       </c>
       <c r="F22" t="n">
-        <v>0.120840137850858</v>
+        <v>0.1222300512031919</v>
       </c>
       <c r="G22" t="n">
-        <v>0.04756520340108752</v>
+        <v>0.0369630430279367</v>
       </c>
       <c r="H22" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -1074,13 +1074,13 @@
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1205080363.425992</v>
+        <v>1541740191.654641</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1413796506593791</v>
+        <v>0.1587928994285565</v>
       </c>
       <c r="G23" t="n">
-        <v>0.05182325700559227</v>
+        <v>0.04741581105655279</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
@@ -1102,16 +1102,16 @@
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>3405469801.129898</v>
+        <v>2778036311.342123</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1238073567761434</v>
+        <v>0.1249767092923076</v>
       </c>
       <c r="G24" t="n">
-        <v>0.03174048972411336</v>
+        <v>0.02723106135869104</v>
       </c>
       <c r="H24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25">
@@ -1124,22 +1124,22 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1417055169.068861</v>
+        <v>1281365699.956419</v>
       </c>
       <c r="F25" t="n">
-        <v>0.09842101293984437</v>
+        <v>0.08483268542013879</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02446020914038487</v>
+        <v>0.02249150681581708</v>
       </c>
       <c r="H25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -1152,19 +1152,19 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1082045077.353578</v>
+        <v>944333602.3839993</v>
       </c>
       <c r="F26" t="n">
-        <v>0.09588103119560053</v>
+        <v>0.1110529332689462</v>
       </c>
       <c r="G26" t="n">
-        <v>0.03330012480498293</v>
+        <v>0.02900779005923003</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
@@ -1180,22 +1180,22 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>4327962801.112074</v>
+        <v>4357823796.76421</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1301679406865749</v>
+        <v>0.1550313634338223</v>
       </c>
       <c r="G27" t="n">
-        <v>0.02048124021577626</v>
+        <v>0.01687290198579222</v>
       </c>
       <c r="H27" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28">
@@ -1208,19 +1208,19 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>2908191629.6429</v>
+        <v>3817747443.543035</v>
       </c>
       <c r="F28" t="n">
-        <v>0.110535978784785</v>
+        <v>0.1165058073915754</v>
       </c>
       <c r="G28" t="n">
-        <v>0.04156040960281267</v>
+        <v>0.0481807978700762</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
@@ -1242,16 +1242,16 @@
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>4848942722.267133</v>
+        <v>5516756969.851357</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1493728485573265</v>
+        <v>0.09240495778113765</v>
       </c>
       <c r="G29" t="n">
-        <v>0.03169016225840478</v>
+        <v>0.0437108199707693</v>
       </c>
       <c r="H29" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30">
@@ -1270,16 +1270,16 @@
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>1478721098.48239</v>
+        <v>1701324171.340471</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1017079552257848</v>
+        <v>0.1008721113958673</v>
       </c>
       <c r="G30" t="n">
-        <v>0.03016432205850235</v>
+        <v>0.03196578628072974</v>
       </c>
       <c r="H30" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -1292,19 +1292,19 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1137618648.399914</v>
+        <v>1260458876.027629</v>
       </c>
       <c r="F31" t="n">
-        <v>0.08207537990544808</v>
+        <v>0.09101608511084371</v>
       </c>
       <c r="G31" t="n">
-        <v>0.03284426564191915</v>
+        <v>0.04076280867519602</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
@@ -1326,13 +1326,13 @@
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1713124783.653183</v>
+        <v>1433976979.97837</v>
       </c>
       <c r="F32" t="n">
-        <v>0.1029363652042883</v>
+        <v>0.1126280741466212</v>
       </c>
       <c r="G32" t="n">
-        <v>0.03621401424834079</v>
+        <v>0.03214331166294441</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
@@ -1354,13 +1354,13 @@
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2445703030.441338</v>
+        <v>2546949220.131542</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1691461431359527</v>
+        <v>0.129432255290059</v>
       </c>
       <c r="G33" t="n">
-        <v>0.05635015226366604</v>
+        <v>0.05227756603959446</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
@@ -1376,19 +1376,19 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1433180015.844994</v>
+        <v>992211551.462373</v>
       </c>
       <c r="F34" t="n">
-        <v>0.09750268512668218</v>
+        <v>0.08417658669952008</v>
       </c>
       <c r="G34" t="n">
-        <v>0.02839332725984651</v>
+        <v>0.02329233965343525</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
@@ -1404,19 +1404,19 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>975809018.6813347</v>
+        <v>1292653681.502348</v>
       </c>
       <c r="F35" t="n">
-        <v>0.07918266461306472</v>
+        <v>0.07702681278406476</v>
       </c>
       <c r="G35" t="n">
-        <v>0.02798283623295413</v>
+        <v>0.02843849974860165</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
@@ -1432,19 +1432,19 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2083464882.535652</v>
+        <v>2380750717.163695</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1425046050187588</v>
+        <v>0.1235960171116425</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02112549024374085</v>
+        <v>0.0207131769701938</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
@@ -1466,13 +1466,13 @@
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2696327505.730299</v>
+        <v>2889325492.344437</v>
       </c>
       <c r="F37" t="n">
-        <v>0.106411608826811</v>
+        <v>0.09578223801218592</v>
       </c>
       <c r="G37" t="n">
-        <v>0.02710443021784828</v>
+        <v>0.03023572747184304</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
@@ -1488,19 +1488,19 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1610469773.210964</v>
+        <v>2123981639.251576</v>
       </c>
       <c r="F38" t="n">
-        <v>0.08876222611126779</v>
+        <v>0.07873098809883883</v>
       </c>
       <c r="G38" t="n">
-        <v>0.0372725945658556</v>
+        <v>0.0247420836956991</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
@@ -1516,19 +1516,19 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1483811070.029727</v>
+        <v>1483986214.772831</v>
       </c>
       <c r="F39" t="n">
-        <v>0.161643460511678</v>
+        <v>0.1486362815128102</v>
       </c>
       <c r="G39" t="n">
-        <v>0.02672047804637075</v>
+        <v>0.02766496328390846</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
@@ -1544,19 +1544,19 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1597986445.530729</v>
+        <v>1792802813.666498</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1576551961576355</v>
+        <v>0.1375461481273699</v>
       </c>
       <c r="G40" t="n">
-        <v>0.03901450113152542</v>
+        <v>0.04491762835405893</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
@@ -1572,19 +1572,19 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>1784547799.244435</v>
+        <v>2249456576.747382</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1244210746884351</v>
+        <v>0.1353476599358545</v>
       </c>
       <c r="G41" t="n">
-        <v>0.04673622763792906</v>
+        <v>0.04230966817508873</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
@@ -1600,19 +1600,19 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>4038983402.220275</v>
+        <v>4281025686.904442</v>
       </c>
       <c r="F42" t="n">
-        <v>0.09799651427729417</v>
+        <v>0.09104454247318228</v>
       </c>
       <c r="G42" t="n">
-        <v>0.03780691259544363</v>
+        <v>0.04517561377963287</v>
       </c>
       <c r="H42" t="b">
         <v>0</v>
@@ -1628,19 +1628,19 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2882513555.033882</v>
+        <v>2232789008.670312</v>
       </c>
       <c r="F43" t="n">
-        <v>0.2045233158632869</v>
+        <v>0.1758557817061138</v>
       </c>
       <c r="G43" t="n">
-        <v>0.02006912285103484</v>
+        <v>0.01883125100114791</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
@@ -1662,13 +1662,13 @@
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>1937244745.783624</v>
+        <v>1435535165.532247</v>
       </c>
       <c r="F44" t="n">
-        <v>0.09344177146841526</v>
+        <v>0.07608539820793968</v>
       </c>
       <c r="G44" t="n">
-        <v>0.03537662901059174</v>
+        <v>0.0276506523745467</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
@@ -1684,19 +1684,19 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>2005024967.190026</v>
+        <v>2446082975.696153</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1324269563664833</v>
+        <v>0.1596905322036843</v>
       </c>
       <c r="G45" t="n">
-        <v>0.03511831696588084</v>
+        <v>0.04909356984981955</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
@@ -1712,22 +1712,22 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>4829621985.088874</v>
+        <v>5265823823.373331</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1435383226877266</v>
+        <v>0.1685411856338827</v>
       </c>
       <c r="G46" t="n">
-        <v>0.04876157305421398</v>
+        <v>0.05991703776133712</v>
       </c>
       <c r="H46" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47">
@@ -1740,22 +1740,22 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>4085910289.625451</v>
+        <v>4304078982.103804</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1966310597680682</v>
+        <v>0.1662234393753617</v>
       </c>
       <c r="G47" t="n">
-        <v>0.04703304530957164</v>
+        <v>0.04043383058382009</v>
       </c>
       <c r="H47" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48">
@@ -1774,13 +1774,13 @@
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>3951645261.032198</v>
+        <v>2843313554.157506</v>
       </c>
       <c r="F48" t="n">
-        <v>0.07389349408234321</v>
+        <v>0.09712711936978632</v>
       </c>
       <c r="G48" t="n">
-        <v>0.03634925206663714</v>
+        <v>0.03588199510336791</v>
       </c>
       <c r="H48" t="b">
         <v>0</v>
@@ -1796,19 +1796,19 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1851495857.408782</v>
+        <v>1840659198.050918</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1561234744594418</v>
+        <v>0.1480566960623877</v>
       </c>
       <c r="G49" t="n">
-        <v>0.03440049787511728</v>
+        <v>0.04042875918222492</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
@@ -1830,13 +1830,13 @@
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>2959792923.546521</v>
+        <v>3746533657.773618</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1239425242245796</v>
+        <v>0.1221108971329699</v>
       </c>
       <c r="G50" t="n">
-        <v>0.04944170781968485</v>
+        <v>0.04265926858921767</v>
       </c>
       <c r="H50" t="b">
         <v>0</v>
@@ -1852,22 +1852,22 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1327099407.777521</v>
+        <v>1125024004.688448</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1870124266404488</v>
+        <v>0.1417141502988992</v>
       </c>
       <c r="G51" t="n">
-        <v>0.03838032168416095</v>
+        <v>0.04738849011736231</v>
       </c>
       <c r="H51" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52">
@@ -1880,19 +1880,19 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>4720549124.172088</v>
+        <v>3270190987.09145</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1067895817721833</v>
+        <v>0.1272690629378442</v>
       </c>
       <c r="G52" t="n">
-        <v>0.05876001143440635</v>
+        <v>0.05262938182538267</v>
       </c>
       <c r="H52" t="b">
         <v>0</v>
@@ -1914,13 +1914,13 @@
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>3082344884.97799</v>
+        <v>2295430188.349863</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1436382352935487</v>
+        <v>0.2048649521126957</v>
       </c>
       <c r="G53" t="n">
-        <v>0.02332474106429406</v>
+        <v>0.02386230568447954</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
@@ -1936,22 +1936,22 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>3789472308.417603</v>
+        <v>3680478140.02771</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1037201175522665</v>
+        <v>0.1322906074937142</v>
       </c>
       <c r="G54" t="n">
-        <v>0.04679252980191695</v>
+        <v>0.03223966054285029</v>
       </c>
       <c r="H54" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55">
@@ -1970,16 +1970,16 @@
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>4018607769.380855</v>
+        <v>4533804566.367959</v>
       </c>
       <c r="F55" t="n">
-        <v>0.1362561148619145</v>
+        <v>0.1410274412813463</v>
       </c>
       <c r="G55" t="n">
-        <v>0.02770032162294738</v>
+        <v>0.0286135329455654</v>
       </c>
       <c r="H55" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56">
@@ -1992,19 +1992,19 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1747294634.650489</v>
+        <v>1620735838.166009</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1247801305806303</v>
+        <v>0.1113161263705075</v>
       </c>
       <c r="G56" t="n">
-        <v>0.05252527375422096</v>
+        <v>0.03877269030558109</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
@@ -2020,19 +2020,19 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>4175468627.915228</v>
+        <v>2909094587.620036</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1165324141216845</v>
+        <v>0.1378917301905111</v>
       </c>
       <c r="G57" t="n">
-        <v>0.01979782784379425</v>
+        <v>0.01791986976568564</v>
       </c>
       <c r="H57" t="b">
         <v>0</v>
@@ -2054,13 +2054,13 @@
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1182761068.18827</v>
+        <v>1661402249.619286</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1892707775490783</v>
+        <v>0.1874002207244665</v>
       </c>
       <c r="G58" t="n">
-        <v>0.02448959053282411</v>
+        <v>0.03911074907105864</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
@@ -2076,19 +2076,19 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>4774938913.711338</v>
+        <v>4346807390.417772</v>
       </c>
       <c r="F59" t="n">
-        <v>0.08704261108014988</v>
+        <v>0.09274205116516887</v>
       </c>
       <c r="G59" t="n">
-        <v>0.03364217114968133</v>
+        <v>0.04266409847308384</v>
       </c>
       <c r="H59" t="b">
         <v>0</v>
@@ -2104,19 +2104,19 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>3537195798.940688</v>
+        <v>3274293190.609093</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1514507755019927</v>
+        <v>0.133488277378128</v>
       </c>
       <c r="G60" t="n">
-        <v>0.02764654050050038</v>
+        <v>0.02680850997857968</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
@@ -2132,19 +2132,19 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>3273116826.136093</v>
+        <v>2570277343.99228</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1448790388283873</v>
+        <v>0.1290482254179203</v>
       </c>
       <c r="G61" t="n">
-        <v>0.02386530957751183</v>
+        <v>0.03016365251580943</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
@@ -2160,19 +2160,19 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1747224432.325271</v>
+        <v>1828274755.393954</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1300189265862029</v>
+        <v>0.1462460181166448</v>
       </c>
       <c r="G62" t="n">
-        <v>0.04835603579425677</v>
+        <v>0.0366931948764865</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
@@ -2188,22 +2188,22 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>3942852567.716932</v>
+        <v>4515132468.669975</v>
       </c>
       <c r="F63" t="n">
-        <v>0.07468913046330633</v>
+        <v>0.09287151728813714</v>
       </c>
       <c r="G63" t="n">
-        <v>0.02961941991618542</v>
+        <v>0.04150929123314891</v>
       </c>
       <c r="H63" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64">
@@ -2222,16 +2222,16 @@
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>3591138372.637317</v>
+        <v>4067848391.691768</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1887238630823271</v>
+        <v>0.1726243808330735</v>
       </c>
       <c r="G64" t="n">
-        <v>0.02729667707548043</v>
+        <v>0.02545251046900492</v>
       </c>
       <c r="H64" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65">
@@ -2244,22 +2244,22 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>4348936292.630802</v>
+        <v>5631486578.655567</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1265738135545439</v>
+        <v>0.1490179048322089</v>
       </c>
       <c r="G65" t="n">
-        <v>0.02397485174048553</v>
+        <v>0.02349866532575808</v>
       </c>
       <c r="H65" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66">
@@ -2272,22 +2272,22 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>3554869408.450285</v>
+        <v>4496459651.004018</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1189257020896485</v>
+        <v>0.1050448143920277</v>
       </c>
       <c r="G66" t="n">
-        <v>0.04182776136511513</v>
+        <v>0.03577677904468541</v>
       </c>
       <c r="H66" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="67">
@@ -2300,19 +2300,19 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>2905693807.690285</v>
+        <v>2294360391.012455</v>
       </c>
       <c r="F67" t="n">
-        <v>0.1001075345397034</v>
+        <v>0.0925466505864109</v>
       </c>
       <c r="G67" t="n">
-        <v>0.04303381085521193</v>
+        <v>0.03877928256531613</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
@@ -2334,16 +2334,16 @@
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>4222889110.083623</v>
+        <v>5391276787.830465</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1390295974054259</v>
+        <v>0.1577085929243149</v>
       </c>
       <c r="G68" t="n">
-        <v>0.05165226331772238</v>
+        <v>0.03329134057981493</v>
       </c>
       <c r="H68" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="69">
@@ -2362,13 +2362,13 @@
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>1885468081.103956</v>
+        <v>2432504175.687096</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1731913915087497</v>
+        <v>0.117010997316508</v>
       </c>
       <c r="G69" t="n">
-        <v>0.05188927516008545</v>
+        <v>0.05448398806012911</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
@@ -2384,22 +2384,22 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>2244655007.161292</v>
+        <v>3154588101.662481</v>
       </c>
       <c r="F70" t="n">
-        <v>0.06385149692562711</v>
+        <v>0.06478568627675442</v>
       </c>
       <c r="G70" t="n">
-        <v>0.0406804748770738</v>
+        <v>0.04004522940568445</v>
       </c>
       <c r="H70" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71">
@@ -2412,22 +2412,22 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>4756748174.711276</v>
+        <v>5595516580.455715</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1581253000011572</v>
+        <v>0.1525419166796375</v>
       </c>
       <c r="G71" t="n">
-        <v>0.03222918036135981</v>
+        <v>0.02638342513758795</v>
       </c>
       <c r="H71" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="72">
@@ -2440,19 +2440,19 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>1539620381.257465</v>
+        <v>2164359543.02044</v>
       </c>
       <c r="F72" t="n">
-        <v>0.07348397593404017</v>
+        <v>0.09050482430960348</v>
       </c>
       <c r="G72" t="n">
-        <v>0.0472114922064376</v>
+        <v>0.03258413987923892</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
@@ -2474,13 +2474,13 @@
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>2589964046.771195</v>
+        <v>2751191341.391666</v>
       </c>
       <c r="F73" t="n">
-        <v>0.08363001322529331</v>
+        <v>0.1010478017397308</v>
       </c>
       <c r="G73" t="n">
-        <v>0.04865719256642499</v>
+        <v>0.04188728620901148</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
@@ -2496,19 +2496,19 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>3089382456.564964</v>
+        <v>3614435055.755763</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1769822402806452</v>
+        <v>0.1391785354578964</v>
       </c>
       <c r="G74" t="n">
-        <v>0.02352204474904487</v>
+        <v>0.03062970344970171</v>
       </c>
       <c r="H74" t="b">
         <v>0</v>
@@ -2524,19 +2524,19 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>2331623861.933076</v>
+        <v>2475242527.804479</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1425002499202304</v>
+        <v>0.1537425850583873</v>
       </c>
       <c r="G75" t="n">
-        <v>0.02446355848087647</v>
+        <v>0.03143484564772186</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
@@ -2552,22 +2552,22 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>5237794264.574978</v>
+        <v>4455580036.83952</v>
       </c>
       <c r="F76" t="n">
-        <v>0.1058282283236413</v>
+        <v>0.1229273875412333</v>
       </c>
       <c r="G76" t="n">
-        <v>0.02908533485788256</v>
+        <v>0.02444556501779943</v>
       </c>
       <c r="H76" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="77">
@@ -2580,19 +2580,19 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>1766806132.62549</v>
+        <v>2245494696.180181</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1397225139201443</v>
+        <v>0.1769126696260038</v>
       </c>
       <c r="G77" t="n">
-        <v>0.02270340738540019</v>
+        <v>0.02686572338040177</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
@@ -2608,22 +2608,22 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>2932124348.709693</v>
+        <v>3806116509.260261</v>
       </c>
       <c r="F78" t="n">
-        <v>0.1197041439949603</v>
+        <v>0.09664005877505082</v>
       </c>
       <c r="G78" t="n">
-        <v>0.04740047459607478</v>
+        <v>0.03990985942817098</v>
       </c>
       <c r="H78" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="79">
@@ -2642,16 +2642,16 @@
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1394805588.516811</v>
+        <v>1770864418.723794</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1179059292978265</v>
+        <v>0.154929647556874</v>
       </c>
       <c r="G79" t="n">
-        <v>0.02742419175685367</v>
+        <v>0.03632357905530851</v>
       </c>
       <c r="H79" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="80">
@@ -2670,16 +2670,16 @@
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>5597748975.74724</v>
+        <v>5414540740.644437</v>
       </c>
       <c r="F80" t="n">
-        <v>0.1050933522799254</v>
+        <v>0.0964679714854273</v>
       </c>
       <c r="G80" t="n">
-        <v>0.03756534954552177</v>
+        <v>0.02847478802273054</v>
       </c>
       <c r="H80" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="81">
@@ -2692,19 +2692,19 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>4164157287.513639</v>
+        <v>3788118780.559921</v>
       </c>
       <c r="F81" t="n">
-        <v>0.1357914872680091</v>
+        <v>0.0835786971150765</v>
       </c>
       <c r="G81" t="n">
-        <v>0.03244895195690091</v>
+        <v>0.02884973195967979</v>
       </c>
       <c r="H81" t="b">
         <v>0</v>
@@ -2726,13 +2726,13 @@
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>5513445023.16002</v>
+        <v>3980322803.631398</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1489075351504349</v>
+        <v>0.1969613176776516</v>
       </c>
       <c r="G82" t="n">
-        <v>0.01833372632225895</v>
+        <v>0.0183453066434499</v>
       </c>
       <c r="H82" t="b">
         <v>0</v>
@@ -2748,19 +2748,19 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>1517731591.563645</v>
+        <v>1590279079.272724</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1289395590236707</v>
+        <v>0.1122319258258982</v>
       </c>
       <c r="G83" t="n">
-        <v>0.03002515597245236</v>
+        <v>0.04280485355751114</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
@@ -2776,19 +2776,19 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>2303770565.220933</v>
+        <v>1843514939.857907</v>
       </c>
       <c r="F84" t="n">
-        <v>0.1084108525888925</v>
+        <v>0.0731044790919822</v>
       </c>
       <c r="G84" t="n">
-        <v>0.04437288288544997</v>
+        <v>0.03815090357548592</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
@@ -2804,19 +2804,19 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>2867620241.360585</v>
+        <v>3229733841.167144</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1153969661278007</v>
+        <v>0.1172764078665351</v>
       </c>
       <c r="G85" t="n">
-        <v>0.05217979598504884</v>
+        <v>0.04236855600454043</v>
       </c>
       <c r="H85" t="b">
         <v>0</v>
@@ -2838,13 +2838,13 @@
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>1802299443.487427</v>
+        <v>2740719658.768114</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1435789767170951</v>
+        <v>0.1250060065650123</v>
       </c>
       <c r="G86" t="n">
-        <v>0.01761395311855703</v>
+        <v>0.02700017050428018</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
@@ -2860,22 +2860,22 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>922251259.2621551</v>
+        <v>996280663.1967626</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1805535661519173</v>
+        <v>0.1748077265657552</v>
       </c>
       <c r="G87" t="n">
-        <v>0.03807840946006493</v>
+        <v>0.03667156187072524</v>
       </c>
       <c r="H87" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="88">
@@ -2888,22 +2888,22 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>2515367090.885749</v>
+        <v>2570858050.382074</v>
       </c>
       <c r="F88" t="n">
-        <v>0.177158042836967</v>
+        <v>0.156240362292332</v>
       </c>
       <c r="G88" t="n">
-        <v>0.02830188096944552</v>
+        <v>0.03798492608584701</v>
       </c>
       <c r="H88" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89">
@@ -2916,19 +2916,19 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>2951249785.605403</v>
+        <v>3117528203.488748</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1591840519334335</v>
+        <v>0.1599787953504969</v>
       </c>
       <c r="G89" t="n">
-        <v>0.03341502062089457</v>
+        <v>0.03926730697264318</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
@@ -2944,19 +2944,19 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1995393222.089874</v>
+        <v>1461665766.223013</v>
       </c>
       <c r="F90" t="n">
-        <v>0.09675242050671282</v>
+        <v>0.1082632343933337</v>
       </c>
       <c r="G90" t="n">
-        <v>0.0523353556140885</v>
+        <v>0.03766691670745287</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
@@ -2972,19 +2972,19 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1774170057.474561</v>
+        <v>1827500199.722926</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1292059088401485</v>
+        <v>0.1649486684525608</v>
       </c>
       <c r="G91" t="n">
-        <v>0.05692310701197541</v>
+        <v>0.03823060465023268</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
@@ -3006,16 +3006,16 @@
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>1860869006.989222</v>
+        <v>1838206435.764868</v>
       </c>
       <c r="F92" t="n">
-        <v>0.09907645166036057</v>
+        <v>0.1042306117423721</v>
       </c>
       <c r="G92" t="n">
-        <v>0.04207117588378367</v>
+        <v>0.03846106031928459</v>
       </c>
       <c r="H92" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93">
@@ -3028,19 +3028,19 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>5022150847.024253</v>
+        <v>3487386356.988257</v>
       </c>
       <c r="F93" t="n">
-        <v>0.1332096161564655</v>
+        <v>0.1419116167354747</v>
       </c>
       <c r="G93" t="n">
-        <v>0.03472199059083434</v>
+        <v>0.04210028725456345</v>
       </c>
       <c r="H93" t="b">
         <v>1</v>
@@ -3062,16 +3062,16 @@
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>2428183461.913481</v>
+        <v>1821102107.137302</v>
       </c>
       <c r="F94" t="n">
-        <v>0.160405522185599</v>
+        <v>0.1277948260271327</v>
       </c>
       <c r="G94" t="n">
-        <v>0.0262269158957044</v>
+        <v>0.0397060257020907</v>
       </c>
       <c r="H94" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="95">
@@ -3090,16 +3090,16 @@
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2652749521.703461</v>
+        <v>2745923595.225934</v>
       </c>
       <c r="F95" t="n">
-        <v>0.09656052464343051</v>
+        <v>0.1185606300677581</v>
       </c>
       <c r="G95" t="n">
-        <v>0.03676884476911441</v>
+        <v>0.03827121422619217</v>
       </c>
       <c r="H95" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="96">
@@ -3112,19 +3112,19 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>2376520997.968175</v>
+        <v>2130676426.447253</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1311944057510633</v>
+        <v>0.09722284180726622</v>
       </c>
       <c r="G96" t="n">
-        <v>0.04720401813916106</v>
+        <v>0.03974791811422507</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
@@ -3140,19 +3140,19 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>4144721106.46128</v>
+        <v>4025719978.828185</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1269531493673573</v>
+        <v>0.1500802469566492</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02672487244292675</v>
+        <v>0.01774081155401355</v>
       </c>
       <c r="H97" t="b">
         <v>1</v>
@@ -3168,19 +3168,19 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>2617912785.348208</v>
+        <v>3482659001.963647</v>
       </c>
       <c r="F98" t="n">
-        <v>0.09976294105723492</v>
+        <v>0.1163877524742852</v>
       </c>
       <c r="G98" t="n">
-        <v>0.03060092565421717</v>
+        <v>0.02411324013791498</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
@@ -3196,22 +3196,22 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D99" t="n">
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>2785923520.930038</v>
+        <v>2778202045.38486</v>
       </c>
       <c r="F99" t="n">
-        <v>0.11084877551922</v>
+        <v>0.1079378022463737</v>
       </c>
       <c r="G99" t="n">
-        <v>0.02223179406737247</v>
+        <v>0.02376654348022995</v>
       </c>
       <c r="H99" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100">
@@ -3224,19 +3224,19 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>4031097136.133182</v>
+        <v>3537089169.957319</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1116006131203802</v>
+        <v>0.1753125775785191</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02283151945930451</v>
+        <v>0.02790919123105452</v>
       </c>
       <c r="H100" t="b">
         <v>0</v>
@@ -3252,22 +3252,22 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D101" t="n">
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>3399718186.923305</v>
+        <v>3571259175.922265</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1545130598438814</v>
+        <v>0.1940214992278953</v>
       </c>
       <c r="G101" t="n">
-        <v>0.03844744972569106</v>
+        <v>0.05486664255429868</v>
       </c>
       <c r="H101" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/output/fit_clients/fit_round_43.xlsx
+++ b/output/fit_clients/fit_round_43.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H101"/>
+  <dimension ref="A1:K101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,6 +469,21 @@
           <t>isSelected</t>
         </is>
       </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>involvement_history</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>last_involving_round</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>oort_utility</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -480,23 +495,30 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>1832292541.504474</v>
+        <v>2283719017.725015</v>
       </c>
       <c r="F2" t="n">
-        <v>0.0774582417868656</v>
+        <v>0.08561405682971183</v>
       </c>
       <c r="G2" t="n">
-        <v>0.03225061869812451</v>
+        <v>0.03922754827913508</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
       </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -508,23 +530,30 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>1805151831.85051</v>
+        <v>1978269885.910506</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1294526002044108</v>
+        <v>0.1195903502723151</v>
       </c>
       <c r="G3" t="n">
-        <v>0.03403020510525767</v>
+        <v>0.03262776907558405</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
       </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -542,17 +571,24 @@
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>4449041157.232046</v>
+        <v>3964963829.806978</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1039064763008289</v>
+        <v>0.1436085517217</v>
       </c>
       <c r="G4" t="n">
-        <v>0.03642311527607148</v>
+        <v>0.03522678025062984</v>
       </c>
       <c r="H4" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I4" t="n">
+        <v>31</v>
+      </c>
+      <c r="J4" t="n">
+        <v>43</v>
+      </c>
+      <c r="K4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -564,23 +600,30 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>2862279848.985278</v>
+        <v>4029645604.966107</v>
       </c>
       <c r="F5" t="n">
-        <v>0.07806498879747101</v>
+        <v>0.08016132097609573</v>
       </c>
       <c r="G5" t="n">
-        <v>0.03422108239593551</v>
+        <v>0.04045578598648775</v>
       </c>
       <c r="H5" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I5" t="n">
+        <v>19</v>
+      </c>
+      <c r="J5" t="n">
+        <v>43</v>
+      </c>
+      <c r="K5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -592,23 +635,30 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2369704960.987624</v>
+        <v>2196655314.208915</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1318621676330444</v>
+        <v>0.1091226019359786</v>
       </c>
       <c r="G6" t="n">
-        <v>0.04536927830059742</v>
+        <v>0.05099738458061667</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
       </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -620,23 +670,30 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2268586208.793185</v>
+        <v>2384169291.360621</v>
       </c>
       <c r="F7" t="n">
-        <v>0.08794500148826426</v>
+        <v>0.100975602712106</v>
       </c>
       <c r="G7" t="n">
-        <v>0.03043351454904855</v>
+        <v>0.04564513075505871</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
       </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -654,16 +711,25 @@
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>2892640447.783722</v>
+        <v>2978897380.318303</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1381085688845477</v>
+        <v>0.1427059209251955</v>
       </c>
       <c r="G8" t="n">
-        <v>0.02492075182511187</v>
+        <v>0.02903416257757497</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
+      </c>
+      <c r="I8" t="n">
+        <v>10</v>
+      </c>
+      <c r="J8" t="n">
+        <v>42</v>
+      </c>
+      <c r="K8" t="n">
+        <v>120.9584889121507</v>
       </c>
     </row>
     <row r="9">
@@ -682,17 +748,24 @@
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>1714757863.080933</v>
+        <v>1469008253.256879</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1769698631213101</v>
+        <v>0.1372003745744729</v>
       </c>
       <c r="G9" t="n">
-        <v>0.02589752913725779</v>
+        <v>0.02293448301105091</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
       </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -704,22 +777,31 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>4102826538.281096</v>
+        <v>3586207944.935082</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1943176510655157</v>
+        <v>0.211108389053425</v>
       </c>
       <c r="G10" t="n">
-        <v>0.04687982520510532</v>
+        <v>0.03773128455864341</v>
       </c>
       <c r="H10" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I10" t="n">
+        <v>40</v>
+      </c>
+      <c r="J10" t="n">
+        <v>42</v>
+      </c>
+      <c r="K10" t="n">
+        <v>207.0959554680872</v>
       </c>
     </row>
     <row r="11">
@@ -738,17 +820,24 @@
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>3153582358.360932</v>
+        <v>2872221992.483007</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1649676166106179</v>
+        <v>0.1781610898871528</v>
       </c>
       <c r="G11" t="n">
-        <v>0.04576136154236368</v>
+        <v>0.03103539954978118</v>
       </c>
       <c r="H11" t="b">
         <v>0</v>
       </c>
+      <c r="I11" t="n">
+        <v>19</v>
+      </c>
+      <c r="J11" t="n">
+        <v>40</v>
+      </c>
+      <c r="K11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -760,23 +849,30 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2996098791.211939</v>
+        <v>2349618985.858186</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1360523477087333</v>
+        <v>0.1665169197273605</v>
       </c>
       <c r="G12" t="n">
-        <v>0.05142304966949736</v>
+        <v>0.03285921633183519</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
       </c>
+      <c r="I12" t="n">
+        <v>0</v>
+      </c>
+      <c r="J12" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -788,22 +884,31 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>5209675525.971812</v>
+        <v>3893212146.525868</v>
       </c>
       <c r="F13" t="n">
-        <v>0.08174936594277944</v>
+        <v>0.0831993253528493</v>
       </c>
       <c r="G13" t="n">
-        <v>0.03135939838409735</v>
+        <v>0.03003961994342106</v>
       </c>
       <c r="H13" t="b">
         <v>1</v>
+      </c>
+      <c r="I13" t="n">
+        <v>21</v>
+      </c>
+      <c r="J13" t="n">
+        <v>43</v>
+      </c>
+      <c r="K13" t="n">
+        <v>210.0405631355444</v>
       </c>
     </row>
     <row r="14">
@@ -816,23 +921,30 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>3259899694.650149</v>
+        <v>2422354398.596447</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1836482908642542</v>
+        <v>0.1453467870451086</v>
       </c>
       <c r="G14" t="n">
-        <v>0.03558288649489164</v>
+        <v>0.02796157635388907</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
       </c>
+      <c r="I14" t="n">
+        <v>7</v>
+      </c>
+      <c r="J14" t="n">
+        <v>36</v>
+      </c>
+      <c r="K14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -844,23 +956,30 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1719410038.990372</v>
+        <v>1641302380.995597</v>
       </c>
       <c r="F15" t="n">
-        <v>0.07452223755414414</v>
+        <v>0.09749312895632446</v>
       </c>
       <c r="G15" t="n">
-        <v>0.03134202807592554</v>
+        <v>0.04855770763670674</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
       </c>
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -872,23 +991,30 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2052534432.56148</v>
+        <v>2419537482.554835</v>
       </c>
       <c r="F16" t="n">
-        <v>0.1151591398838906</v>
+        <v>0.09222800653652213</v>
       </c>
       <c r="G16" t="n">
-        <v>0.04821893929964853</v>
+        <v>0.03390150145534217</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
       </c>
+      <c r="I16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -900,23 +1026,30 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>5262357514.355457</v>
+        <v>5270615863.218478</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1143346456946481</v>
+        <v>0.1169019531804971</v>
       </c>
       <c r="G17" t="n">
-        <v>0.04079352368514057</v>
+        <v>0.03351804045358828</v>
       </c>
       <c r="H17" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I17" t="n">
+        <v>20</v>
+      </c>
+      <c r="J17" t="n">
+        <v>43</v>
+      </c>
+      <c r="K17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -934,17 +1067,24 @@
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>2550886066.442308</v>
+        <v>2764533858.718269</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1801984648441368</v>
+        <v>0.1363775870411916</v>
       </c>
       <c r="G18" t="n">
-        <v>0.03074902711081563</v>
+        <v>0.03459500172654068</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
       </c>
+      <c r="I18" t="n">
+        <v>9</v>
+      </c>
+      <c r="J18" t="n">
+        <v>41</v>
+      </c>
+      <c r="K18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -956,23 +1096,30 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>1290091202.10867</v>
+        <v>1236523677.754676</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1729340164169425</v>
+        <v>0.1348507381334976</v>
       </c>
       <c r="G19" t="n">
-        <v>0.02657467477392782</v>
+        <v>0.02199187939431783</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
       </c>
+      <c r="I19" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -984,23 +1131,30 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2779800327.436563</v>
+        <v>2551983732.924409</v>
       </c>
       <c r="F20" t="n">
-        <v>0.106924870568707</v>
+        <v>0.1283190427936088</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02021680021522133</v>
+        <v>0.02326257659794138</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
       </c>
+      <c r="I20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1012,23 +1166,30 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>2678930856.968085</v>
+        <v>2265419028.06453</v>
       </c>
       <c r="F21" t="n">
-        <v>0.07244542849893217</v>
+        <v>0.06227985725120058</v>
       </c>
       <c r="G21" t="n">
-        <v>0.03179904623180235</v>
+        <v>0.03734815128292643</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
       </c>
+      <c r="I21" t="n">
+        <v>0</v>
+      </c>
+      <c r="J21" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1046,16 +1207,25 @@
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>2779199450.260782</v>
+        <v>3927707236.396688</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1222300512031919</v>
+        <v>0.1272041319242572</v>
       </c>
       <c r="G22" t="n">
-        <v>0.0369630430279367</v>
+        <v>0.0435073701088245</v>
       </c>
       <c r="H22" t="b">
         <v>0</v>
+      </c>
+      <c r="I22" t="n">
+        <v>12</v>
+      </c>
+      <c r="J22" t="n">
+        <v>42</v>
+      </c>
+      <c r="K22" t="n">
+        <v>184.7367983282227</v>
       </c>
     </row>
     <row r="23">
@@ -1074,17 +1244,24 @@
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1541740191.654641</v>
+        <v>1544750609.016121</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1587928994285565</v>
+        <v>0.1841297170912619</v>
       </c>
       <c r="G23" t="n">
-        <v>0.04741581105655279</v>
+        <v>0.04090074390561597</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
       </c>
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1102,16 +1279,25 @@
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>2778036311.342123</v>
+        <v>3830757152.604583</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1249767092923076</v>
+        <v>0.1268828270969035</v>
       </c>
       <c r="G24" t="n">
-        <v>0.02723106135869104</v>
+        <v>0.02316852896347198</v>
       </c>
       <c r="H24" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I24" t="n">
+        <v>11</v>
+      </c>
+      <c r="J24" t="n">
+        <v>42</v>
+      </c>
+      <c r="K24" t="n">
+        <v>195.5255173835285</v>
       </c>
     </row>
     <row r="25">
@@ -1124,23 +1310,30 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1281365699.956419</v>
+        <v>955231391.8770907</v>
       </c>
       <c r="F25" t="n">
-        <v>0.08483268542013879</v>
+        <v>0.08932173345175125</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02249150681581708</v>
+        <v>0.02791882017395093</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
       </c>
+      <c r="I25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1158,17 +1351,24 @@
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>944333602.3839993</v>
+        <v>942145662.7272294</v>
       </c>
       <c r="F26" t="n">
-        <v>0.1110529332689462</v>
+        <v>0.07979265286920313</v>
       </c>
       <c r="G26" t="n">
-        <v>0.02900779005923003</v>
+        <v>0.02591715392804376</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
       </c>
+      <c r="I26" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1180,22 +1380,31 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>4357823796.76421</v>
+        <v>3179123506.134185</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1550313634338223</v>
+        <v>0.1486972082679144</v>
       </c>
       <c r="G27" t="n">
-        <v>0.01687290198579222</v>
+        <v>0.02502294823467818</v>
       </c>
       <c r="H27" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I27" t="n">
+        <v>17</v>
+      </c>
+      <c r="J27" t="n">
+        <v>42</v>
+      </c>
+      <c r="K27" t="n">
+        <v>117.3283405574684</v>
       </c>
     </row>
     <row r="28">
@@ -1214,17 +1423,24 @@
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>3817747443.543035</v>
+        <v>3583347970.449606</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1165058073915754</v>
+        <v>0.1469298744777869</v>
       </c>
       <c r="G28" t="n">
-        <v>0.0481807978700762</v>
+        <v>0.03972596994291503</v>
       </c>
       <c r="H28" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I28" t="n">
+        <v>11</v>
+      </c>
+      <c r="J28" t="n">
+        <v>43</v>
+      </c>
+      <c r="K28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1236,22 +1452,31 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>5516756969.851357</v>
+        <v>5863189281.72653</v>
       </c>
       <c r="F29" t="n">
-        <v>0.09240495778113765</v>
+        <v>0.1157152199220118</v>
       </c>
       <c r="G29" t="n">
-        <v>0.0437108199707693</v>
+        <v>0.03258856288241566</v>
       </c>
       <c r="H29" t="b">
         <v>1</v>
+      </c>
+      <c r="I29" t="n">
+        <v>38</v>
+      </c>
+      <c r="J29" t="n">
+        <v>43</v>
+      </c>
+      <c r="K29" t="n">
+        <v>240.9154094671289</v>
       </c>
     </row>
     <row r="30">
@@ -1264,23 +1489,30 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>1701324171.340471</v>
+        <v>2111020769.771728</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1008721113958673</v>
+        <v>0.09599267381282411</v>
       </c>
       <c r="G30" t="n">
-        <v>0.03196578628072974</v>
+        <v>0.0324957861838517</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
       </c>
+      <c r="I30" t="n">
+        <v>0</v>
+      </c>
+      <c r="J30" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1292,23 +1524,30 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1260458876.027629</v>
+        <v>925174723.3514124</v>
       </c>
       <c r="F31" t="n">
-        <v>0.09101608511084371</v>
+        <v>0.08475841665400068</v>
       </c>
       <c r="G31" t="n">
-        <v>0.04076280867519602</v>
+        <v>0.05125309535917247</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
       </c>
+      <c r="I31" t="n">
+        <v>0</v>
+      </c>
+      <c r="J31" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1326,17 +1565,24 @@
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1433976979.97837</v>
+        <v>1168866731.50296</v>
       </c>
       <c r="F32" t="n">
-        <v>0.1126280741466212</v>
+        <v>0.1132835430038343</v>
       </c>
       <c r="G32" t="n">
-        <v>0.03214331166294441</v>
+        <v>0.03350096257319791</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
       </c>
+      <c r="I32" t="n">
+        <v>0</v>
+      </c>
+      <c r="J32" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1348,23 +1594,30 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2546949220.131542</v>
+        <v>2757697291.373985</v>
       </c>
       <c r="F33" t="n">
-        <v>0.129432255290059</v>
+        <v>0.1342783121091051</v>
       </c>
       <c r="G33" t="n">
-        <v>0.05227756603959446</v>
+        <v>0.0440709925650093</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
       </c>
+      <c r="I33" t="n">
+        <v>0</v>
+      </c>
+      <c r="J33" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1376,23 +1629,30 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>992211551.462373</v>
+        <v>1009622240.221179</v>
       </c>
       <c r="F34" t="n">
-        <v>0.08417658669952008</v>
+        <v>0.08134024322750373</v>
       </c>
       <c r="G34" t="n">
-        <v>0.02329233965343525</v>
+        <v>0.02000756561284618</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
       </c>
+      <c r="I34" t="n">
+        <v>0</v>
+      </c>
+      <c r="J34" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1404,23 +1664,30 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>1292653681.502348</v>
+        <v>1012193809.966678</v>
       </c>
       <c r="F35" t="n">
-        <v>0.07702681278406476</v>
+        <v>0.08442453960763455</v>
       </c>
       <c r="G35" t="n">
-        <v>0.02843849974860165</v>
+        <v>0.04064011561556</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
       </c>
+      <c r="I35" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1432,23 +1699,30 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2380750717.163695</v>
+        <v>2696923629.239734</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1235960171116425</v>
+        <v>0.1091708143272725</v>
       </c>
       <c r="G36" t="n">
-        <v>0.0207131769701938</v>
+        <v>0.02630545115206285</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
       </c>
+      <c r="I36" t="n">
+        <v>1</v>
+      </c>
+      <c r="J36" t="n">
+        <v>2</v>
+      </c>
+      <c r="K36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1460,23 +1734,30 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2889325492.344437</v>
+        <v>2924252355.866673</v>
       </c>
       <c r="F37" t="n">
-        <v>0.09578223801218592</v>
+        <v>0.07180168221659866</v>
       </c>
       <c r="G37" t="n">
-        <v>0.03023572747184304</v>
+        <v>0.03066602710378334</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
       </c>
+      <c r="I37" t="n">
+        <v>0</v>
+      </c>
+      <c r="J37" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1488,23 +1769,30 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>2123981639.251576</v>
+        <v>2132561510.234373</v>
       </c>
       <c r="F38" t="n">
-        <v>0.07873098809883883</v>
+        <v>0.07949673243459346</v>
       </c>
       <c r="G38" t="n">
-        <v>0.0247420836956991</v>
+        <v>0.0326368641418581</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
       </c>
+      <c r="I38" t="n">
+        <v>0</v>
+      </c>
+      <c r="J38" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1516,23 +1804,30 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1483986214.772831</v>
+        <v>1345070157.593096</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1486362815128102</v>
+        <v>0.1689716169170866</v>
       </c>
       <c r="G39" t="n">
-        <v>0.02766496328390846</v>
+        <v>0.03214026085503498</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
       </c>
+      <c r="I39" t="n">
+        <v>0</v>
+      </c>
+      <c r="J39" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1550,17 +1845,24 @@
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1792802813.666498</v>
+        <v>1521024885.683641</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1375461481273699</v>
+        <v>0.1571053542086605</v>
       </c>
       <c r="G40" t="n">
-        <v>0.04491762835405893</v>
+        <v>0.03914053452728553</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
       </c>
+      <c r="I40" t="n">
+        <v>0</v>
+      </c>
+      <c r="J40" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1572,23 +1874,30 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2249456576.747382</v>
+        <v>2397347953.886016</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1353476599358545</v>
+        <v>0.1548357509051439</v>
       </c>
       <c r="G41" t="n">
-        <v>0.04230966817508873</v>
+        <v>0.0359954144204626</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
       </c>
+      <c r="I41" t="n">
+        <v>0</v>
+      </c>
+      <c r="J41" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1600,22 +1909,31 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>4281025686.904442</v>
+        <v>2649282297.667792</v>
       </c>
       <c r="F42" t="n">
-        <v>0.09104454247318228</v>
+        <v>0.09410288934973952</v>
       </c>
       <c r="G42" t="n">
-        <v>0.04517561377963287</v>
+        <v>0.03788317313379669</v>
       </c>
       <c r="H42" t="b">
         <v>0</v>
+      </c>
+      <c r="I42" t="n">
+        <v>15</v>
+      </c>
+      <c r="J42" t="n">
+        <v>42</v>
+      </c>
+      <c r="K42" t="n">
+        <v>98.94787159278485</v>
       </c>
     </row>
     <row r="43">
@@ -1628,23 +1946,30 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2232789008.670312</v>
+        <v>2739797658.042102</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1758557817061138</v>
+        <v>0.1705593235892162</v>
       </c>
       <c r="G43" t="n">
-        <v>0.01883125100114791</v>
+        <v>0.02290849711908696</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
       </c>
+      <c r="I43" t="n">
+        <v>0</v>
+      </c>
+      <c r="J43" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1656,23 +1981,30 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>1435535165.532247</v>
+        <v>2221357824.41996</v>
       </c>
       <c r="F44" t="n">
-        <v>0.07608539820793968</v>
+        <v>0.07553028871784727</v>
       </c>
       <c r="G44" t="n">
-        <v>0.0276506523745467</v>
+        <v>0.03243128681949965</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
       </c>
+      <c r="I44" t="n">
+        <v>0</v>
+      </c>
+      <c r="J44" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1684,23 +2016,30 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>2446082975.696153</v>
+        <v>2093125261.085221</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1596905322036843</v>
+        <v>0.1181415235778352</v>
       </c>
       <c r="G45" t="n">
-        <v>0.04909356984981955</v>
+        <v>0.03601885134102757</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
       </c>
+      <c r="I45" t="n">
+        <v>0</v>
+      </c>
+      <c r="J45" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -1712,22 +2051,31 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>5265823823.373331</v>
+        <v>5515807812.543229</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1685411856338827</v>
+        <v>0.1185880503968813</v>
       </c>
       <c r="G46" t="n">
-        <v>0.05991703776133712</v>
+        <v>0.04480623003767786</v>
       </c>
       <c r="H46" t="b">
         <v>1</v>
+      </c>
+      <c r="I46" t="n">
+        <v>26</v>
+      </c>
+      <c r="J46" t="n">
+        <v>43</v>
+      </c>
+      <c r="K46" t="n">
+        <v>211.6554569947496</v>
       </c>
     </row>
     <row r="47">
@@ -1740,23 +2088,30 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>4304078982.103804</v>
+        <v>3263962123.224066</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1662234393753617</v>
+        <v>0.1756609925362618</v>
       </c>
       <c r="G47" t="n">
-        <v>0.04043383058382009</v>
+        <v>0.05061795500126687</v>
       </c>
       <c r="H47" t="b">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I47" t="n">
+        <v>18</v>
+      </c>
+      <c r="J47" t="n">
+        <v>41</v>
+      </c>
+      <c r="K47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -1768,23 +2123,30 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>2843313554.157506</v>
+        <v>3389833914.292002</v>
       </c>
       <c r="F48" t="n">
-        <v>0.09712711936978632</v>
+        <v>0.1049567869717887</v>
       </c>
       <c r="G48" t="n">
-        <v>0.03588199510336791</v>
+        <v>0.03025895577565459</v>
       </c>
       <c r="H48" t="b">
         <v>0</v>
       </c>
+      <c r="I48" t="n">
+        <v>14</v>
+      </c>
+      <c r="J48" t="n">
+        <v>40</v>
+      </c>
+      <c r="K48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -1796,23 +2158,30 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1840659198.050918</v>
+        <v>1871107928.993315</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1480566960623877</v>
+        <v>0.12459508090388</v>
       </c>
       <c r="G49" t="n">
-        <v>0.04042875918222492</v>
+        <v>0.03035534729666048</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
       </c>
+      <c r="I49" t="n">
+        <v>0</v>
+      </c>
+      <c r="J49" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -1824,23 +2193,30 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>3746533657.773618</v>
+        <v>3577612878.746394</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1221108971329699</v>
+        <v>0.1585935758667799</v>
       </c>
       <c r="G50" t="n">
-        <v>0.04265926858921767</v>
+        <v>0.03480286744417822</v>
       </c>
       <c r="H50" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I50" t="n">
+        <v>15</v>
+      </c>
+      <c r="J50" t="n">
+        <v>43</v>
+      </c>
+      <c r="K50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -1852,23 +2228,30 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1125024004.688448</v>
+        <v>1148045133.118526</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1417141502988992</v>
+        <v>0.1526905205612897</v>
       </c>
       <c r="G51" t="n">
-        <v>0.04738849011736231</v>
+        <v>0.03619044679170333</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
       </c>
+      <c r="I51" t="n">
+        <v>0</v>
+      </c>
+      <c r="J51" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -1880,22 +2263,31 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>3270190987.09145</v>
+        <v>3474696416.547922</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1272690629378442</v>
+        <v>0.117350000683171</v>
       </c>
       <c r="G52" t="n">
-        <v>0.05262938182538267</v>
+        <v>0.0422440872381214</v>
       </c>
       <c r="H52" t="b">
         <v>0</v>
+      </c>
+      <c r="I52" t="n">
+        <v>34</v>
+      </c>
+      <c r="J52" t="n">
+        <v>42</v>
+      </c>
+      <c r="K52" t="n">
+        <v>187.0208390320855</v>
       </c>
     </row>
     <row r="53">
@@ -1914,17 +2306,24 @@
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>2295430188.349863</v>
+        <v>3385198720.447078</v>
       </c>
       <c r="F53" t="n">
-        <v>0.2048649521126957</v>
+        <v>0.1739279520243069</v>
       </c>
       <c r="G53" t="n">
-        <v>0.02386230568447954</v>
+        <v>0.02730946419132799</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
       </c>
+      <c r="I53" t="n">
+        <v>6</v>
+      </c>
+      <c r="J53" t="n">
+        <v>36</v>
+      </c>
+      <c r="K53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -1936,23 +2335,30 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>3680478140.02771</v>
+        <v>4353409664.876813</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1322906074937142</v>
+        <v>0.1119745404706565</v>
       </c>
       <c r="G54" t="n">
-        <v>0.03223966054285029</v>
+        <v>0.04890979145623379</v>
       </c>
       <c r="H54" t="b">
         <v>1</v>
       </c>
+      <c r="I54" t="n">
+        <v>18</v>
+      </c>
+      <c r="J54" t="n">
+        <v>43</v>
+      </c>
+      <c r="K54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -1964,23 +2370,30 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>4533804566.367959</v>
+        <v>3413507065.408222</v>
       </c>
       <c r="F55" t="n">
-        <v>0.1410274412813463</v>
+        <v>0.1374701995776774</v>
       </c>
       <c r="G55" t="n">
-        <v>0.0286135329455654</v>
+        <v>0.03181610293776482</v>
       </c>
       <c r="H55" t="b">
         <v>1</v>
       </c>
+      <c r="I55" t="n">
+        <v>20</v>
+      </c>
+      <c r="J55" t="n">
+        <v>43</v>
+      </c>
+      <c r="K55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -1992,23 +2405,30 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1620735838.166009</v>
+        <v>1653867731.857114</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1113161263705075</v>
+        <v>0.1154034747704016</v>
       </c>
       <c r="G56" t="n">
-        <v>0.03877269030558109</v>
+        <v>0.04778857575090453</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
       </c>
+      <c r="I56" t="n">
+        <v>0</v>
+      </c>
+      <c r="J56" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2026,17 +2446,24 @@
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>2909094587.620036</v>
+        <v>3016289721.411177</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1378917301905111</v>
+        <v>0.1306133545322537</v>
       </c>
       <c r="G57" t="n">
-        <v>0.01791986976568564</v>
+        <v>0.02712216111228999</v>
       </c>
       <c r="H57" t="b">
         <v>0</v>
       </c>
+      <c r="I57" t="n">
+        <v>16</v>
+      </c>
+      <c r="J57" t="n">
+        <v>39</v>
+      </c>
+      <c r="K57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2048,23 +2475,30 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1661402249.619286</v>
+        <v>1825578627.221302</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1874002207244665</v>
+        <v>0.1541985802824151</v>
       </c>
       <c r="G58" t="n">
-        <v>0.03911074907105864</v>
+        <v>0.03115869639176542</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
       </c>
+      <c r="I58" t="n">
+        <v>0</v>
+      </c>
+      <c r="J58" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2082,17 +2516,24 @@
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>4346807390.417772</v>
+        <v>5138182880.059355</v>
       </c>
       <c r="F59" t="n">
-        <v>0.09274205116516887</v>
+        <v>0.0831080229283483</v>
       </c>
       <c r="G59" t="n">
-        <v>0.04266409847308384</v>
+        <v>0.04233916534366252</v>
       </c>
       <c r="H59" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I59" t="n">
+        <v>20</v>
+      </c>
+      <c r="J59" t="n">
+        <v>43</v>
+      </c>
+      <c r="K59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2104,23 +2545,30 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>3274293190.609093</v>
+        <v>2674661035.581913</v>
       </c>
       <c r="F60" t="n">
-        <v>0.133488277378128</v>
+        <v>0.1505617974163099</v>
       </c>
       <c r="G60" t="n">
-        <v>0.02680850997857968</v>
+        <v>0.02159397434648532</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
       </c>
+      <c r="I60" t="n">
+        <v>5</v>
+      </c>
+      <c r="J60" t="n">
+        <v>30</v>
+      </c>
+      <c r="K60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2138,17 +2586,24 @@
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>2570277343.99228</v>
+        <v>2247458059.365414</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1290482254179203</v>
+        <v>0.1119514808813592</v>
       </c>
       <c r="G61" t="n">
-        <v>0.03016365251580943</v>
+        <v>0.02662290053791206</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
       </c>
+      <c r="I61" t="n">
+        <v>0</v>
+      </c>
+      <c r="J61" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2160,23 +2615,30 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1828274755.393954</v>
+        <v>1796022751.879087</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1462460181166448</v>
+        <v>0.1326621417703494</v>
       </c>
       <c r="G62" t="n">
-        <v>0.0366931948764865</v>
+        <v>0.03209578449428751</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
       </c>
+      <c r="I62" t="n">
+        <v>0</v>
+      </c>
+      <c r="J62" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2188,22 +2650,31 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>4515132468.669975</v>
+        <v>3447527281.544487</v>
       </c>
       <c r="F63" t="n">
-        <v>0.09287151728813714</v>
+        <v>0.1065363845559695</v>
       </c>
       <c r="G63" t="n">
-        <v>0.04150929123314891</v>
+        <v>0.03986073059002537</v>
       </c>
       <c r="H63" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I63" t="n">
+        <v>21</v>
+      </c>
+      <c r="J63" t="n">
+        <v>42</v>
+      </c>
+      <c r="K63" t="n">
+        <v>156.8936789600284</v>
       </c>
     </row>
     <row r="64">
@@ -2216,23 +2687,30 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>4067848391.691768</v>
+        <v>5142567073.639201</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1726243808330735</v>
+        <v>0.1172935867930019</v>
       </c>
       <c r="G64" t="n">
-        <v>0.02545251046900492</v>
+        <v>0.02235541708177474</v>
       </c>
       <c r="H64" t="b">
         <v>1</v>
       </c>
+      <c r="I64" t="n">
+        <v>21</v>
+      </c>
+      <c r="J64" t="n">
+        <v>43</v>
+      </c>
+      <c r="K64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2244,22 +2722,31 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>5631486578.655567</v>
+        <v>5522061277.806321</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1490179048322089</v>
+        <v>0.1176967209483257</v>
       </c>
       <c r="G65" t="n">
-        <v>0.02349866532575808</v>
+        <v>0.03147605600933004</v>
       </c>
       <c r="H65" t="b">
         <v>1</v>
+      </c>
+      <c r="I65" t="n">
+        <v>35</v>
+      </c>
+      <c r="J65" t="n">
+        <v>43</v>
+      </c>
+      <c r="K65" t="n">
+        <v>212.7425467996396</v>
       </c>
     </row>
     <row r="66">
@@ -2272,23 +2759,30 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>4496459651.004018</v>
+        <v>4933854252.473133</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1050448143920277</v>
+        <v>0.1000493669893511</v>
       </c>
       <c r="G66" t="n">
-        <v>0.03577677904468541</v>
+        <v>0.04806438514268554</v>
       </c>
       <c r="H66" t="b">
         <v>1</v>
       </c>
+      <c r="I66" t="n">
+        <v>21</v>
+      </c>
+      <c r="J66" t="n">
+        <v>43</v>
+      </c>
+      <c r="K66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2300,23 +2794,30 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>2294360391.012455</v>
+        <v>3247270008.877917</v>
       </c>
       <c r="F67" t="n">
-        <v>0.0925466505864109</v>
+        <v>0.09877062105278792</v>
       </c>
       <c r="G67" t="n">
-        <v>0.03877928256531613</v>
+        <v>0.04705937841652895</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
       </c>
+      <c r="I67" t="n">
+        <v>0</v>
+      </c>
+      <c r="J67" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2328,23 +2829,30 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>5391276787.830465</v>
+        <v>3718119080.432883</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1577085929243149</v>
+        <v>0.1035719936940747</v>
       </c>
       <c r="G68" t="n">
-        <v>0.03329134057981493</v>
+        <v>0.03812140127773888</v>
       </c>
       <c r="H68" t="b">
         <v>1</v>
       </c>
+      <c r="I68" t="n">
+        <v>21</v>
+      </c>
+      <c r="J68" t="n">
+        <v>43</v>
+      </c>
+      <c r="K68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2356,23 +2864,30 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>2432504175.687096</v>
+        <v>2434505759.567451</v>
       </c>
       <c r="F69" t="n">
-        <v>0.117010997316508</v>
+        <v>0.1208086721886054</v>
       </c>
       <c r="G69" t="n">
-        <v>0.05448398806012911</v>
+        <v>0.05507377170470654</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
       </c>
+      <c r="I69" t="n">
+        <v>0</v>
+      </c>
+      <c r="J69" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2384,23 +2899,30 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>3154588101.662481</v>
+        <v>3069056218.914758</v>
       </c>
       <c r="F70" t="n">
-        <v>0.06478568627675442</v>
+        <v>0.10298366049981</v>
       </c>
       <c r="G70" t="n">
-        <v>0.04004522940568445</v>
+        <v>0.04018223238875129</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
       </c>
+      <c r="I70" t="n">
+        <v>4</v>
+      </c>
+      <c r="J70" t="n">
+        <v>35</v>
+      </c>
+      <c r="K70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2412,23 +2934,30 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>5595516580.455715</v>
+        <v>3868821466.497972</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1525419166796375</v>
+        <v>0.1269548561869443</v>
       </c>
       <c r="G71" t="n">
-        <v>0.02638342513758795</v>
+        <v>0.02949512364009646</v>
       </c>
       <c r="H71" t="b">
         <v>1</v>
       </c>
+      <c r="I71" t="n">
+        <v>35</v>
+      </c>
+      <c r="J71" t="n">
+        <v>43</v>
+      </c>
+      <c r="K71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -2446,17 +2975,24 @@
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>2164359543.02044</v>
+        <v>2082097229.626675</v>
       </c>
       <c r="F72" t="n">
-        <v>0.09050482430960348</v>
+        <v>0.07121415332127592</v>
       </c>
       <c r="G72" t="n">
-        <v>0.03258413987923892</v>
+        <v>0.05197470348236431</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
       </c>
+      <c r="I72" t="n">
+        <v>0</v>
+      </c>
+      <c r="J72" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -2468,22 +3004,31 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>2751191341.391666</v>
+        <v>3219242793.146947</v>
       </c>
       <c r="F73" t="n">
-        <v>0.1010478017397308</v>
+        <v>0.07004836964949697</v>
       </c>
       <c r="G73" t="n">
-        <v>0.04188728620901148</v>
+        <v>0.04259759093096536</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
+      </c>
+      <c r="I73" t="n">
+        <v>3</v>
+      </c>
+      <c r="J73" t="n">
+        <v>42</v>
+      </c>
+      <c r="K73" t="n">
+        <v>156.6996810835828</v>
       </c>
     </row>
     <row r="74">
@@ -2496,23 +3041,30 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>3614435055.755763</v>
+        <v>2725903800.277529</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1391785354578964</v>
+        <v>0.1374907038082516</v>
       </c>
       <c r="G74" t="n">
-        <v>0.03062970344970171</v>
+        <v>0.02789787125054293</v>
       </c>
       <c r="H74" t="b">
         <v>0</v>
       </c>
+      <c r="I74" t="n">
+        <v>12</v>
+      </c>
+      <c r="J74" t="n">
+        <v>39</v>
+      </c>
+      <c r="K74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -2524,23 +3076,30 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>2475242527.804479</v>
+        <v>1752933957.399916</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1537425850583873</v>
+        <v>0.1050751567945946</v>
       </c>
       <c r="G75" t="n">
-        <v>0.03143484564772186</v>
+        <v>0.03161277111957077</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
       </c>
+      <c r="I75" t="n">
+        <v>0</v>
+      </c>
+      <c r="J75" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -2552,23 +3111,30 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>4455580036.83952</v>
+        <v>4497590198.5659</v>
       </c>
       <c r="F76" t="n">
-        <v>0.1229273875412333</v>
+        <v>0.1247705280201406</v>
       </c>
       <c r="G76" t="n">
-        <v>0.02444556501779943</v>
+        <v>0.03190835092606628</v>
       </c>
       <c r="H76" t="b">
         <v>1</v>
       </c>
+      <c r="I76" t="n">
+        <v>20</v>
+      </c>
+      <c r="J76" t="n">
+        <v>43</v>
+      </c>
+      <c r="K76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -2580,23 +3146,30 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>2245494696.180181</v>
+        <v>1468367372.797124</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1769126696260038</v>
+        <v>0.1768558240461499</v>
       </c>
       <c r="G77" t="n">
-        <v>0.02686572338040177</v>
+        <v>0.02801452157669711</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
       </c>
+      <c r="I77" t="n">
+        <v>0</v>
+      </c>
+      <c r="J77" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -2614,17 +3187,24 @@
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>3806116509.260261</v>
+        <v>3056741046.629499</v>
       </c>
       <c r="F78" t="n">
-        <v>0.09664005877505082</v>
+        <v>0.1109998170786357</v>
       </c>
       <c r="G78" t="n">
-        <v>0.03990985942817098</v>
+        <v>0.05452068487788112</v>
       </c>
       <c r="H78" t="b">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I78" t="n">
+        <v>18</v>
+      </c>
+      <c r="J78" t="n">
+        <v>41</v>
+      </c>
+      <c r="K78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -2636,23 +3216,30 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1770864418.723794</v>
+        <v>1832084790.432798</v>
       </c>
       <c r="F79" t="n">
-        <v>0.154929647556874</v>
+        <v>0.1278970363525367</v>
       </c>
       <c r="G79" t="n">
-        <v>0.03632357905530851</v>
+        <v>0.03915207460768944</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
       </c>
+      <c r="I79" t="n">
+        <v>0</v>
+      </c>
+      <c r="J79" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -2664,22 +3251,31 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>5414540740.644437</v>
+        <v>5369405595.633884</v>
       </c>
       <c r="F80" t="n">
-        <v>0.0964679714854273</v>
+        <v>0.09601541282190894</v>
       </c>
       <c r="G80" t="n">
-        <v>0.02847478802273054</v>
+        <v>0.03169526131048626</v>
       </c>
       <c r="H80" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I80" t="n">
+        <v>21</v>
+      </c>
+      <c r="J80" t="n">
+        <v>42</v>
+      </c>
+      <c r="K80" t="n">
+        <v>167.0314915489588</v>
       </c>
     </row>
     <row r="81">
@@ -2692,22 +3288,31 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>3788118780.559921</v>
+        <v>4541999829.484996</v>
       </c>
       <c r="F81" t="n">
-        <v>0.0835786971150765</v>
+        <v>0.09540832402017003</v>
       </c>
       <c r="G81" t="n">
-        <v>0.02884973195967979</v>
+        <v>0.03142149058508394</v>
       </c>
       <c r="H81" t="b">
         <v>0</v>
+      </c>
+      <c r="I81" t="n">
+        <v>19</v>
+      </c>
+      <c r="J81" t="n">
+        <v>42</v>
+      </c>
+      <c r="K81" t="n">
+        <v>169.3971518520321</v>
       </c>
     </row>
     <row r="82">
@@ -2720,22 +3325,31 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>3980322803.631398</v>
+        <v>4444362209.258466</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1969613176776516</v>
+        <v>0.1584178448297683</v>
       </c>
       <c r="G82" t="n">
-        <v>0.0183453066434499</v>
+        <v>0.0234269091823879</v>
       </c>
       <c r="H82" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I82" t="n">
+        <v>24</v>
+      </c>
+      <c r="J82" t="n">
+        <v>43</v>
+      </c>
+      <c r="K82" t="n">
+        <v>212.6536851739403</v>
       </c>
     </row>
     <row r="83">
@@ -2748,23 +3362,30 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>1590279079.272724</v>
+        <v>1908227868.364399</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1122319258258982</v>
+        <v>0.1140271178894463</v>
       </c>
       <c r="G83" t="n">
-        <v>0.04280485355751114</v>
+        <v>0.03531285853187058</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
       </c>
+      <c r="I83" t="n">
+        <v>0</v>
+      </c>
+      <c r="J83" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -2776,23 +3397,30 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>1843514939.857907</v>
+        <v>2375917528.149282</v>
       </c>
       <c r="F84" t="n">
-        <v>0.0731044790919822</v>
+        <v>0.07668680769072796</v>
       </c>
       <c r="G84" t="n">
-        <v>0.03815090357548592</v>
+        <v>0.03723646017110047</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
       </c>
+      <c r="I84" t="n">
+        <v>0</v>
+      </c>
+      <c r="J84" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -2804,23 +3432,30 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>3229733841.167144</v>
+        <v>3658834906.744678</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1172764078665351</v>
+        <v>0.1852197630701716</v>
       </c>
       <c r="G85" t="n">
-        <v>0.04236855600454043</v>
+        <v>0.05322358589289351</v>
       </c>
       <c r="H85" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I85" t="n">
+        <v>7</v>
+      </c>
+      <c r="J85" t="n">
+        <v>43</v>
+      </c>
+      <c r="K85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -2838,17 +3473,24 @@
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2740719658.768114</v>
+        <v>2501241701.87647</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1250060065650123</v>
+        <v>0.1164375182299107</v>
       </c>
       <c r="G86" t="n">
-        <v>0.02700017050428018</v>
+        <v>0.02279414016745586</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
       </c>
+      <c r="I86" t="n">
+        <v>0</v>
+      </c>
+      <c r="J86" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -2860,23 +3502,30 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>996280663.1967626</v>
+        <v>1439248061.416498</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1748077265657552</v>
+        <v>0.1632500697938704</v>
       </c>
       <c r="G87" t="n">
-        <v>0.03667156187072524</v>
+        <v>0.03788124180353872</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
       </c>
+      <c r="I87" t="n">
+        <v>0</v>
+      </c>
+      <c r="J87" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -2888,22 +3537,31 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>2570858050.382074</v>
+        <v>2882824092.271967</v>
       </c>
       <c r="F88" t="n">
-        <v>0.156240362292332</v>
+        <v>0.1129813175286147</v>
       </c>
       <c r="G88" t="n">
-        <v>0.03798492608584701</v>
+        <v>0.03554155089656444</v>
       </c>
       <c r="H88" t="b">
         <v>0</v>
+      </c>
+      <c r="I88" t="n">
+        <v>6</v>
+      </c>
+      <c r="J88" t="n">
+        <v>42</v>
+      </c>
+      <c r="K88" t="n">
+        <v>127.1161711201287</v>
       </c>
     </row>
     <row r="89">
@@ -2916,23 +3574,30 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>3117528203.488748</v>
+        <v>2958926342.256585</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1599787953504969</v>
+        <v>0.1105768103234131</v>
       </c>
       <c r="G89" t="n">
-        <v>0.03926730697264318</v>
+        <v>0.03647229474701685</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
       </c>
+      <c r="I89" t="n">
+        <v>5</v>
+      </c>
+      <c r="J89" t="n">
+        <v>40</v>
+      </c>
+      <c r="K89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -2944,23 +3609,30 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1461665766.223013</v>
+        <v>2136937664.338634</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1082632343933337</v>
+        <v>0.1054186718842837</v>
       </c>
       <c r="G90" t="n">
-        <v>0.03766691670745287</v>
+        <v>0.03797190936675853</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
       </c>
+      <c r="I90" t="n">
+        <v>0</v>
+      </c>
+      <c r="J90" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -2972,23 +3644,30 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1827500199.722926</v>
+        <v>1845149830.520468</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1649486684525608</v>
+        <v>0.1697184047874221</v>
       </c>
       <c r="G91" t="n">
-        <v>0.03823060465023268</v>
+        <v>0.04599117689007722</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
       </c>
+      <c r="I91" t="n">
+        <v>0</v>
+      </c>
+      <c r="J91" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3000,23 +3679,30 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>1838206435.764868</v>
+        <v>2996936479.49237</v>
       </c>
       <c r="F92" t="n">
-        <v>0.1042306117423721</v>
+        <v>0.06850807083982839</v>
       </c>
       <c r="G92" t="n">
-        <v>0.03846106031928459</v>
+        <v>0.04661472911080854</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
       </c>
+      <c r="I92" t="n">
+        <v>0</v>
+      </c>
+      <c r="J92" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3034,17 +3720,24 @@
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>3487386356.988257</v>
+        <v>3443846861.657785</v>
       </c>
       <c r="F93" t="n">
-        <v>0.1419116167354747</v>
+        <v>0.1397147691998912</v>
       </c>
       <c r="G93" t="n">
-        <v>0.04210028725456345</v>
+        <v>0.05368871871022981</v>
       </c>
       <c r="H93" t="b">
         <v>1</v>
       </c>
+      <c r="I93" t="n">
+        <v>19</v>
+      </c>
+      <c r="J93" t="n">
+        <v>43</v>
+      </c>
+      <c r="K93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3056,23 +3749,30 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>1821102107.137302</v>
+        <v>1975524990.022662</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1277948260271327</v>
+        <v>0.1233780044765931</v>
       </c>
       <c r="G94" t="n">
-        <v>0.0397060257020907</v>
+        <v>0.0359555619068198</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
       </c>
+      <c r="I94" t="n">
+        <v>0</v>
+      </c>
+      <c r="J94" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3084,23 +3784,30 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2745923595.225934</v>
+        <v>2568904889.150098</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1185606300677581</v>
+        <v>0.1332412188489929</v>
       </c>
       <c r="G95" t="n">
-        <v>0.03827121422619217</v>
+        <v>0.05109566817737132</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
       </c>
+      <c r="I95" t="n">
+        <v>1</v>
+      </c>
+      <c r="J95" t="n">
+        <v>14</v>
+      </c>
+      <c r="K95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3112,23 +3819,30 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>2130676426.447253</v>
+        <v>1899621012.710288</v>
       </c>
       <c r="F96" t="n">
-        <v>0.09722284180726622</v>
+        <v>0.139370599831809</v>
       </c>
       <c r="G96" t="n">
-        <v>0.03974791811422507</v>
+        <v>0.04052382102068711</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
       </c>
+      <c r="I96" t="n">
+        <v>0</v>
+      </c>
+      <c r="J96" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3140,22 +3854,31 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>4025719978.828185</v>
+        <v>4559779090.136871</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1500802469566492</v>
+        <v>0.1353231764579829</v>
       </c>
       <c r="G97" t="n">
-        <v>0.01774081155401355</v>
+        <v>0.02283780305687356</v>
       </c>
       <c r="H97" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I97" t="n">
+        <v>21</v>
+      </c>
+      <c r="J97" t="n">
+        <v>42</v>
+      </c>
+      <c r="K97" t="n">
+        <v>208.306574367554</v>
       </c>
     </row>
     <row r="98">
@@ -3174,16 +3897,25 @@
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>3482659001.963647</v>
+        <v>2442024009.562395</v>
       </c>
       <c r="F98" t="n">
-        <v>0.1163877524742852</v>
+        <v>0.1072103341733537</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02411324013791498</v>
+        <v>0.024710797647338</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
+      </c>
+      <c r="I98" t="n">
+        <v>11</v>
+      </c>
+      <c r="J98" t="n">
+        <v>42</v>
+      </c>
+      <c r="K98" t="n">
+        <v>74.97090588104322</v>
       </c>
     </row>
     <row r="99">
@@ -3196,23 +3928,30 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D99" t="n">
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>2778202045.38486</v>
+        <v>2990342836.382794</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1079378022463737</v>
+        <v>0.1354988847262589</v>
       </c>
       <c r="G99" t="n">
-        <v>0.02376654348022995</v>
+        <v>0.02834931791632517</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
       </c>
+      <c r="I99" t="n">
+        <v>0</v>
+      </c>
+      <c r="J99" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3224,22 +3963,31 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>3537089169.957319</v>
+        <v>4166295248.951411</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1753125775785191</v>
+        <v>0.1328423222707063</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02790919123105452</v>
+        <v>0.02045098290110471</v>
       </c>
       <c r="H100" t="b">
         <v>0</v>
+      </c>
+      <c r="I100" t="n">
+        <v>20</v>
+      </c>
+      <c r="J100" t="n">
+        <v>42</v>
+      </c>
+      <c r="K100" t="n">
+        <v>196.0869068556745</v>
       </c>
     </row>
     <row r="101">
@@ -3258,17 +4006,24 @@
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>3571259175.922265</v>
+        <v>3190839833.687393</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1940214992278953</v>
+        <v>0.1469503092076895</v>
       </c>
       <c r="G101" t="n">
-        <v>0.05486664255429868</v>
+        <v>0.04507226585529329</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>
       </c>
+      <c r="I101" t="n">
+        <v>2</v>
+      </c>
+      <c r="J101" t="n">
+        <v>35</v>
+      </c>
+      <c r="K101" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
